--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27260" yWindow="2580" windowWidth="25600" windowHeight="14580" activeTab="4"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.1 新特性|Fix Bug" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="232">
   <si>
     <t>No</t>
   </si>
@@ -1010,6 +1010,88 @@
   </si>
   <si>
     <t>官网域名放开限制后，针对放开的限制做无效域名拦截处理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独配置</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式环境聚有财访问证书配置切换</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式环境晚上10点处理
+准备证书切换，把openapi.juxiangfen.com_symantec.cer 上传到“ /var/lib/docker/contract/template ”路径下，并修改下列配置文件。
+#聚有财证书文件路径
+sysconfig.jyc_cer_filepath=/var/lib/docker/contract/template/openapi.juxiangfen.com_symantec.cer</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄展明</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx部署 nginx.conf</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>include       mime.types;
+  #default_type  text/html;
+  default_type application/json;
+  log_format main '$host|$remote_addr|$http_x_forwarded_for|$time_iso8601|$request|$status|$http_referer|$http_user_agent|$body_bytes_sent|$request_body';
+  access_log  logs/access.log  main;
+  sendfile        on;
+  gzip  on;
+  server {
+      listen       8080;
+      server_name  localhost;
+      charset utf8;
+      #access_log  logs/host.access.log  main;
+      location / {
+         # root   /data/location/;
+         # index  a.gif;
+         return 200 '{"success":"true"}';
+         error_page 405 =200 $uri;
+      }
+  }</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据app埋点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈城</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.nginx获取request_body 看实际nginx环境是否可以获取可能要装第三方插件
+2.nginx埋点需要配置一个外部app访问的域名：例如tongji.mogoroom.com
+</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1435,7 +1517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1683,6 +1765,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1731,38 +1846,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2210,7 +2298,7 @@
       <c r="A2" s="74">
         <v>1</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="83" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="71" t="s">
@@ -2222,13 +2310,13 @@
       <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="100">
+      <c r="F2" s="84">
         <v>42571</v>
       </c>
       <c r="G2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="100">
+      <c r="H2" s="84">
         <v>42571</v>
       </c>
       <c r="I2" s="71" t="s">
@@ -2246,7 +2334,7 @@
       <c r="M2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="100"/>
+      <c r="N2" s="84"/>
       <c r="O2" s="28" t="s">
         <v>70</v>
       </c>
@@ -2262,7 +2350,7 @@
       <c r="A3" s="75">
         <v>2</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="83" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="71" t="s">
@@ -2274,13 +2362,13 @@
       <c r="E3" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="100">
+      <c r="F3" s="84">
         <v>42571</v>
       </c>
       <c r="G3" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="100">
+      <c r="H3" s="84">
         <v>42571</v>
       </c>
       <c r="I3" s="71"/>
@@ -2296,7 +2384,7 @@
       <c r="M3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="100"/>
+      <c r="N3" s="84"/>
       <c r="O3" s="28" t="s">
         <v>70</v>
       </c>
@@ -2312,7 +2400,7 @@
       <c r="A4" s="75">
         <v>3</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="85" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -2324,13 +2412,13 @@
       <c r="E4" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="100">
+      <c r="F4" s="84">
         <v>42571</v>
       </c>
       <c r="G4" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="100">
+      <c r="H4" s="84">
         <v>42571</v>
       </c>
       <c r="I4" s="71"/>
@@ -2360,7 +2448,7 @@
       <c r="A5" s="75">
         <v>4</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="85" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="71" t="s">
@@ -2372,13 +2460,13 @@
       <c r="E5" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="100">
+      <c r="F5" s="84">
         <v>42571</v>
       </c>
       <c r="G5" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="100">
+      <c r="H5" s="84">
         <v>42571</v>
       </c>
       <c r="I5" s="71"/>
@@ -2408,7 +2496,7 @@
       <c r="A6" s="75">
         <v>5</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="83" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="71" t="s">
@@ -2420,13 +2508,13 @@
       <c r="E6" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="100">
+      <c r="F6" s="84">
         <v>42571</v>
       </c>
       <c r="G6" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="84">
         <v>42571</v>
       </c>
       <c r="I6" s="71"/>
@@ -2492,10 +2580,10 @@
       <c r="O7" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="103" t="s">
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="87" t="s">
         <v>90</v>
       </c>
       <c r="T7" s="30"/>
@@ -2543,7 +2631,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
-      <c r="S8" s="103" t="s">
+      <c r="S8" s="87" t="s">
         <v>93</v>
       </c>
       <c r="T8" s="30"/>
@@ -2591,7 +2679,7 @@
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
       <c r="R9" s="23"/>
-      <c r="S9" s="103" t="s">
+      <c r="S9" s="87" t="s">
         <v>101</v>
       </c>
       <c r="T9" s="30"/>
@@ -2784,7 +2872,7 @@
       <c r="A14" s="75">
         <v>13</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="88" t="s">
         <v>120</v>
       </c>
       <c r="C14" s="71" t="s">
@@ -2834,7 +2922,7 @@
       <c r="A15" s="75">
         <v>14</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="88" t="s">
         <v>126</v>
       </c>
       <c r="C15" s="71" t="s">
@@ -2884,7 +2972,7 @@
       <c r="A16" s="75">
         <v>15</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="89" t="s">
         <v>130</v>
       </c>
       <c r="C16" s="71" t="s">
@@ -2934,7 +3022,7 @@
       <c r="A17" s="75">
         <v>16</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="89" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="71" t="s">
@@ -2984,7 +3072,7 @@
       <c r="A18" s="75">
         <v>17</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="89" t="s">
         <v>134</v>
       </c>
       <c r="C18" s="71" t="s">
@@ -3034,7 +3122,7 @@
       <c r="A19" s="75">
         <v>18</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="89" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="71" t="s">
@@ -3084,7 +3172,7 @@
       <c r="A20" s="75">
         <v>19</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="89" t="s">
         <v>138</v>
       </c>
       <c r="C20" s="71" t="s">
@@ -3134,7 +3222,7 @@
       <c r="A21" s="75">
         <v>20</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="89" t="s">
         <v>139</v>
       </c>
       <c r="C21" s="71" t="s">
@@ -3184,7 +3272,7 @@
       <c r="A22" s="75">
         <v>21</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="89" t="s">
         <v>143</v>
       </c>
       <c r="C22" s="71" t="s">
@@ -3234,7 +3322,7 @@
       <c r="A23" s="75">
         <v>22</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="89" t="s">
         <v>147</v>
       </c>
       <c r="C23" s="71" t="s">
@@ -3284,7 +3372,7 @@
       <c r="A24" s="75">
         <v>23</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="89" t="s">
         <v>149</v>
       </c>
       <c r="C24" s="71" t="s">
@@ -3334,7 +3422,7 @@
       <c r="A25" s="75">
         <v>24</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="89" t="s">
         <v>150</v>
       </c>
       <c r="C25" s="71" t="s">
@@ -3384,7 +3472,7 @@
       <c r="A26" s="75">
         <v>25</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="89" t="s">
         <v>152</v>
       </c>
       <c r="C26" s="71" t="s">
@@ -3434,7 +3522,7 @@
       <c r="A27" s="75">
         <v>26</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="89" t="s">
         <v>154</v>
       </c>
       <c r="C27" s="71" t="s">
@@ -3484,7 +3572,7 @@
       <c r="A28" s="75">
         <v>27</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="89" t="s">
         <v>155</v>
       </c>
       <c r="C28" s="71" t="s">
@@ -3534,7 +3622,7 @@
       <c r="A29" s="75">
         <v>28</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="89" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="71" t="s">
@@ -3584,7 +3672,7 @@
       <c r="A30" s="75">
         <v>29</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="89" t="s">
         <v>160</v>
       </c>
       <c r="C30" s="71" t="s">
@@ -3634,7 +3722,7 @@
       <c r="A31" s="75">
         <v>30</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="89" t="s">
         <v>162</v>
       </c>
       <c r="C31" s="71" t="s">
@@ -3684,7 +3772,7 @@
       <c r="A32" s="75">
         <v>31</v>
       </c>
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="89" t="s">
         <v>163</v>
       </c>
       <c r="C32" s="71" t="s">
@@ -3734,7 +3822,7 @@
       <c r="A33" s="75">
         <v>32</v>
       </c>
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="89" t="s">
         <v>166</v>
       </c>
       <c r="C33" s="71" t="s">
@@ -3784,7 +3872,7 @@
       <c r="A34" s="75">
         <v>33</v>
       </c>
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="89" t="s">
         <v>173</v>
       </c>
       <c r="C34" s="71" t="s">
@@ -3834,7 +3922,7 @@
       <c r="A35" s="75">
         <v>34</v>
       </c>
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="89" t="s">
         <v>177</v>
       </c>
       <c r="C35" s="71" t="s">
@@ -3884,7 +3972,7 @@
       <c r="A36" s="75">
         <v>35</v>
       </c>
-      <c r="B36" s="105" t="s">
+      <c r="B36" s="89" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="71" t="s">
@@ -3934,7 +4022,7 @@
       <c r="A37" s="75">
         <v>36</v>
       </c>
-      <c r="B37" s="105" t="s">
+      <c r="B37" s="89" t="s">
         <v>189</v>
       </c>
       <c r="C37" s="71" t="s">
@@ -3983,7 +4071,7 @@
       <c r="A38" s="75">
         <v>37</v>
       </c>
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="89" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="71" t="s">
@@ -4032,7 +4120,7 @@
       <c r="A39" s="75">
         <v>38</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="89" t="s">
         <v>195</v>
       </c>
       <c r="C39" s="71" t="s">
@@ -4081,7 +4169,7 @@
       <c r="A40" s="75">
         <v>39</v>
       </c>
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="89" t="s">
         <v>196</v>
       </c>
       <c r="C40" s="71" t="s">
@@ -4130,7 +4218,7 @@
       <c r="A41" s="75">
         <v>40</v>
       </c>
-      <c r="B41" s="105" t="s">
+      <c r="B41" s="89" t="s">
         <v>198</v>
       </c>
       <c r="C41" s="71" t="s">
@@ -4179,7 +4267,7 @@
       <c r="A42" s="75">
         <v>41</v>
       </c>
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="89" t="s">
         <v>201</v>
       </c>
       <c r="C42" s="71" t="s">
@@ -4228,7 +4316,7 @@
       <c r="A43" s="75">
         <v>42</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="89" t="s">
         <v>202</v>
       </c>
       <c r="C43" s="71" t="s">
@@ -4277,7 +4365,7 @@
       <c r="A44" s="75">
         <v>43</v>
       </c>
-      <c r="B44" s="105" t="s">
+      <c r="B44" s="89" t="s">
         <v>205</v>
       </c>
       <c r="C44" s="71" t="s">
@@ -4326,7 +4414,7 @@
       <c r="A45" s="75">
         <v>44</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="89" t="s">
         <v>207</v>
       </c>
       <c r="C45" s="71" t="s">
@@ -4375,7 +4463,7 @@
       <c r="A46" s="75">
         <v>45</v>
       </c>
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="89" t="s">
         <v>208</v>
       </c>
       <c r="C46" s="71" t="s">
@@ -4424,7 +4512,7 @@
       <c r="A47" s="75">
         <v>46</v>
       </c>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="89" t="s">
         <v>209</v>
       </c>
       <c r="C47" s="71" t="s">
@@ -4473,7 +4561,7 @@
       <c r="A48" s="75">
         <v>47</v>
       </c>
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="89" t="s">
         <v>211</v>
       </c>
       <c r="C48" s="71" t="s">
@@ -4522,7 +4610,7 @@
       <c r="A49" s="75">
         <v>48</v>
       </c>
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="89" t="s">
         <v>213</v>
       </c>
       <c r="C49" s="71" t="s">
@@ -4571,7 +4659,7 @@
       <c r="A50" s="75">
         <v>49</v>
       </c>
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="89" t="s">
         <v>214</v>
       </c>
       <c r="C50" s="71" t="s">
@@ -4620,7 +4708,7 @@
       <c r="A51" s="75">
         <v>50</v>
       </c>
-      <c r="B51" s="105" t="s">
+      <c r="B51" s="89" t="s">
         <v>215</v>
       </c>
       <c r="C51" s="71" t="s">
@@ -4669,7 +4757,7 @@
       <c r="A52" s="75">
         <v>51</v>
       </c>
-      <c r="B52" s="105" t="s">
+      <c r="B52" s="89" t="s">
         <v>216</v>
       </c>
       <c r="C52" s="71" t="s">
@@ -4718,581 +4806,581 @@
       <c r="A53" s="75">
         <v>52</v>
       </c>
-      <c r="B53" s="106"/>
+      <c r="B53" s="90"/>
       <c r="C53" s="34"/>
       <c r="D53" s="71"/>
       <c r="E53" s="71"/>
-      <c r="F53" s="107"/>
+      <c r="F53" s="91"/>
       <c r="G53" s="34"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="108"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="92"/>
       <c r="J53" s="34"/>
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
       <c r="M53" s="34"/>
-      <c r="N53" s="107"/>
-      <c r="O53" s="109"/>
+      <c r="N53" s="91"/>
+      <c r="O53" s="93"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="34"/>
       <c r="R53" s="34"/>
-      <c r="S53" s="109"/>
+      <c r="S53" s="93"/>
     </row>
     <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="75">
         <v>53</v>
       </c>
-      <c r="B54" s="106"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="34"/>
       <c r="D54" s="71"/>
       <c r="E54" s="71"/>
-      <c r="F54" s="107"/>
+      <c r="F54" s="91"/>
       <c r="G54" s="34"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="108"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="92"/>
       <c r="J54" s="34"/>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
-      <c r="N54" s="107"/>
-      <c r="O54" s="109"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="93"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="34"/>
       <c r="R54" s="34"/>
-      <c r="S54" s="109"/>
+      <c r="S54" s="93"/>
     </row>
     <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="75">
         <v>54</v>
       </c>
-      <c r="B55" s="106"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="34"/>
       <c r="D55" s="71"/>
       <c r="E55" s="71"/>
-      <c r="F55" s="107"/>
+      <c r="F55" s="91"/>
       <c r="G55" s="34"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="108"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="92"/>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
-      <c r="N55" s="107"/>
-      <c r="O55" s="109"/>
+      <c r="N55" s="91"/>
+      <c r="O55" s="93"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="34"/>
       <c r="R55" s="34"/>
-      <c r="S55" s="109"/>
+      <c r="S55" s="93"/>
     </row>
     <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="75">
         <v>55</v>
       </c>
-      <c r="B56" s="106"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="34"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
-      <c r="F56" s="107"/>
+      <c r="F56" s="91"/>
       <c r="G56" s="34"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="108"/>
+      <c r="H56" s="91"/>
+      <c r="I56" s="92"/>
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
-      <c r="N56" s="107"/>
-      <c r="O56" s="109"/>
+      <c r="N56" s="91"/>
+      <c r="O56" s="93"/>
       <c r="P56" s="34"/>
       <c r="Q56" s="34"/>
       <c r="R56" s="34"/>
-      <c r="S56" s="109"/>
+      <c r="S56" s="93"/>
     </row>
     <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="75">
         <v>56</v>
       </c>
-      <c r="B57" s="106"/>
+      <c r="B57" s="90"/>
       <c r="C57" s="34"/>
       <c r="D57" s="71"/>
       <c r="E57" s="71"/>
-      <c r="F57" s="107"/>
+      <c r="F57" s="91"/>
       <c r="G57" s="34"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="108"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="92"/>
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
-      <c r="N57" s="107"/>
-      <c r="O57" s="109"/>
+      <c r="N57" s="91"/>
+      <c r="O57" s="93"/>
       <c r="P57" s="34"/>
       <c r="Q57" s="34"/>
       <c r="R57" s="34"/>
-      <c r="S57" s="109"/>
+      <c r="S57" s="93"/>
     </row>
     <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="75">
         <v>57</v>
       </c>
-      <c r="B58" s="106"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="34"/>
       <c r="D58" s="71"/>
       <c r="E58" s="71"/>
-      <c r="F58" s="107"/>
+      <c r="F58" s="91"/>
       <c r="G58" s="34"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="108"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="92"/>
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
       <c r="M58" s="34"/>
-      <c r="N58" s="107"/>
-      <c r="O58" s="109"/>
+      <c r="N58" s="91"/>
+      <c r="O58" s="93"/>
       <c r="P58" s="34"/>
       <c r="Q58" s="34"/>
       <c r="R58" s="34"/>
-      <c r="S58" s="109"/>
+      <c r="S58" s="93"/>
     </row>
     <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="75">
         <v>58</v>
       </c>
-      <c r="B59" s="106"/>
+      <c r="B59" s="90"/>
       <c r="C59" s="34"/>
       <c r="D59" s="71"/>
       <c r="E59" s="71"/>
-      <c r="F59" s="107"/>
+      <c r="F59" s="91"/>
       <c r="G59" s="34"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="108"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="92"/>
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
       <c r="M59" s="34"/>
-      <c r="N59" s="107"/>
-      <c r="O59" s="109"/>
+      <c r="N59" s="91"/>
+      <c r="O59" s="93"/>
       <c r="P59" s="34"/>
       <c r="Q59" s="34"/>
       <c r="R59" s="34"/>
-      <c r="S59" s="109"/>
+      <c r="S59" s="93"/>
     </row>
     <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="75">
         <v>59</v>
       </c>
-      <c r="B60" s="106"/>
+      <c r="B60" s="90"/>
       <c r="C60" s="34"/>
       <c r="D60" s="71"/>
       <c r="E60" s="71"/>
-      <c r="F60" s="107"/>
+      <c r="F60" s="91"/>
       <c r="G60" s="34"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="108"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="92"/>
       <c r="J60" s="34"/>
       <c r="K60" s="34"/>
       <c r="L60" s="34"/>
       <c r="M60" s="34"/>
-      <c r="N60" s="107"/>
-      <c r="O60" s="109"/>
+      <c r="N60" s="91"/>
+      <c r="O60" s="93"/>
       <c r="P60" s="34"/>
       <c r="Q60" s="34"/>
       <c r="R60" s="34"/>
-      <c r="S60" s="109"/>
+      <c r="S60" s="93"/>
     </row>
     <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="75">
         <v>60</v>
       </c>
-      <c r="B61" s="106"/>
+      <c r="B61" s="90"/>
       <c r="C61" s="34"/>
       <c r="D61" s="71"/>
       <c r="E61" s="71"/>
-      <c r="F61" s="107"/>
+      <c r="F61" s="91"/>
       <c r="G61" s="34"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="108"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="92"/>
       <c r="J61" s="34"/>
       <c r="K61" s="34"/>
       <c r="L61" s="34"/>
       <c r="M61" s="34"/>
-      <c r="N61" s="107"/>
-      <c r="O61" s="109"/>
+      <c r="N61" s="91"/>
+      <c r="O61" s="93"/>
       <c r="P61" s="34"/>
       <c r="Q61" s="34"/>
       <c r="R61" s="34"/>
-      <c r="S61" s="109"/>
+      <c r="S61" s="93"/>
     </row>
     <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="75">
         <v>61</v>
       </c>
-      <c r="B62" s="106"/>
+      <c r="B62" s="90"/>
       <c r="C62" s="34"/>
       <c r="D62" s="71"/>
       <c r="E62" s="71"/>
-      <c r="F62" s="107"/>
+      <c r="F62" s="91"/>
       <c r="G62" s="34"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="108"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="92"/>
       <c r="J62" s="34"/>
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
       <c r="M62" s="34"/>
-      <c r="N62" s="107"/>
-      <c r="O62" s="109"/>
+      <c r="N62" s="91"/>
+      <c r="O62" s="93"/>
       <c r="P62" s="34"/>
       <c r="Q62" s="34"/>
       <c r="R62" s="34"/>
-      <c r="S62" s="109"/>
+      <c r="S62" s="93"/>
     </row>
     <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="75">
         <v>62</v>
       </c>
-      <c r="B63" s="106"/>
+      <c r="B63" s="90"/>
       <c r="C63" s="34"/>
       <c r="D63" s="71"/>
       <c r="E63" s="71"/>
-      <c r="F63" s="107"/>
+      <c r="F63" s="91"/>
       <c r="G63" s="34"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="108"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="92"/>
       <c r="J63" s="34"/>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
       <c r="M63" s="34"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="109"/>
+      <c r="N63" s="91"/>
+      <c r="O63" s="93"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="34"/>
       <c r="R63" s="34"/>
-      <c r="S63" s="109"/>
+      <c r="S63" s="93"/>
     </row>
     <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="75">
         <v>63</v>
       </c>
-      <c r="B64" s="106"/>
+      <c r="B64" s="90"/>
       <c r="C64" s="34"/>
       <c r="D64" s="71"/>
       <c r="E64" s="71"/>
-      <c r="F64" s="107"/>
+      <c r="F64" s="91"/>
       <c r="G64" s="34"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="108"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="92"/>
       <c r="J64" s="34"/>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
       <c r="M64" s="34"/>
-      <c r="N64" s="107"/>
-      <c r="O64" s="109"/>
+      <c r="N64" s="91"/>
+      <c r="O64" s="93"/>
       <c r="P64" s="34"/>
       <c r="Q64" s="34"/>
       <c r="R64" s="34"/>
-      <c r="S64" s="109"/>
+      <c r="S64" s="93"/>
     </row>
     <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="75">
         <v>64</v>
       </c>
-      <c r="B65" s="106"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="34"/>
       <c r="D65" s="71"/>
       <c r="E65" s="71"/>
-      <c r="F65" s="107"/>
+      <c r="F65" s="91"/>
       <c r="G65" s="34"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="108"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="92"/>
       <c r="J65" s="34"/>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
       <c r="M65" s="34"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="109"/>
+      <c r="N65" s="91"/>
+      <c r="O65" s="93"/>
       <c r="P65" s="34"/>
       <c r="Q65" s="34"/>
       <c r="R65" s="34"/>
-      <c r="S65" s="109"/>
+      <c r="S65" s="93"/>
     </row>
     <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="75">
         <v>65</v>
       </c>
-      <c r="B66" s="106"/>
+      <c r="B66" s="90"/>
       <c r="C66" s="34"/>
       <c r="D66" s="71"/>
       <c r="E66" s="71"/>
-      <c r="F66" s="107"/>
+      <c r="F66" s="91"/>
       <c r="G66" s="34"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="108"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="92"/>
       <c r="J66" s="34"/>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
       <c r="M66" s="34"/>
-      <c r="N66" s="107"/>
-      <c r="O66" s="109"/>
+      <c r="N66" s="91"/>
+      <c r="O66" s="93"/>
       <c r="P66" s="34"/>
       <c r="Q66" s="34"/>
       <c r="R66" s="34"/>
-      <c r="S66" s="109"/>
+      <c r="S66" s="93"/>
     </row>
     <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="75">
         <v>66</v>
       </c>
-      <c r="B67" s="106"/>
+      <c r="B67" s="90"/>
       <c r="C67" s="34"/>
       <c r="D67" s="71"/>
       <c r="E67" s="71"/>
-      <c r="F67" s="107"/>
+      <c r="F67" s="91"/>
       <c r="G67" s="34"/>
-      <c r="H67" s="107"/>
-      <c r="I67" s="108"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="92"/>
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
       <c r="M67" s="34"/>
-      <c r="N67" s="107"/>
-      <c r="O67" s="109"/>
+      <c r="N67" s="91"/>
+      <c r="O67" s="93"/>
       <c r="P67" s="34"/>
       <c r="Q67" s="34"/>
       <c r="R67" s="34"/>
-      <c r="S67" s="109"/>
+      <c r="S67" s="93"/>
     </row>
     <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="75">
         <v>67</v>
       </c>
-      <c r="B68" s="106"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="34"/>
       <c r="D68" s="71"/>
       <c r="E68" s="71"/>
-      <c r="F68" s="107"/>
+      <c r="F68" s="91"/>
       <c r="G68" s="34"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="108"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="92"/>
       <c r="J68" s="34"/>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
       <c r="M68" s="34"/>
-      <c r="N68" s="107"/>
-      <c r="O68" s="109"/>
+      <c r="N68" s="91"/>
+      <c r="O68" s="93"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="34"/>
       <c r="R68" s="34"/>
-      <c r="S68" s="109"/>
+      <c r="S68" s="93"/>
     </row>
     <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="75">
         <v>68</v>
       </c>
-      <c r="B69" s="106"/>
+      <c r="B69" s="90"/>
       <c r="C69" s="34"/>
       <c r="D69" s="71"/>
       <c r="E69" s="71"/>
-      <c r="F69" s="107"/>
+      <c r="F69" s="91"/>
       <c r="G69" s="34"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="108"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="92"/>
       <c r="J69" s="34"/>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
       <c r="M69" s="34"/>
-      <c r="N69" s="107"/>
-      <c r="O69" s="109"/>
+      <c r="N69" s="91"/>
+      <c r="O69" s="93"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="34"/>
       <c r="R69" s="34"/>
-      <c r="S69" s="109"/>
+      <c r="S69" s="93"/>
     </row>
     <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
-      <c r="B70" s="106"/>
+      <c r="B70" s="90"/>
       <c r="C70" s="34"/>
       <c r="D70" s="71"/>
       <c r="E70" s="71"/>
-      <c r="F70" s="107"/>
+      <c r="F70" s="91"/>
       <c r="G70" s="34"/>
-      <c r="H70" s="107"/>
-      <c r="I70" s="108"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="92"/>
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
       <c r="M70" s="34"/>
-      <c r="N70" s="107"/>
-      <c r="O70" s="109"/>
+      <c r="N70" s="91"/>
+      <c r="O70" s="93"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="34"/>
       <c r="R70" s="34"/>
-      <c r="S70" s="109"/>
+      <c r="S70" s="93"/>
     </row>
     <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
-      <c r="B71" s="106"/>
+      <c r="B71" s="90"/>
       <c r="C71" s="34"/>
       <c r="D71" s="71"/>
       <c r="E71" s="71"/>
-      <c r="F71" s="107"/>
+      <c r="F71" s="91"/>
       <c r="G71" s="34"/>
-      <c r="H71" s="107"/>
-      <c r="I71" s="108"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="92"/>
       <c r="J71" s="34"/>
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
       <c r="M71" s="34"/>
-      <c r="N71" s="107"/>
-      <c r="O71" s="109"/>
+      <c r="N71" s="91"/>
+      <c r="O71" s="93"/>
       <c r="P71" s="34"/>
       <c r="Q71" s="34"/>
       <c r="R71" s="34"/>
-      <c r="S71" s="109"/>
+      <c r="S71" s="93"/>
     </row>
     <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
-      <c r="B72" s="106"/>
+      <c r="B72" s="90"/>
       <c r="C72" s="34"/>
       <c r="D72" s="71"/>
       <c r="E72" s="71"/>
-      <c r="F72" s="107"/>
+      <c r="F72" s="91"/>
       <c r="G72" s="34"/>
-      <c r="H72" s="107"/>
-      <c r="I72" s="108"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="92"/>
       <c r="J72" s="34"/>
       <c r="K72" s="34"/>
       <c r="L72" s="34"/>
       <c r="M72" s="34"/>
-      <c r="N72" s="107"/>
-      <c r="O72" s="109"/>
+      <c r="N72" s="91"/>
+      <c r="O72" s="93"/>
       <c r="P72" s="34"/>
       <c r="Q72" s="34"/>
       <c r="R72" s="34"/>
-      <c r="S72" s="109"/>
+      <c r="S72" s="93"/>
     </row>
     <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="23"/>
-      <c r="B73" s="106"/>
+      <c r="B73" s="90"/>
       <c r="C73" s="34"/>
       <c r="D73" s="71"/>
       <c r="E73" s="71"/>
-      <c r="F73" s="107"/>
+      <c r="F73" s="91"/>
       <c r="G73" s="34"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="108"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="92"/>
       <c r="J73" s="34"/>
       <c r="K73" s="34"/>
       <c r="L73" s="34"/>
       <c r="M73" s="34"/>
-      <c r="N73" s="107"/>
-      <c r="O73" s="109"/>
+      <c r="N73" s="91"/>
+      <c r="O73" s="93"/>
       <c r="P73" s="34"/>
       <c r="Q73" s="34"/>
       <c r="R73" s="34"/>
-      <c r="S73" s="109"/>
+      <c r="S73" s="93"/>
     </row>
     <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="23"/>
-      <c r="B74" s="106"/>
+      <c r="B74" s="90"/>
       <c r="C74" s="34"/>
       <c r="D74" s="71"/>
       <c r="E74" s="71"/>
-      <c r="F74" s="107"/>
+      <c r="F74" s="91"/>
       <c r="G74" s="34"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="108"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="92"/>
       <c r="J74" s="34"/>
       <c r="K74" s="34"/>
       <c r="L74" s="34"/>
       <c r="M74" s="34"/>
-      <c r="N74" s="107"/>
-      <c r="O74" s="109"/>
+      <c r="N74" s="91"/>
+      <c r="O74" s="93"/>
       <c r="P74" s="34"/>
       <c r="Q74" s="34"/>
       <c r="R74" s="34"/>
-      <c r="S74" s="109"/>
+      <c r="S74" s="93"/>
     </row>
     <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="23"/>
-      <c r="B75" s="106"/>
+      <c r="B75" s="90"/>
       <c r="C75" s="34"/>
       <c r="D75" s="71"/>
       <c r="E75" s="71"/>
-      <c r="F75" s="107"/>
+      <c r="F75" s="91"/>
       <c r="G75" s="34"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="108"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="92"/>
       <c r="J75" s="34"/>
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
       <c r="M75" s="34"/>
-      <c r="N75" s="107"/>
-      <c r="O75" s="109"/>
+      <c r="N75" s="91"/>
+      <c r="O75" s="93"/>
       <c r="P75" s="34"/>
       <c r="Q75" s="34"/>
       <c r="R75" s="34"/>
-      <c r="S75" s="109"/>
+      <c r="S75" s="93"/>
     </row>
     <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="23"/>
-      <c r="B76" s="106"/>
+      <c r="B76" s="90"/>
       <c r="C76" s="34"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
-      <c r="F76" s="107"/>
+      <c r="F76" s="91"/>
       <c r="G76" s="34"/>
-      <c r="H76" s="107"/>
-      <c r="I76" s="108"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="92"/>
       <c r="J76" s="34"/>
       <c r="K76" s="34"/>
       <c r="L76" s="34"/>
       <c r="M76" s="34"/>
-      <c r="N76" s="107"/>
-      <c r="O76" s="109"/>
+      <c r="N76" s="91"/>
+      <c r="O76" s="93"/>
       <c r="P76" s="34"/>
       <c r="Q76" s="34"/>
       <c r="R76" s="34"/>
-      <c r="S76" s="109"/>
+      <c r="S76" s="93"/>
     </row>
     <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="23"/>
-      <c r="B77" s="106"/>
+      <c r="B77" s="90"/>
       <c r="C77" s="34"/>
       <c r="D77" s="71"/>
       <c r="E77" s="71"/>
-      <c r="F77" s="107"/>
+      <c r="F77" s="91"/>
       <c r="G77" s="34"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="108"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="92"/>
       <c r="J77" s="34"/>
       <c r="K77" s="34"/>
       <c r="L77" s="34"/>
       <c r="M77" s="34"/>
-      <c r="N77" s="107"/>
-      <c r="O77" s="109"/>
+      <c r="N77" s="91"/>
+      <c r="O77" s="93"/>
       <c r="P77" s="34"/>
       <c r="Q77" s="34"/>
       <c r="R77" s="34"/>
-      <c r="S77" s="109"/>
+      <c r="S77" s="93"/>
     </row>
     <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="23"/>
-      <c r="B78" s="106"/>
+      <c r="B78" s="90"/>
       <c r="C78" s="34"/>
       <c r="D78" s="71"/>
       <c r="E78" s="71"/>
-      <c r="F78" s="107"/>
+      <c r="F78" s="91"/>
       <c r="G78" s="34"/>
-      <c r="H78" s="107"/>
-      <c r="I78" s="108"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="92"/>
       <c r="J78" s="34"/>
       <c r="K78" s="34"/>
       <c r="L78" s="34"/>
       <c r="M78" s="34"/>
-      <c r="N78" s="107"/>
-      <c r="O78" s="109"/>
+      <c r="N78" s="91"/>
+      <c r="O78" s="93"/>
       <c r="P78" s="34"/>
       <c r="Q78" s="34"/>
       <c r="R78" s="34"/>
-      <c r="S78" s="109"/>
+      <c r="S78" s="93"/>
     </row>
     <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="23"/>
@@ -8058,36 +8146,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -8277,18 +8365,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
@@ -8335,8 +8423,8 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="49"/>
       <c r="D4" s="65"/>
       <c r="E4" s="54"/>
@@ -8347,9 +8435,9 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="88"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="94"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="55"/>
       <c r="E5" s="54"/>
       <c r="F5" s="50"/>
@@ -8359,9 +8447,9 @@
       <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
       <c r="D6" s="55"/>
       <c r="E6" s="54"/>
       <c r="F6" s="50"/>
@@ -8371,8 +8459,8 @@
       <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="88"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="49"/>
       <c r="D7" s="55"/>
       <c r="E7" s="54"/>
@@ -8383,8 +8471,8 @@
       <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="88"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="49"/>
       <c r="D8" s="55"/>
       <c r="E8" s="54"/>
@@ -8407,8 +8495,8 @@
       <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="56"/>
       <c r="D10" s="54"/>
       <c r="E10" s="55"/>
@@ -8419,8 +8507,8 @@
       <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="56"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
@@ -8431,8 +8519,8 @@
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="87"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="49"/>
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
@@ -8443,8 +8531,8 @@
       <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="87"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="49"/>
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
@@ -8455,8 +8543,8 @@
       <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="87"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="49"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -8497,28 +8585,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:9" s="62" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="60" t="s">
@@ -8694,7 +8782,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9534,36 +9622,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="68" t="s">
@@ -9606,35 +9694,85 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="69"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="69"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="8"/>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="336" x14ac:dyDescent="0.15">
+      <c r="A4" s="110">
+        <v>1</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="110" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="110" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="110" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="110" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="111" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.15">
+      <c r="A5" s="110">
+        <v>2</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="110" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="110" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="110" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" s="110" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="110" t="s">
+        <v>224</v>
+      </c>
+      <c r="L5" s="110" t="s">
+        <v>224</v>
+      </c>
+      <c r="M5" s="111"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="69"/>

--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 3.4.1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4"/>
+    <workbookView xWindow="25605" yWindow="465" windowWidth="29040" windowHeight="16440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.1 新特性|Fix Bug" sheetId="8" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="(生产)需要修改的配置文件" sheetId="3" r:id="rId5"/>
     <sheet name="数据修复" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="240">
   <si>
     <t>No</t>
   </si>
@@ -1094,12 +1089,47 @@
 </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有包</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>将
+sysconfig.message_total_max=3500
+修改为
+sysconfig.message_total_max=7000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>将短信告警的阀值调整为7000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.properties</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1276,7 +1306,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1798,6 +1829,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,12 +1882,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1865,6 +1896,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1884,7 +1983,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2204,7 +2303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T174"/>
   <sheetViews>
@@ -2212,30 +2311,30 @@
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="44.1640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="44.125" style="19" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="18" customWidth="1"/>
     <col min="4" max="4" width="27" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" style="18" customWidth="1"/>
-    <col min="11" max="12" width="11.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="18" customWidth="1"/>
+    <col min="11" max="12" width="11.875" style="18" customWidth="1"/>
     <col min="13" max="13" width="9" style="19"/>
     <col min="14" max="14" width="23" style="19" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="20" customWidth="1"/>
-    <col min="17" max="18" width="17.6640625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="51.6640625" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="20" customWidth="1"/>
+    <col min="17" max="18" width="17.625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="51.625" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="16" customFormat="1" ht="14.25" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="31" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="31" customFormat="1" ht="36.75" customHeight="1">
       <c r="A2" s="74">
         <v>1</v>
       </c>
@@ -2346,7 +2445,7 @@
       </c>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" spans="1:20" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="33" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="75">
         <v>2</v>
       </c>
@@ -2396,7 +2495,7 @@
       </c>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="17" customFormat="1" ht="16.5">
       <c r="A4" s="75">
         <v>3</v>
       </c>
@@ -2444,7 +2543,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="27"/>
     </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="16.5">
       <c r="A5" s="75">
         <v>4</v>
       </c>
@@ -2492,7 +2591,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="27"/>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="16.5">
       <c r="A6" s="75">
         <v>5</v>
       </c>
@@ -2540,7 +2639,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="27"/>
     </row>
-    <row r="7" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A7" s="75">
         <v>6</v>
       </c>
@@ -2588,7 +2687,7 @@
       </c>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:20" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A8" s="75">
         <v>7</v>
       </c>
@@ -2636,7 +2735,7 @@
       </c>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="75">
         <v>8</v>
       </c>
@@ -2684,7 +2783,7 @@
       </c>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A10" s="75">
         <v>9</v>
       </c>
@@ -2730,7 +2829,7 @@
       <c r="S10" s="76"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A11" s="75">
         <v>10</v>
       </c>
@@ -2776,7 +2875,7 @@
       <c r="S11" s="76"/>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A12" s="75">
         <v>11</v>
       </c>
@@ -2822,7 +2921,7 @@
       <c r="S12" s="76"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="31" customFormat="1" ht="24" customHeight="1">
       <c r="A13" s="75">
         <v>12</v>
       </c>
@@ -2868,7 +2967,7 @@
       <c r="S13" s="76"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A14" s="75">
         <v>13</v>
       </c>
@@ -2918,7 +3017,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="75">
         <v>14</v>
       </c>
@@ -2968,7 +3067,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="75">
         <v>15</v>
       </c>
@@ -3018,7 +3117,7 @@
       <c r="S16" s="29"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A17" s="75">
         <v>16</v>
       </c>
@@ -3068,7 +3167,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A18" s="75">
         <v>17</v>
       </c>
@@ -3118,7 +3217,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A19" s="75">
         <v>18</v>
       </c>
@@ -3168,7 +3267,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="31" customFormat="1" ht="33">
       <c r="A20" s="75">
         <v>19</v>
       </c>
@@ -3218,7 +3317,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A21" s="75">
         <v>20</v>
       </c>
@@ -3268,7 +3367,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A22" s="75">
         <v>21</v>
       </c>
@@ -3318,7 +3417,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A23" s="75">
         <v>22</v>
       </c>
@@ -3368,7 +3467,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A24" s="75">
         <v>23</v>
       </c>
@@ -3418,7 +3517,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A25" s="75">
         <v>24</v>
       </c>
@@ -3468,7 +3567,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A26" s="75">
         <v>25</v>
       </c>
@@ -3518,7 +3617,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A27" s="75">
         <v>26</v>
       </c>
@@ -3568,7 +3667,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A28" s="75">
         <v>27</v>
       </c>
@@ -3618,7 +3717,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="31" customFormat="1" ht="33">
       <c r="A29" s="75">
         <v>28</v>
       </c>
@@ -3668,7 +3767,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A30" s="75">
         <v>29</v>
       </c>
@@ -3718,7 +3817,7 @@
       <c r="S30" s="29"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A31" s="75">
         <v>30</v>
       </c>
@@ -3768,7 +3867,7 @@
       <c r="S31" s="29"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A32" s="75">
         <v>31</v>
       </c>
@@ -3818,7 +3917,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A33" s="75">
         <v>32</v>
       </c>
@@ -3868,7 +3967,7 @@
       <c r="S33" s="29"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" spans="1:20" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="31" customFormat="1" ht="33">
       <c r="A34" s="75">
         <v>33</v>
       </c>
@@ -3918,7 +4017,7 @@
       <c r="S34" s="29"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A35" s="75">
         <v>34</v>
       </c>
@@ -3968,7 +4067,7 @@
       <c r="S35" s="29"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A36" s="75">
         <v>35</v>
       </c>
@@ -4018,7 +4117,7 @@
       <c r="S36" s="29"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" ht="16.5">
       <c r="A37" s="75">
         <v>36</v>
       </c>
@@ -4067,7 +4166,7 @@
       <c r="R37" s="34"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="75">
         <v>37</v>
       </c>
@@ -4116,7 +4215,7 @@
       <c r="R38" s="34"/>
       <c r="S38" s="29"/>
     </row>
-    <row r="39" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="75">
         <v>38</v>
       </c>
@@ -4165,7 +4264,7 @@
       <c r="R39" s="34"/>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="75">
         <v>39</v>
       </c>
@@ -4214,7 +4313,7 @@
       <c r="R40" s="34"/>
       <c r="S40" s="29"/>
     </row>
-    <row r="41" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="75">
         <v>40</v>
       </c>
@@ -4263,7 +4362,7 @@
       <c r="R41" s="34"/>
       <c r="S41" s="29"/>
     </row>
-    <row r="42" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="75">
         <v>41</v>
       </c>
@@ -4312,7 +4411,7 @@
       <c r="R42" s="34"/>
       <c r="S42" s="29"/>
     </row>
-    <row r="43" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="75">
         <v>42</v>
       </c>
@@ -4361,7 +4460,7 @@
       <c r="R43" s="34"/>
       <c r="S43" s="29"/>
     </row>
-    <row r="44" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="75">
         <v>43</v>
       </c>
@@ -4410,7 +4509,7 @@
       <c r="R44" s="34"/>
       <c r="S44" s="29"/>
     </row>
-    <row r="45" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="75">
         <v>44</v>
       </c>
@@ -4459,7 +4558,7 @@
       <c r="R45" s="34"/>
       <c r="S45" s="29"/>
     </row>
-    <row r="46" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="75">
         <v>45</v>
       </c>
@@ -4508,7 +4607,7 @@
       <c r="R46" s="34"/>
       <c r="S46" s="29"/>
     </row>
-    <row r="47" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="75">
         <v>46</v>
       </c>
@@ -4557,7 +4656,7 @@
       <c r="R47" s="34"/>
       <c r="S47" s="29"/>
     </row>
-    <row r="48" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="75">
         <v>47</v>
       </c>
@@ -4606,7 +4705,7 @@
       <c r="R48" s="34"/>
       <c r="S48" s="29"/>
     </row>
-    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="75">
         <v>48</v>
       </c>
@@ -4655,7 +4754,7 @@
       <c r="R49" s="34"/>
       <c r="S49" s="29"/>
     </row>
-    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="75">
         <v>49</v>
       </c>
@@ -4704,7 +4803,7 @@
       <c r="R50" s="34"/>
       <c r="S50" s="29"/>
     </row>
-    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="75">
         <v>50</v>
       </c>
@@ -4753,7 +4852,7 @@
       <c r="R51" s="34"/>
       <c r="S51" s="29"/>
     </row>
-    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="75">
         <v>51</v>
       </c>
@@ -4802,7 +4901,7 @@
       <c r="R52" s="34"/>
       <c r="S52" s="29"/>
     </row>
-    <row r="53" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="75">
         <v>52</v>
       </c>
@@ -4825,7 +4924,7 @@
       <c r="R53" s="34"/>
       <c r="S53" s="93"/>
     </row>
-    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="75">
         <v>53</v>
       </c>
@@ -4848,7 +4947,7 @@
       <c r="R54" s="34"/>
       <c r="S54" s="93"/>
     </row>
-    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="75">
         <v>54</v>
       </c>
@@ -4871,7 +4970,7 @@
       <c r="R55" s="34"/>
       <c r="S55" s="93"/>
     </row>
-    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="75">
         <v>55</v>
       </c>
@@ -4894,7 +4993,7 @@
       <c r="R56" s="34"/>
       <c r="S56" s="93"/>
     </row>
-    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="75">
         <v>56</v>
       </c>
@@ -4917,7 +5016,7 @@
       <c r="R57" s="34"/>
       <c r="S57" s="93"/>
     </row>
-    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="75">
         <v>57</v>
       </c>
@@ -4940,7 +5039,7 @@
       <c r="R58" s="34"/>
       <c r="S58" s="93"/>
     </row>
-    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="75">
         <v>58</v>
       </c>
@@ -4963,7 +5062,7 @@
       <c r="R59" s="34"/>
       <c r="S59" s="93"/>
     </row>
-    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="75">
         <v>59</v>
       </c>
@@ -4986,7 +5085,7 @@
       <c r="R60" s="34"/>
       <c r="S60" s="93"/>
     </row>
-    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="75">
         <v>60</v>
       </c>
@@ -5009,7 +5108,7 @@
       <c r="R61" s="34"/>
       <c r="S61" s="93"/>
     </row>
-    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="75">
         <v>61</v>
       </c>
@@ -5032,7 +5131,7 @@
       <c r="R62" s="34"/>
       <c r="S62" s="93"/>
     </row>
-    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="75">
         <v>62</v>
       </c>
@@ -5055,7 +5154,7 @@
       <c r="R63" s="34"/>
       <c r="S63" s="93"/>
     </row>
-    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="75">
         <v>63</v>
       </c>
@@ -5078,7 +5177,7 @@
       <c r="R64" s="34"/>
       <c r="S64" s="93"/>
     </row>
-    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="75">
         <v>64</v>
       </c>
@@ -5101,7 +5200,7 @@
       <c r="R65" s="34"/>
       <c r="S65" s="93"/>
     </row>
-    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="75">
         <v>65</v>
       </c>
@@ -5124,7 +5223,7 @@
       <c r="R66" s="34"/>
       <c r="S66" s="93"/>
     </row>
-    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="75">
         <v>66</v>
       </c>
@@ -5147,7 +5246,7 @@
       <c r="R67" s="34"/>
       <c r="S67" s="93"/>
     </row>
-    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="75">
         <v>67</v>
       </c>
@@ -5170,7 +5269,7 @@
       <c r="R68" s="34"/>
       <c r="S68" s="93"/>
     </row>
-    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="75">
         <v>68</v>
       </c>
@@ -5193,7 +5292,7 @@
       <c r="R69" s="34"/>
       <c r="S69" s="93"/>
     </row>
-    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="23"/>
       <c r="B70" s="90"/>
       <c r="C70" s="34"/>
@@ -5214,7 +5313,7 @@
       <c r="R70" s="34"/>
       <c r="S70" s="93"/>
     </row>
-    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="23"/>
       <c r="B71" s="90"/>
       <c r="C71" s="34"/>
@@ -5235,7 +5334,7 @@
       <c r="R71" s="34"/>
       <c r="S71" s="93"/>
     </row>
-    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="23"/>
       <c r="B72" s="90"/>
       <c r="C72" s="34"/>
@@ -5256,7 +5355,7 @@
       <c r="R72" s="34"/>
       <c r="S72" s="93"/>
     </row>
-    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="23"/>
       <c r="B73" s="90"/>
       <c r="C73" s="34"/>
@@ -5277,7 +5376,7 @@
       <c r="R73" s="34"/>
       <c r="S73" s="93"/>
     </row>
-    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="23"/>
       <c r="B74" s="90"/>
       <c r="C74" s="34"/>
@@ -5298,7 +5397,7 @@
       <c r="R74" s="34"/>
       <c r="S74" s="93"/>
     </row>
-    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="23"/>
       <c r="B75" s="90"/>
       <c r="C75" s="34"/>
@@ -5319,7 +5418,7 @@
       <c r="R75" s="34"/>
       <c r="S75" s="93"/>
     </row>
-    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="23"/>
       <c r="B76" s="90"/>
       <c r="C76" s="34"/>
@@ -5340,7 +5439,7 @@
       <c r="R76" s="34"/>
       <c r="S76" s="93"/>
     </row>
-    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="23"/>
       <c r="B77" s="90"/>
       <c r="C77" s="34"/>
@@ -5361,7 +5460,7 @@
       <c r="R77" s="34"/>
       <c r="S77" s="93"/>
     </row>
-    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="23"/>
       <c r="B78" s="90"/>
       <c r="C78" s="34"/>
@@ -5382,7 +5481,7 @@
       <c r="R78" s="34"/>
       <c r="S78" s="93"/>
     </row>
-    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="23"/>
       <c r="B79" s="24"/>
       <c r="C79" s="23"/>
@@ -5403,7 +5502,7 @@
       <c r="R79" s="23"/>
       <c r="S79" s="24"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="23"/>
@@ -5424,7 +5523,7 @@
       <c r="R80" s="23"/>
       <c r="S80" s="24"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19">
       <c r="A81" s="23"/>
       <c r="B81" s="24"/>
       <c r="C81" s="23"/>
@@ -5445,7 +5544,7 @@
       <c r="R81" s="23"/>
       <c r="S81" s="24"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19">
       <c r="A82" s="23"/>
       <c r="B82" s="24"/>
       <c r="C82" s="23"/>
@@ -5466,7 +5565,7 @@
       <c r="R82" s="23"/>
       <c r="S82" s="24"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19">
       <c r="A83" s="23"/>
       <c r="B83" s="24"/>
       <c r="C83" s="23"/>
@@ -5487,7 +5586,7 @@
       <c r="R83" s="23"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19">
       <c r="A84" s="23"/>
       <c r="B84" s="24"/>
       <c r="C84" s="23"/>
@@ -5508,7 +5607,7 @@
       <c r="R84" s="23"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19">
       <c r="A85" s="23"/>
       <c r="B85" s="24"/>
       <c r="C85" s="23"/>
@@ -5529,7 +5628,7 @@
       <c r="R85" s="23"/>
       <c r="S85" s="24"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19">
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="23"/>
@@ -5550,7 +5649,7 @@
       <c r="R86" s="23"/>
       <c r="S86" s="24"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19">
       <c r="A87" s="23"/>
       <c r="B87" s="24"/>
       <c r="C87" s="23"/>
@@ -5571,7 +5670,7 @@
       <c r="R87" s="23"/>
       <c r="S87" s="24"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19">
       <c r="A88" s="23"/>
       <c r="B88" s="24"/>
       <c r="C88" s="23"/>
@@ -5592,7 +5691,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="24"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="23"/>
       <c r="B89" s="24"/>
       <c r="C89" s="23"/>
@@ -5613,7 +5712,7 @@
       <c r="R89" s="23"/>
       <c r="S89" s="24"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="23"/>
       <c r="B90" s="24"/>
       <c r="C90" s="23"/>
@@ -5634,7 +5733,7 @@
       <c r="R90" s="23"/>
       <c r="S90" s="24"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="23"/>
       <c r="B91" s="24"/>
       <c r="C91" s="23"/>
@@ -5655,7 +5754,7 @@
       <c r="R91" s="23"/>
       <c r="S91" s="24"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="23"/>
       <c r="B92" s="24"/>
       <c r="C92" s="23"/>
@@ -5676,7 +5775,7 @@
       <c r="R92" s="23"/>
       <c r="S92" s="24"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="23"/>
       <c r="B93" s="24"/>
       <c r="C93" s="23"/>
@@ -5697,7 +5796,7 @@
       <c r="R93" s="23"/>
       <c r="S93" s="24"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="23"/>
       <c r="B94" s="24"/>
       <c r="C94" s="23"/>
@@ -5718,7 +5817,7 @@
       <c r="R94" s="23"/>
       <c r="S94" s="24"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="23"/>
       <c r="B95" s="24"/>
       <c r="C95" s="23"/>
@@ -5739,7 +5838,7 @@
       <c r="R95" s="23"/>
       <c r="S95" s="24"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="23"/>
       <c r="B96" s="24"/>
       <c r="C96" s="23"/>
@@ -5760,7 +5859,7 @@
       <c r="R96" s="23"/>
       <c r="S96" s="24"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="23"/>
       <c r="B97" s="24"/>
       <c r="C97" s="23"/>
@@ -5781,7 +5880,7 @@
       <c r="R97" s="23"/>
       <c r="S97" s="24"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="23"/>
       <c r="B98" s="24"/>
       <c r="C98" s="23"/>
@@ -5802,7 +5901,7 @@
       <c r="R98" s="23"/>
       <c r="S98" s="24"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="23"/>
       <c r="B99" s="24"/>
       <c r="C99" s="23"/>
@@ -5823,7 +5922,7 @@
       <c r="R99" s="23"/>
       <c r="S99" s="24"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="23"/>
       <c r="B100" s="24"/>
       <c r="C100" s="23"/>
@@ -5844,7 +5943,7 @@
       <c r="R100" s="23"/>
       <c r="S100" s="24"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="23"/>
       <c r="B101" s="24"/>
       <c r="C101" s="23"/>
@@ -5865,7 +5964,7 @@
       <c r="R101" s="23"/>
       <c r="S101" s="24"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="23"/>
       <c r="B102" s="24"/>
       <c r="C102" s="23"/>
@@ -5886,7 +5985,7 @@
       <c r="R102" s="23"/>
       <c r="S102" s="24"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="23"/>
       <c r="B103" s="24"/>
       <c r="C103" s="23"/>
@@ -5907,7 +6006,7 @@
       <c r="R103" s="23"/>
       <c r="S103" s="24"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="23"/>
       <c r="B104" s="24"/>
       <c r="C104" s="23"/>
@@ -5928,7 +6027,7 @@
       <c r="R104" s="23"/>
       <c r="S104" s="24"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="23"/>
       <c r="B105" s="24"/>
       <c r="C105" s="23"/>
@@ -5949,7 +6048,7 @@
       <c r="R105" s="23"/>
       <c r="S105" s="24"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="23"/>
       <c r="B106" s="24"/>
       <c r="C106" s="23"/>
@@ -5970,7 +6069,7 @@
       <c r="R106" s="23"/>
       <c r="S106" s="24"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="23"/>
       <c r="B107" s="24"/>
       <c r="C107" s="23"/>
@@ -5991,7 +6090,7 @@
       <c r="R107" s="23"/>
       <c r="S107" s="24"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="23"/>
       <c r="B108" s="24"/>
       <c r="C108" s="23"/>
@@ -6012,7 +6111,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="24"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="23"/>
       <c r="B109" s="24"/>
       <c r="C109" s="23"/>
@@ -6033,7 +6132,7 @@
       <c r="R109" s="23"/>
       <c r="S109" s="24"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
       <c r="C110" s="23"/>
@@ -6054,7 +6153,7 @@
       <c r="R110" s="23"/>
       <c r="S110" s="24"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="23"/>
       <c r="B111" s="24"/>
       <c r="C111" s="23"/>
@@ -6075,7 +6174,7 @@
       <c r="R111" s="23"/>
       <c r="S111" s="24"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="23"/>
       <c r="B112" s="24"/>
       <c r="C112" s="23"/>
@@ -6096,7 +6195,7 @@
       <c r="R112" s="23"/>
       <c r="S112" s="24"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="23"/>
       <c r="B113" s="24"/>
       <c r="C113" s="23"/>
@@ -6117,7 +6216,7 @@
       <c r="R113" s="23"/>
       <c r="S113" s="24"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="23"/>
       <c r="B114" s="24"/>
       <c r="C114" s="23"/>
@@ -6138,7 +6237,7 @@
       <c r="R114" s="23"/>
       <c r="S114" s="24"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="23"/>
       <c r="B115" s="24"/>
       <c r="C115" s="23"/>
@@ -6159,7 +6258,7 @@
       <c r="R115" s="23"/>
       <c r="S115" s="24"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="23"/>
       <c r="B116" s="24"/>
       <c r="C116" s="23"/>
@@ -6180,7 +6279,7 @@
       <c r="R116" s="23"/>
       <c r="S116" s="24"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="23"/>
       <c r="B117" s="24"/>
       <c r="C117" s="23"/>
@@ -6201,7 +6300,7 @@
       <c r="R117" s="23"/>
       <c r="S117" s="24"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="23"/>
       <c r="B118" s="24"/>
       <c r="C118" s="23"/>
@@ -6222,7 +6321,7 @@
       <c r="R118" s="23"/>
       <c r="S118" s="24"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="23"/>
       <c r="B119" s="24"/>
       <c r="C119" s="23"/>
@@ -6243,7 +6342,7 @@
       <c r="R119" s="23"/>
       <c r="S119" s="24"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="23"/>
       <c r="B120" s="24"/>
       <c r="C120" s="23"/>
@@ -6264,7 +6363,7 @@
       <c r="R120" s="23"/>
       <c r="S120" s="24"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="23"/>
       <c r="B121" s="24"/>
       <c r="C121" s="23"/>
@@ -6285,7 +6384,7 @@
       <c r="R121" s="23"/>
       <c r="S121" s="24"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="23"/>
       <c r="B122" s="24"/>
       <c r="C122" s="23"/>
@@ -6306,7 +6405,7 @@
       <c r="R122" s="23"/>
       <c r="S122" s="24"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="23"/>
       <c r="B123" s="24"/>
       <c r="C123" s="23"/>
@@ -6327,7 +6426,7 @@
       <c r="R123" s="23"/>
       <c r="S123" s="24"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="23"/>
       <c r="B124" s="24"/>
       <c r="C124" s="23"/>
@@ -6348,7 +6447,7 @@
       <c r="R124" s="23"/>
       <c r="S124" s="24"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="23"/>
       <c r="B125" s="24"/>
       <c r="C125" s="23"/>
@@ -6369,7 +6468,7 @@
       <c r="R125" s="23"/>
       <c r="S125" s="24"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="23"/>
       <c r="B126" s="24"/>
       <c r="C126" s="23"/>
@@ -6390,7 +6489,7 @@
       <c r="R126" s="23"/>
       <c r="S126" s="24"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="23"/>
       <c r="B127" s="24"/>
       <c r="C127" s="23"/>
@@ -6411,7 +6510,7 @@
       <c r="R127" s="23"/>
       <c r="S127" s="24"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="23"/>
       <c r="B128" s="24"/>
       <c r="C128" s="23"/>
@@ -6432,7 +6531,7 @@
       <c r="R128" s="23"/>
       <c r="S128" s="24"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="23"/>
       <c r="B129" s="24"/>
       <c r="C129" s="23"/>
@@ -6453,7 +6552,7 @@
       <c r="R129" s="23"/>
       <c r="S129" s="24"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="23"/>
       <c r="B130" s="24"/>
       <c r="C130" s="23"/>
@@ -6474,7 +6573,7 @@
       <c r="R130" s="23"/>
       <c r="S130" s="24"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="23"/>
       <c r="B131" s="24"/>
       <c r="C131" s="23"/>
@@ -6495,7 +6594,7 @@
       <c r="R131" s="23"/>
       <c r="S131" s="24"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="23"/>
       <c r="B132" s="24"/>
       <c r="C132" s="23"/>
@@ -6516,7 +6615,7 @@
       <c r="R132" s="23"/>
       <c r="S132" s="24"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="23"/>
       <c r="B133" s="24"/>
       <c r="C133" s="23"/>
@@ -6537,7 +6636,7 @@
       <c r="R133" s="23"/>
       <c r="S133" s="24"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="23"/>
       <c r="B134" s="24"/>
       <c r="C134" s="23"/>
@@ -6558,7 +6657,7 @@
       <c r="R134" s="23"/>
       <c r="S134" s="24"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="23"/>
       <c r="B135" s="24"/>
       <c r="C135" s="23"/>
@@ -6579,7 +6678,7 @@
       <c r="R135" s="23"/>
       <c r="S135" s="24"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="23"/>
       <c r="B136" s="24"/>
       <c r="C136" s="23"/>
@@ -6600,7 +6699,7 @@
       <c r="R136" s="23"/>
       <c r="S136" s="24"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="23"/>
       <c r="B137" s="24"/>
       <c r="C137" s="23"/>
@@ -6621,7 +6720,7 @@
       <c r="R137" s="23"/>
       <c r="S137" s="24"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="23"/>
       <c r="B138" s="24"/>
       <c r="C138" s="23"/>
@@ -6642,7 +6741,7 @@
       <c r="R138" s="23"/>
       <c r="S138" s="24"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="23"/>
       <c r="B139" s="24"/>
       <c r="C139" s="23"/>
@@ -6663,7 +6762,7 @@
       <c r="R139" s="23"/>
       <c r="S139" s="24"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="23"/>
       <c r="B140" s="24"/>
       <c r="C140" s="23"/>
@@ -6681,7 +6780,7 @@
       <c r="O140" s="24"/>
       <c r="S140" s="24"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="23"/>
       <c r="B141" s="24"/>
       <c r="C141" s="23"/>
@@ -6699,7 +6798,7 @@
       <c r="O141" s="24"/>
       <c r="S141" s="24"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="23"/>
       <c r="B142" s="24"/>
       <c r="C142" s="23"/>
@@ -6717,7 +6816,7 @@
       <c r="O142" s="24"/>
       <c r="S142" s="24"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="23"/>
       <c r="B143" s="24"/>
       <c r="C143" s="23"/>
@@ -6735,7 +6834,7 @@
       <c r="O143" s="24"/>
       <c r="S143" s="24"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="23"/>
       <c r="B144" s="24"/>
       <c r="C144" s="23"/>
@@ -6753,7 +6852,7 @@
       <c r="O144" s="24"/>
       <c r="S144" s="24"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="23"/>
       <c r="B145" s="24"/>
       <c r="C145" s="23"/>
@@ -6771,7 +6870,7 @@
       <c r="O145" s="24"/>
       <c r="S145" s="24"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="23"/>
       <c r="B146" s="24"/>
       <c r="C146" s="23"/>
@@ -6789,7 +6888,7 @@
       <c r="O146" s="24"/>
       <c r="S146" s="24"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="23"/>
       <c r="B147" s="24"/>
       <c r="C147" s="23"/>
@@ -6807,7 +6906,7 @@
       <c r="O147" s="24"/>
       <c r="S147" s="24"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="23"/>
       <c r="B148" s="24"/>
       <c r="C148" s="23"/>
@@ -6825,7 +6924,7 @@
       <c r="O148" s="24"/>
       <c r="S148" s="24"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="23"/>
       <c r="B149" s="24"/>
       <c r="C149" s="23"/>
@@ -6843,7 +6942,7 @@
       <c r="O149" s="24"/>
       <c r="S149" s="24"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="23"/>
       <c r="B150" s="24"/>
       <c r="C150" s="23"/>
@@ -6861,7 +6960,7 @@
       <c r="O150" s="24"/>
       <c r="S150" s="24"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="23"/>
       <c r="B151" s="24"/>
       <c r="C151" s="23"/>
@@ -6879,7 +6978,7 @@
       <c r="O151" s="24"/>
       <c r="S151" s="24"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="23"/>
       <c r="B152" s="24"/>
       <c r="C152" s="23"/>
@@ -6897,7 +6996,7 @@
       <c r="O152" s="24"/>
       <c r="S152" s="24"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="23"/>
       <c r="B153" s="24"/>
       <c r="C153" s="23"/>
@@ -6915,7 +7014,7 @@
       <c r="O153" s="24"/>
       <c r="S153" s="24"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="23"/>
       <c r="B154" s="24"/>
       <c r="C154" s="23"/>
@@ -6933,7 +7032,7 @@
       <c r="O154" s="24"/>
       <c r="S154" s="24"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="23"/>
       <c r="B155" s="24"/>
       <c r="C155" s="23"/>
@@ -6951,7 +7050,7 @@
       <c r="O155" s="24"/>
       <c r="S155" s="24"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="23"/>
       <c r="B156" s="24"/>
       <c r="C156" s="23"/>
@@ -6969,7 +7068,7 @@
       <c r="O156" s="24"/>
       <c r="S156" s="24"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="23"/>
       <c r="B157" s="24"/>
       <c r="C157" s="23"/>
@@ -6987,7 +7086,7 @@
       <c r="O157" s="24"/>
       <c r="S157" s="24"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="23"/>
       <c r="B158" s="24"/>
       <c r="C158" s="23"/>
@@ -7005,7 +7104,7 @@
       <c r="O158" s="24"/>
       <c r="S158" s="24"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="23"/>
       <c r="B159" s="24"/>
       <c r="C159" s="23"/>
@@ -7023,7 +7122,7 @@
       <c r="O159" s="24"/>
       <c r="S159" s="24"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="23"/>
       <c r="B160" s="24"/>
       <c r="C160" s="23"/>
@@ -7041,7 +7140,7 @@
       <c r="O160" s="24"/>
       <c r="S160" s="24"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="23"/>
       <c r="B161" s="24"/>
       <c r="C161" s="23"/>
@@ -7059,7 +7158,7 @@
       <c r="O161" s="24"/>
       <c r="S161" s="24"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="23"/>
       <c r="B162" s="24"/>
       <c r="C162" s="23"/>
@@ -7077,7 +7176,7 @@
       <c r="O162" s="24"/>
       <c r="S162" s="24"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="23"/>
       <c r="B163" s="24"/>
       <c r="C163" s="23"/>
@@ -7095,7 +7194,7 @@
       <c r="O163" s="24"/>
       <c r="S163" s="24"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="23"/>
       <c r="B164" s="24"/>
       <c r="C164" s="23"/>
@@ -7113,7 +7212,7 @@
       <c r="O164" s="24"/>
       <c r="S164" s="24"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="23"/>
       <c r="B165" s="24"/>
       <c r="C165" s="23"/>
@@ -7131,7 +7230,7 @@
       <c r="O165" s="24"/>
       <c r="S165" s="24"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="23"/>
       <c r="B166" s="24"/>
       <c r="C166" s="23"/>
@@ -7149,7 +7248,7 @@
       <c r="O166" s="24"/>
       <c r="S166" s="24"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="23"/>
       <c r="B167" s="24"/>
       <c r="C167" s="23"/>
@@ -7167,7 +7266,7 @@
       <c r="O167" s="24"/>
       <c r="S167" s="24"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="23"/>
       <c r="B168" s="24"/>
       <c r="C168" s="23"/>
@@ -7185,7 +7284,7 @@
       <c r="O168" s="24"/>
       <c r="S168" s="24"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="23"/>
       <c r="B169" s="24"/>
       <c r="C169" s="23"/>
@@ -7203,7 +7302,7 @@
       <c r="O169" s="24"/>
       <c r="S169" s="24"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="23"/>
       <c r="B170" s="24"/>
       <c r="C170" s="23"/>
@@ -7221,7 +7320,7 @@
       <c r="O170" s="24"/>
       <c r="S170" s="24"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="23"/>
       <c r="B171" s="24"/>
       <c r="C171" s="23"/>
@@ -7239,7 +7338,7 @@
       <c r="O171" s="24"/>
       <c r="S171" s="24"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="23"/>
       <c r="B172" s="24"/>
       <c r="C172" s="23"/>
@@ -7257,7 +7356,7 @@
       <c r="O172" s="24"/>
       <c r="S172" s="24"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="23"/>
       <c r="B173" s="24"/>
       <c r="C173" s="23"/>
@@ -7275,7 +7374,7 @@
       <c r="O173" s="24"/>
       <c r="S173" s="24"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="23"/>
       <c r="B174" s="24"/>
       <c r="C174" s="23"/>
@@ -7301,7 +7400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -7309,875 +7408,875 @@
       <selection activeCell="A4" sqref="A4:AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.33203125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="63.33203125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="63.375" style="44" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="9" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="257" max="257" width="3.83203125" customWidth="1"/>
-    <col min="258" max="258" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.625" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.1640625" customWidth="1"/>
+    <col min="260" max="260" width="12.125" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.1640625" customWidth="1"/>
-    <col min="263" max="263" width="82.1640625" customWidth="1"/>
-    <col min="264" max="264" width="25.6640625" customWidth="1"/>
-    <col min="265" max="265" width="13.6640625" customWidth="1"/>
-    <col min="266" max="266" width="9.83203125" customWidth="1"/>
-    <col min="267" max="267" width="10.1640625" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.125" customWidth="1"/>
+    <col min="264" max="264" width="25.625" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.6640625" customWidth="1"/>
-    <col min="513" max="513" width="3.83203125" customWidth="1"/>
-    <col min="514" max="514" width="10.1640625" customWidth="1"/>
+    <col min="269" max="269" width="17.625" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.1640625" customWidth="1"/>
+    <col min="516" max="516" width="12.125" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.1640625" customWidth="1"/>
-    <col min="519" max="519" width="82.1640625" customWidth="1"/>
-    <col min="520" max="520" width="25.6640625" customWidth="1"/>
-    <col min="521" max="521" width="13.6640625" customWidth="1"/>
-    <col min="522" max="522" width="9.83203125" customWidth="1"/>
-    <col min="523" max="523" width="10.1640625" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.125" customWidth="1"/>
+    <col min="520" max="520" width="25.625" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.6640625" customWidth="1"/>
-    <col min="769" max="769" width="3.83203125" customWidth="1"/>
-    <col min="770" max="770" width="10.1640625" customWidth="1"/>
+    <col min="525" max="525" width="17.625" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.1640625" customWidth="1"/>
+    <col min="772" max="772" width="12.125" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.1640625" customWidth="1"/>
-    <col min="775" max="775" width="82.1640625" customWidth="1"/>
-    <col min="776" max="776" width="25.6640625" customWidth="1"/>
-    <col min="777" max="777" width="13.6640625" customWidth="1"/>
-    <col min="778" max="778" width="9.83203125" customWidth="1"/>
-    <col min="779" max="779" width="10.1640625" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.125" customWidth="1"/>
+    <col min="776" max="776" width="25.625" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.6640625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
-    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
+    <col min="781" max="781" width="17.625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
-    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
-    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
-    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.125" customWidth="1"/>
+    <col min="1032" max="1032" width="25.625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
-    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
+    <col min="1037" max="1037" width="17.625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
-    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
-    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
-    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.125" customWidth="1"/>
+    <col min="1288" max="1288" width="25.625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
-    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
+    <col min="1293" max="1293" width="17.625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
-    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
-    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
-    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.125" customWidth="1"/>
+    <col min="1544" max="1544" width="25.625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
-    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
+    <col min="1549" max="1549" width="17.625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
-    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
-    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
-    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.125" customWidth="1"/>
+    <col min="1800" max="1800" width="25.625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
-    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
+    <col min="1805" max="1805" width="17.625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
-    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
-    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
-    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.125" customWidth="1"/>
+    <col min="2056" max="2056" width="25.625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
-    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
+    <col min="2061" max="2061" width="17.625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
-    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
-    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
-    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.125" customWidth="1"/>
+    <col min="2312" max="2312" width="25.625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
-    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
+    <col min="2317" max="2317" width="17.625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
-    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
-    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
-    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.125" customWidth="1"/>
+    <col min="2568" max="2568" width="25.625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
-    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
+    <col min="2573" max="2573" width="17.625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
-    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
-    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
-    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.125" customWidth="1"/>
+    <col min="2824" max="2824" width="25.625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
-    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
+    <col min="2829" max="2829" width="17.625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
-    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
-    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
-    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.125" customWidth="1"/>
+    <col min="3080" max="3080" width="25.625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
-    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
+    <col min="3085" max="3085" width="17.625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
-    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
-    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
-    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.125" customWidth="1"/>
+    <col min="3336" max="3336" width="25.625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
-    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
+    <col min="3341" max="3341" width="17.625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
-    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
-    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
-    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.125" customWidth="1"/>
+    <col min="3592" max="3592" width="25.625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
-    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
+    <col min="3597" max="3597" width="17.625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
-    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
-    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
-    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.125" customWidth="1"/>
+    <col min="3848" max="3848" width="25.625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
-    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
+    <col min="3853" max="3853" width="17.625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
-    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
-    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
-    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.125" customWidth="1"/>
+    <col min="4104" max="4104" width="25.625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
-    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
+    <col min="4109" max="4109" width="17.625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
-    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
-    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
-    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.125" customWidth="1"/>
+    <col min="4360" max="4360" width="25.625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
-    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
+    <col min="4365" max="4365" width="17.625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
-    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
-    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
-    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.125" customWidth="1"/>
+    <col min="4616" max="4616" width="25.625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
-    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
+    <col min="4621" max="4621" width="17.625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
-    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
-    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
-    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.125" customWidth="1"/>
+    <col min="4872" max="4872" width="25.625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
-    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
+    <col min="4877" max="4877" width="17.625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
-    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
-    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
-    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.125" customWidth="1"/>
+    <col min="5128" max="5128" width="25.625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
-    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
+    <col min="5133" max="5133" width="17.625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
-    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
-    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
-    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.125" customWidth="1"/>
+    <col min="5384" max="5384" width="25.625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
-    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
+    <col min="5389" max="5389" width="17.625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
-    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
-    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
-    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.125" customWidth="1"/>
+    <col min="5640" max="5640" width="25.625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
-    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
+    <col min="5645" max="5645" width="17.625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
-    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
-    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
-    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.125" customWidth="1"/>
+    <col min="5896" max="5896" width="25.625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
-    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
+    <col min="5901" max="5901" width="17.625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
-    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
-    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
-    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.125" customWidth="1"/>
+    <col min="6152" max="6152" width="25.625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
-    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
+    <col min="6157" max="6157" width="17.625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
-    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
-    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
-    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.125" customWidth="1"/>
+    <col min="6408" max="6408" width="25.625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
-    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
+    <col min="6413" max="6413" width="17.625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
-    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
-    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
-    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.125" customWidth="1"/>
+    <col min="6664" max="6664" width="25.625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
-    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
+    <col min="6669" max="6669" width="17.625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
-    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
-    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
-    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.125" customWidth="1"/>
+    <col min="6920" max="6920" width="25.625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
-    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
+    <col min="6925" max="6925" width="17.625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
-    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
-    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
-    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.125" customWidth="1"/>
+    <col min="7176" max="7176" width="25.625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
-    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
+    <col min="7181" max="7181" width="17.625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
-    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
-    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
-    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.125" customWidth="1"/>
+    <col min="7432" max="7432" width="25.625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
-    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
+    <col min="7437" max="7437" width="17.625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
-    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
-    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
-    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.125" customWidth="1"/>
+    <col min="7688" max="7688" width="25.625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
-    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
+    <col min="7693" max="7693" width="17.625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
-    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
-    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
-    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.125" customWidth="1"/>
+    <col min="7944" max="7944" width="25.625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
-    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
+    <col min="7949" max="7949" width="17.625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
-    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
-    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
-    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.125" customWidth="1"/>
+    <col min="8200" max="8200" width="25.625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
-    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
+    <col min="8205" max="8205" width="17.625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
-    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
-    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
-    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.125" customWidth="1"/>
+    <col min="8456" max="8456" width="25.625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
-    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
+    <col min="8461" max="8461" width="17.625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
-    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
-    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
-    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.125" customWidth="1"/>
+    <col min="8712" max="8712" width="25.625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
-    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
+    <col min="8717" max="8717" width="17.625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
-    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
-    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
-    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.125" customWidth="1"/>
+    <col min="8968" max="8968" width="25.625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
-    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
+    <col min="8973" max="8973" width="17.625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
-    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
-    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
-    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.125" customWidth="1"/>
+    <col min="9224" max="9224" width="25.625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
-    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
+    <col min="9229" max="9229" width="17.625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
-    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
-    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
-    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.125" customWidth="1"/>
+    <col min="9480" max="9480" width="25.625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
-    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
+    <col min="9485" max="9485" width="17.625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
-    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
-    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
-    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.125" customWidth="1"/>
+    <col min="9736" max="9736" width="25.625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
-    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
+    <col min="9741" max="9741" width="17.625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
-    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
-    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
-    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.125" customWidth="1"/>
+    <col min="9992" max="9992" width="25.625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
-    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
+    <col min="9997" max="9997" width="17.625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
-    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
-    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
-    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.125" customWidth="1"/>
+    <col min="10248" max="10248" width="25.625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
-    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
+    <col min="10253" max="10253" width="17.625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
-    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
-    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
-    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.125" customWidth="1"/>
+    <col min="10504" max="10504" width="25.625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
-    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
+    <col min="10509" max="10509" width="17.625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
-    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
-    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
-    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.125" customWidth="1"/>
+    <col min="10760" max="10760" width="25.625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
-    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
+    <col min="10765" max="10765" width="17.625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
-    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
-    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
-    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.125" customWidth="1"/>
+    <col min="11016" max="11016" width="25.625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
-    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
+    <col min="11021" max="11021" width="17.625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
-    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
-    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
-    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.125" customWidth="1"/>
+    <col min="11272" max="11272" width="25.625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
-    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
+    <col min="11277" max="11277" width="17.625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
-    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
-    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
-    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.125" customWidth="1"/>
+    <col min="11528" max="11528" width="25.625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
-    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
+    <col min="11533" max="11533" width="17.625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
-    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
-    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
-    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.125" customWidth="1"/>
+    <col min="11784" max="11784" width="25.625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
-    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
+    <col min="11789" max="11789" width="17.625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
-    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
-    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
-    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.125" customWidth="1"/>
+    <col min="12040" max="12040" width="25.625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
-    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
+    <col min="12045" max="12045" width="17.625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
-    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
-    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
-    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.125" customWidth="1"/>
+    <col min="12296" max="12296" width="25.625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
-    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
+    <col min="12301" max="12301" width="17.625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
-    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
-    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
-    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.125" customWidth="1"/>
+    <col min="12552" max="12552" width="25.625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
-    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
+    <col min="12557" max="12557" width="17.625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
-    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
-    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
-    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.125" customWidth="1"/>
+    <col min="12808" max="12808" width="25.625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
-    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
+    <col min="12813" max="12813" width="17.625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
-    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
-    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
-    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.125" customWidth="1"/>
+    <col min="13064" max="13064" width="25.625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
-    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
+    <col min="13069" max="13069" width="17.625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
-    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
-    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
-    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.125" customWidth="1"/>
+    <col min="13320" max="13320" width="25.625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
-    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
+    <col min="13325" max="13325" width="17.625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
-    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
-    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
-    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.125" customWidth="1"/>
+    <col min="13576" max="13576" width="25.625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
-    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
+    <col min="13581" max="13581" width="17.625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
-    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
-    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
-    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.125" customWidth="1"/>
+    <col min="13832" max="13832" width="25.625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
-    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
+    <col min="13837" max="13837" width="17.625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
-    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
-    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
-    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.125" customWidth="1"/>
+    <col min="14088" max="14088" width="25.625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
-    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
+    <col min="14093" max="14093" width="17.625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
-    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
-    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
-    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.125" customWidth="1"/>
+    <col min="14344" max="14344" width="25.625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
-    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
+    <col min="14349" max="14349" width="17.625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
-    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
-    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
-    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.125" customWidth="1"/>
+    <col min="14600" max="14600" width="25.625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
-    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
+    <col min="14605" max="14605" width="17.625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
-    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
-    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
-    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.125" customWidth="1"/>
+    <col min="14856" max="14856" width="25.625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
-    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
+    <col min="14861" max="14861" width="17.625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
-    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
-    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
-    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.125" customWidth="1"/>
+    <col min="15112" max="15112" width="25.625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
-    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
+    <col min="15117" max="15117" width="17.625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
-    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
-    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
-    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.125" customWidth="1"/>
+    <col min="15368" max="15368" width="25.625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
-    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
+    <col min="15373" max="15373" width="17.625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
-    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
-    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
-    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.125" customWidth="1"/>
+    <col min="15624" max="15624" width="25.625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
-    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
+    <col min="15629" max="15629" width="17.625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
-    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
-    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
-    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.125" customWidth="1"/>
+    <col min="15880" max="15880" width="25.625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
-    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
+    <col min="15885" max="15885" width="17.625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
-    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
-    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
-    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.125" customWidth="1"/>
+    <col min="16136" max="16136" width="25.625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="97"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -8218,7 +8317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -8233,7 +8332,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8248,7 +8347,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8263,7 +8362,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8278,7 +8377,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8293,7 +8392,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8308,7 +8407,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8342,7 +8441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -8350,35 +8449,35 @@
       <selection activeCell="A3" sqref="A3:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" style="58" customWidth="1"/>
-    <col min="10" max="10" width="53.6640625" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="58"/>
+    <col min="1" max="1" width="10.125" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="33.375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="53.625" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:10" ht="20.25">
+      <c r="A1" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="46" t="s">
         <v>43</v>
       </c>
@@ -8410,7 +8509,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="17.25">
       <c r="A3" s="57"/>
       <c r="B3" s="48"/>
       <c r="C3" s="49"/>
@@ -8422,9 +8521,9 @@
       <c r="I3" s="52"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
+    <row r="4" spans="1:10" ht="17.25">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="49"/>
       <c r="D4" s="65"/>
       <c r="E4" s="54"/>
@@ -8434,10 +8533,10 @@
       <c r="I4" s="52"/>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="99"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="105"/>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="101"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="55"/>
       <c r="E5" s="54"/>
       <c r="F5" s="50"/>
@@ -8446,10 +8545,10 @@
       <c r="I5" s="52"/>
       <c r="J5" s="55"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="99"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
+    <row r="6" spans="1:10" ht="16.5">
+      <c r="A6" s="101"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="55"/>
       <c r="E6" s="54"/>
       <c r="F6" s="50"/>
@@ -8458,9 +8557,9 @@
       <c r="I6" s="52"/>
       <c r="J6" s="55"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="99"/>
-      <c r="B7" s="104"/>
+    <row r="7" spans="1:10" ht="16.5">
+      <c r="A7" s="101"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="49"/>
       <c r="D7" s="55"/>
       <c r="E7" s="54"/>
@@ -8470,9 +8569,9 @@
       <c r="I7" s="52"/>
       <c r="J7" s="55"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="104"/>
+    <row r="8" spans="1:10" ht="16.5">
+      <c r="A8" s="101"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="49"/>
       <c r="D8" s="55"/>
       <c r="E8" s="54"/>
@@ -8482,7 +8581,7 @@
       <c r="I8" s="52"/>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="33" customHeight="1">
       <c r="A9" s="66"/>
       <c r="B9" s="64"/>
       <c r="C9" s="49"/>
@@ -8494,9 +8593,9 @@
       <c r="I9" s="52"/>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
+    <row r="10" spans="1:10" ht="16.5">
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="56"/>
       <c r="D10" s="54"/>
       <c r="E10" s="55"/>
@@ -8506,9 +8605,9 @@
       <c r="I10" s="50"/>
       <c r="J10" s="55"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A11" s="100"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="56"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
@@ -8518,9 +8617,9 @@
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="98"/>
-      <c r="B12" s="99"/>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="49"/>
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
@@ -8530,9 +8629,9 @@
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="98"/>
-      <c r="B13" s="99"/>
+    <row r="13" spans="1:10" ht="16.5">
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="49"/>
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
@@ -8542,9 +8641,9 @@
       <c r="I13" s="50"/>
       <c r="J13" s="55"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="98"/>
-      <c r="B14" s="100"/>
+    <row r="14" spans="1:10" ht="16.5">
+      <c r="A14" s="100"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="49"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -8570,7 +8669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -8578,37 +8677,37 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
-    </row>
-    <row r="3" spans="1:9" s="62" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="111"/>
+    </row>
+    <row r="3" spans="1:9" s="62" customFormat="1" ht="16.5">
       <c r="A3" s="60" t="s">
         <v>31</v>
       </c>
@@ -8637,7 +8736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="63"/>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
@@ -8648,7 +8747,7 @@
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="63"/>
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
@@ -8659,7 +8758,7 @@
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="63"/>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -8670,7 +8769,7 @@
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="63"/>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -8681,7 +8780,7 @@
       <c r="H7" s="63"/>
       <c r="I7" s="63"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="63"/>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -8692,7 +8791,7 @@
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="63"/>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
@@ -8703,7 +8802,7 @@
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="63"/>
       <c r="B10" s="63"/>
       <c r="C10" s="63"/>
@@ -8714,7 +8813,7 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="63"/>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -8725,7 +8824,7 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="63"/>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -8736,7 +8835,7 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="63"/>
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
@@ -8747,7 +8846,7 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="63"/>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
@@ -8777,883 +8876,883 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="70" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="42" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="257" max="257" width="3.83203125" customWidth="1"/>
-    <col min="258" max="258" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.1640625" customWidth="1"/>
+    <col min="260" max="260" width="12.125" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.1640625" customWidth="1"/>
-    <col min="263" max="263" width="82.1640625" customWidth="1"/>
-    <col min="264" max="264" width="25.6640625" customWidth="1"/>
-    <col min="265" max="265" width="13.6640625" customWidth="1"/>
-    <col min="266" max="266" width="9.83203125" customWidth="1"/>
-    <col min="267" max="267" width="10.1640625" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.125" customWidth="1"/>
+    <col min="264" max="264" width="25.625" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.6640625" customWidth="1"/>
-    <col min="513" max="513" width="3.83203125" customWidth="1"/>
-    <col min="514" max="514" width="10.1640625" customWidth="1"/>
+    <col min="269" max="269" width="17.625" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.1640625" customWidth="1"/>
+    <col min="516" max="516" width="12.125" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.1640625" customWidth="1"/>
-    <col min="519" max="519" width="82.1640625" customWidth="1"/>
-    <col min="520" max="520" width="25.6640625" customWidth="1"/>
-    <col min="521" max="521" width="13.6640625" customWidth="1"/>
-    <col min="522" max="522" width="9.83203125" customWidth="1"/>
-    <col min="523" max="523" width="10.1640625" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.125" customWidth="1"/>
+    <col min="520" max="520" width="25.625" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.6640625" customWidth="1"/>
-    <col min="769" max="769" width="3.83203125" customWidth="1"/>
-    <col min="770" max="770" width="10.1640625" customWidth="1"/>
+    <col min="525" max="525" width="17.625" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.1640625" customWidth="1"/>
+    <col min="772" max="772" width="12.125" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.1640625" customWidth="1"/>
-    <col min="775" max="775" width="82.1640625" customWidth="1"/>
-    <col min="776" max="776" width="25.6640625" customWidth="1"/>
-    <col min="777" max="777" width="13.6640625" customWidth="1"/>
-    <col min="778" max="778" width="9.83203125" customWidth="1"/>
-    <col min="779" max="779" width="10.1640625" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.125" customWidth="1"/>
+    <col min="776" max="776" width="25.625" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.6640625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
-    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
+    <col min="781" max="781" width="17.625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
-    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
-    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
-    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.125" customWidth="1"/>
+    <col min="1032" max="1032" width="25.625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
-    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
+    <col min="1037" max="1037" width="17.625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
-    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
-    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
-    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.125" customWidth="1"/>
+    <col min="1288" max="1288" width="25.625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
-    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
+    <col min="1293" max="1293" width="17.625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
-    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
-    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
-    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.125" customWidth="1"/>
+    <col min="1544" max="1544" width="25.625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
-    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
+    <col min="1549" max="1549" width="17.625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
-    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
-    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
-    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.125" customWidth="1"/>
+    <col min="1800" max="1800" width="25.625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
-    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
+    <col min="1805" max="1805" width="17.625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
-    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
-    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
-    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.125" customWidth="1"/>
+    <col min="2056" max="2056" width="25.625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
-    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
+    <col min="2061" max="2061" width="17.625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
-    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
-    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
-    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.125" customWidth="1"/>
+    <col min="2312" max="2312" width="25.625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
-    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
+    <col min="2317" max="2317" width="17.625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
-    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
-    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
-    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.125" customWidth="1"/>
+    <col min="2568" max="2568" width="25.625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
-    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
+    <col min="2573" max="2573" width="17.625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
-    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
-    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
-    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.125" customWidth="1"/>
+    <col min="2824" max="2824" width="25.625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
-    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
+    <col min="2829" max="2829" width="17.625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
-    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
-    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
-    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.125" customWidth="1"/>
+    <col min="3080" max="3080" width="25.625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
-    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
+    <col min="3085" max="3085" width="17.625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
-    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
-    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
-    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.125" customWidth="1"/>
+    <col min="3336" max="3336" width="25.625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
-    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
+    <col min="3341" max="3341" width="17.625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
-    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
-    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
-    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.125" customWidth="1"/>
+    <col min="3592" max="3592" width="25.625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
-    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
+    <col min="3597" max="3597" width="17.625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
-    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
-    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
-    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.125" customWidth="1"/>
+    <col min="3848" max="3848" width="25.625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
-    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
+    <col min="3853" max="3853" width="17.625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
-    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
-    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
-    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.125" customWidth="1"/>
+    <col min="4104" max="4104" width="25.625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
-    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
+    <col min="4109" max="4109" width="17.625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
-    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
-    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
-    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.125" customWidth="1"/>
+    <col min="4360" max="4360" width="25.625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
-    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
+    <col min="4365" max="4365" width="17.625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
-    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
-    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
-    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.125" customWidth="1"/>
+    <col min="4616" max="4616" width="25.625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
-    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
+    <col min="4621" max="4621" width="17.625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
-    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
-    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
-    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.125" customWidth="1"/>
+    <col min="4872" max="4872" width="25.625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
-    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
+    <col min="4877" max="4877" width="17.625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
-    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
-    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
-    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.125" customWidth="1"/>
+    <col min="5128" max="5128" width="25.625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
-    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
+    <col min="5133" max="5133" width="17.625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
-    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
-    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
-    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.125" customWidth="1"/>
+    <col min="5384" max="5384" width="25.625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
-    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
+    <col min="5389" max="5389" width="17.625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
-    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
-    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
-    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.125" customWidth="1"/>
+    <col min="5640" max="5640" width="25.625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
-    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
+    <col min="5645" max="5645" width="17.625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
-    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
-    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
-    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.125" customWidth="1"/>
+    <col min="5896" max="5896" width="25.625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
-    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
+    <col min="5901" max="5901" width="17.625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
-    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
-    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
-    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.125" customWidth="1"/>
+    <col min="6152" max="6152" width="25.625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
-    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
+    <col min="6157" max="6157" width="17.625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
-    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
-    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
-    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.125" customWidth="1"/>
+    <col min="6408" max="6408" width="25.625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
-    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
+    <col min="6413" max="6413" width="17.625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
-    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
-    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
-    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.125" customWidth="1"/>
+    <col min="6664" max="6664" width="25.625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
-    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
+    <col min="6669" max="6669" width="17.625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
-    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
-    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
-    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.125" customWidth="1"/>
+    <col min="6920" max="6920" width="25.625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
-    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
+    <col min="6925" max="6925" width="17.625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
-    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
-    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
-    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.125" customWidth="1"/>
+    <col min="7176" max="7176" width="25.625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
-    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
+    <col min="7181" max="7181" width="17.625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
-    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
-    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
-    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.125" customWidth="1"/>
+    <col min="7432" max="7432" width="25.625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
-    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
+    <col min="7437" max="7437" width="17.625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
-    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
-    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
-    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.125" customWidth="1"/>
+    <col min="7688" max="7688" width="25.625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
-    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
+    <col min="7693" max="7693" width="17.625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
-    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
-    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
-    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.125" customWidth="1"/>
+    <col min="7944" max="7944" width="25.625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
-    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
+    <col min="7949" max="7949" width="17.625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
-    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
-    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
-    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.125" customWidth="1"/>
+    <col min="8200" max="8200" width="25.625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
-    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
+    <col min="8205" max="8205" width="17.625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
-    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
-    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
-    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.125" customWidth="1"/>
+    <col min="8456" max="8456" width="25.625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
-    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
+    <col min="8461" max="8461" width="17.625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
-    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
-    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
-    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.125" customWidth="1"/>
+    <col min="8712" max="8712" width="25.625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
-    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
+    <col min="8717" max="8717" width="17.625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
-    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
-    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
-    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.125" customWidth="1"/>
+    <col min="8968" max="8968" width="25.625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
-    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
+    <col min="8973" max="8973" width="17.625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
-    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
-    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
-    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.125" customWidth="1"/>
+    <col min="9224" max="9224" width="25.625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
-    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
+    <col min="9229" max="9229" width="17.625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
-    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
-    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
-    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.125" customWidth="1"/>
+    <col min="9480" max="9480" width="25.625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
-    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
+    <col min="9485" max="9485" width="17.625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
-    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
-    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
-    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.125" customWidth="1"/>
+    <col min="9736" max="9736" width="25.625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
-    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
+    <col min="9741" max="9741" width="17.625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
-    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
-    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
-    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.125" customWidth="1"/>
+    <col min="9992" max="9992" width="25.625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
-    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
+    <col min="9997" max="9997" width="17.625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
-    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
-    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
-    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.125" customWidth="1"/>
+    <col min="10248" max="10248" width="25.625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
-    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
+    <col min="10253" max="10253" width="17.625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
-    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
-    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
-    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.125" customWidth="1"/>
+    <col min="10504" max="10504" width="25.625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
-    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
+    <col min="10509" max="10509" width="17.625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
-    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
-    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
-    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.125" customWidth="1"/>
+    <col min="10760" max="10760" width="25.625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
-    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
+    <col min="10765" max="10765" width="17.625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
-    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
-    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
-    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.125" customWidth="1"/>
+    <col min="11016" max="11016" width="25.625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
-    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
+    <col min="11021" max="11021" width="17.625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
-    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
-    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
-    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.125" customWidth="1"/>
+    <col min="11272" max="11272" width="25.625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
-    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
+    <col min="11277" max="11277" width="17.625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
-    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
-    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
-    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.125" customWidth="1"/>
+    <col min="11528" max="11528" width="25.625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
-    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
+    <col min="11533" max="11533" width="17.625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
-    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
-    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
-    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.125" customWidth="1"/>
+    <col min="11784" max="11784" width="25.625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
-    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
+    <col min="11789" max="11789" width="17.625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
-    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
-    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
-    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.125" customWidth="1"/>
+    <col min="12040" max="12040" width="25.625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
-    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
+    <col min="12045" max="12045" width="17.625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
-    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
-    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
-    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.125" customWidth="1"/>
+    <col min="12296" max="12296" width="25.625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
-    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
+    <col min="12301" max="12301" width="17.625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
-    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
-    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
-    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.125" customWidth="1"/>
+    <col min="12552" max="12552" width="25.625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
-    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
+    <col min="12557" max="12557" width="17.625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
-    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
-    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
-    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.125" customWidth="1"/>
+    <col min="12808" max="12808" width="25.625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
-    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
+    <col min="12813" max="12813" width="17.625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
-    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
-    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
-    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.125" customWidth="1"/>
+    <col min="13064" max="13064" width="25.625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
-    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
+    <col min="13069" max="13069" width="17.625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
-    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
-    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
-    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.125" customWidth="1"/>
+    <col min="13320" max="13320" width="25.625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
-    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
+    <col min="13325" max="13325" width="17.625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
-    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
-    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
-    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.125" customWidth="1"/>
+    <col min="13576" max="13576" width="25.625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
-    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
+    <col min="13581" max="13581" width="17.625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
-    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
-    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
-    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.125" customWidth="1"/>
+    <col min="13832" max="13832" width="25.625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
-    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
+    <col min="13837" max="13837" width="17.625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
-    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
-    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
-    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.125" customWidth="1"/>
+    <col min="14088" max="14088" width="25.625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
-    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
+    <col min="14093" max="14093" width="17.625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
-    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
-    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
-    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.125" customWidth="1"/>
+    <col min="14344" max="14344" width="25.625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
-    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
+    <col min="14349" max="14349" width="17.625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
-    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
-    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
-    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.125" customWidth="1"/>
+    <col min="14600" max="14600" width="25.625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
-    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
+    <col min="14605" max="14605" width="17.625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
-    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
-    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
-    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.125" customWidth="1"/>
+    <col min="14856" max="14856" width="25.625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
-    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
+    <col min="14861" max="14861" width="17.625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
-    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
-    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
-    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.125" customWidth="1"/>
+    <col min="15112" max="15112" width="25.625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
-    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
+    <col min="15117" max="15117" width="17.625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
-    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
-    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
-    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.125" customWidth="1"/>
+    <col min="15368" max="15368" width="25.625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
-    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
+    <col min="15373" max="15373" width="17.625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
-    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
-    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
-    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.125" customWidth="1"/>
+    <col min="15624" max="15624" width="25.625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
-    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
+    <col min="15629" max="15629" width="17.625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
-    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
-    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
-    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.125" customWidth="1"/>
+    <col min="15880" max="15880" width="25.625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
-    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
+    <col min="15885" max="15885" width="17.625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
-    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
-    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
-    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.125" customWidth="1"/>
+    <col min="16136" max="16136" width="25.625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="97"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="68" t="s">
         <v>31</v>
       </c>
@@ -9694,102 +9793,126 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="336" x14ac:dyDescent="0.15">
-      <c r="A4" s="110">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="346.5">
+      <c r="A4" s="94">
         <v>1</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="110" t="s">
+      <c r="H4" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="M4" s="111" t="s">
+      <c r="M4" s="95" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.15">
-      <c r="A5" s="110">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="115.5">
+      <c r="A5" s="94">
         <v>2</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="110" t="s">
+      <c r="K5" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="L5" s="110" t="s">
+      <c r="L5" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="M5" s="111"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="69"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="M5" s="95"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A6" s="69">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="69"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9804,7 +9927,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A8" s="69"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -9819,7 +9942,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A9" s="69"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -9834,7 +9957,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A10" s="69"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -9849,7 +9972,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A11" s="69"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -9864,7 +9987,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A12" s="69"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -9879,7 +10002,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A13" s="69"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -9913,7 +10036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -9921,18 +10044,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -9958,7 +10081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="9" customFormat="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -9968,7 +10091,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -9978,7 +10101,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -9988,7 +10111,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -9998,7 +10121,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -10008,7 +10131,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -10018,7 +10141,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -10028,7 +10151,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -10038,7 +10161,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -10048,7 +10171,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -10058,7 +10181,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -10068,7 +10191,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -10078,7 +10201,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -10088,7 +10211,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -10098,7 +10221,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -10108,7 +10231,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -10118,7 +10241,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -10128,7 +10251,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>

--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 3.4.1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="465" windowWidth="29040" windowHeight="16440" activeTab="4"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="29040" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.1 新特性|Fix Bug" sheetId="8" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="(生产)需要修改的配置文件" sheetId="3" r:id="rId5"/>
     <sheet name="数据修复" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="256">
   <si>
     <t>No</t>
   </si>
@@ -1124,12 +1129,76 @@
     <t>修改</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>新增昊博短信通道</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送包</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经上线到公测环境，发送短信正常</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信告警提醒阀值由3500修改为7000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有包</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体见“(生产)需要修改的配置文件”</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1548,7 +1617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1882,6 +1951,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1983,7 +2055,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2303,38 +2375,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="44.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" style="19" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="18" customWidth="1"/>
     <col min="4" max="4" width="27" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="18" customWidth="1"/>
-    <col min="11" max="12" width="11.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" style="18" customWidth="1"/>
+    <col min="11" max="12" width="11.83203125" style="18" customWidth="1"/>
     <col min="13" max="13" width="9" style="19"/>
     <col min="14" max="14" width="23" style="19" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="20" customWidth="1"/>
-    <col min="17" max="18" width="17.625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="51.625" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="20" customWidth="1"/>
+    <col min="17" max="18" width="17.6640625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="51.6640625" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" customWidth="1"/>
     <col min="21" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="16" customFormat="1" ht="14.25" thickBot="1">
+    <row r="1" spans="1:20" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="31" customFormat="1" ht="36.75" customHeight="1">
+    <row r="2" spans="1:20" s="31" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74">
         <v>1</v>
       </c>
@@ -2445,7 +2517,7 @@
       </c>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" spans="1:20" s="33" customFormat="1" ht="23.25" customHeight="1">
+    <row r="3" spans="1:20" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75">
         <v>2</v>
       </c>
@@ -2495,7 +2567,7 @@
       </c>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20" s="17" customFormat="1" ht="16.5">
+    <row r="4" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="75">
         <v>3</v>
       </c>
@@ -2543,7 +2615,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="27"/>
     </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="16.5">
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="75">
         <v>4</v>
       </c>
@@ -2591,7 +2663,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="27"/>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="16.5">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
         <v>5</v>
       </c>
@@ -2639,7 +2711,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="27"/>
     </row>
-    <row r="7" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="7" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <v>6</v>
       </c>
@@ -2687,7 +2759,7 @@
       </c>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="8" spans="1:20" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
         <v>7</v>
       </c>
@@ -2735,7 +2807,7 @@
       </c>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="9" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <v>8</v>
       </c>
@@ -2783,7 +2855,7 @@
       </c>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="10" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="75">
         <v>9</v>
       </c>
@@ -2829,7 +2901,7 @@
       <c r="S10" s="76"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="11" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="75">
         <v>10</v>
       </c>
@@ -2875,7 +2947,7 @@
       <c r="S11" s="76"/>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="75">
         <v>11</v>
       </c>
@@ -2921,7 +2993,7 @@
       <c r="S12" s="76"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20" s="31" customFormat="1" ht="24" customHeight="1">
+    <row r="13" spans="1:20" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="75">
         <v>12</v>
       </c>
@@ -2967,7 +3039,7 @@
       <c r="S13" s="76"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="75">
         <v>13</v>
       </c>
@@ -3017,7 +3089,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="75">
         <v>14</v>
       </c>
@@ -3067,7 +3139,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="75">
         <v>15</v>
       </c>
@@ -3117,7 +3189,7 @@
       <c r="S16" s="29"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="75">
         <v>16</v>
       </c>
@@ -3167,7 +3239,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="75">
         <v>17</v>
       </c>
@@ -3217,7 +3289,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="75">
         <v>18</v>
       </c>
@@ -3267,7 +3339,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" s="31" customFormat="1" ht="33">
+    <row r="20" spans="1:20" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A20" s="75">
         <v>19</v>
       </c>
@@ -3317,7 +3389,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="75">
         <v>20</v>
       </c>
@@ -3367,7 +3439,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="75">
         <v>21</v>
       </c>
@@ -3417,7 +3489,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="75">
         <v>22</v>
       </c>
@@ -3467,7 +3539,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="75">
         <v>23</v>
       </c>
@@ -3517,7 +3589,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="75">
         <v>24</v>
       </c>
@@ -3567,7 +3639,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="75">
         <v>25</v>
       </c>
@@ -3617,7 +3689,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="75">
         <v>26</v>
       </c>
@@ -3667,7 +3739,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="28" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="75">
         <v>27</v>
       </c>
@@ -3717,7 +3789,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" s="31" customFormat="1" ht="33">
+    <row r="29" spans="1:20" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" s="75">
         <v>28</v>
       </c>
@@ -3767,7 +3839,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="75">
         <v>29</v>
       </c>
@@ -3817,7 +3889,7 @@
       <c r="S30" s="29"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="75">
         <v>30</v>
       </c>
@@ -3867,7 +3939,7 @@
       <c r="S31" s="29"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="75">
         <v>31</v>
       </c>
@@ -3917,7 +3989,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="75">
         <v>32</v>
       </c>
@@ -3967,7 +4039,7 @@
       <c r="S33" s="29"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" spans="1:20" s="31" customFormat="1" ht="33">
+    <row r="34" spans="1:20" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" s="75">
         <v>33</v>
       </c>
@@ -4017,7 +4089,7 @@
       <c r="S34" s="29"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="75">
         <v>34</v>
       </c>
@@ -4067,7 +4139,7 @@
       <c r="S35" s="29"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="1:20" s="31" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="75">
         <v>35</v>
       </c>
@@ -4117,7 +4189,7 @@
       <c r="S36" s="29"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="1:20" ht="16.5">
+    <row r="37" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="75">
         <v>36</v>
       </c>
@@ -4166,7 +4238,7 @@
       <c r="R37" s="34"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5">
+    <row r="38" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="75">
         <v>37</v>
       </c>
@@ -4215,7 +4287,7 @@
       <c r="R38" s="34"/>
       <c r="S38" s="29"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5">
+    <row r="39" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="75">
         <v>38</v>
       </c>
@@ -4264,7 +4336,7 @@
       <c r="R39" s="34"/>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5">
+    <row r="40" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="75">
         <v>39</v>
       </c>
@@ -4313,7 +4385,7 @@
       <c r="R40" s="34"/>
       <c r="S40" s="29"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5">
+    <row r="41" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="75">
         <v>40</v>
       </c>
@@ -4362,7 +4434,7 @@
       <c r="R41" s="34"/>
       <c r="S41" s="29"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5">
+    <row r="42" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="75">
         <v>41</v>
       </c>
@@ -4411,7 +4483,7 @@
       <c r="R42" s="34"/>
       <c r="S42" s="29"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5">
+    <row r="43" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="75">
         <v>42</v>
       </c>
@@ -4460,7 +4532,7 @@
       <c r="R43" s="34"/>
       <c r="S43" s="29"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5">
+    <row r="44" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="75">
         <v>43</v>
       </c>
@@ -4509,7 +4581,7 @@
       <c r="R44" s="34"/>
       <c r="S44" s="29"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5">
+    <row r="45" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="75">
         <v>44</v>
       </c>
@@ -4558,7 +4630,7 @@
       <c r="R45" s="34"/>
       <c r="S45" s="29"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5">
+    <row r="46" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="75">
         <v>45</v>
       </c>
@@ -4607,7 +4679,7 @@
       <c r="R46" s="34"/>
       <c r="S46" s="29"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5">
+    <row r="47" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="75">
         <v>46</v>
       </c>
@@ -4656,7 +4728,7 @@
       <c r="R47" s="34"/>
       <c r="S47" s="29"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5">
+    <row r="48" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="75">
         <v>47</v>
       </c>
@@ -4705,7 +4777,7 @@
       <c r="R48" s="34"/>
       <c r="S48" s="29"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="75">
         <v>48</v>
       </c>
@@ -4754,7 +4826,7 @@
       <c r="R49" s="34"/>
       <c r="S49" s="29"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5">
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="75">
         <v>49</v>
       </c>
@@ -4803,7 +4875,7 @@
       <c r="R50" s="34"/>
       <c r="S50" s="29"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5">
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="75">
         <v>50</v>
       </c>
@@ -4852,7 +4924,7 @@
       <c r="R51" s="34"/>
       <c r="S51" s="29"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5">
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="75">
         <v>51</v>
       </c>
@@ -4901,76 +4973,132 @@
       <c r="R52" s="34"/>
       <c r="S52" s="29"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5">
+    <row r="53" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="75">
         <v>52</v>
       </c>
-      <c r="B53" s="90"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="93"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="93"/>
-    </row>
-    <row r="54" spans="1:19" ht="16.5">
+      <c r="B53" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" s="72">
+        <v>42576</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="H53" s="72">
+        <v>42576</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="L53" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="M53" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="N53" s="72">
+        <v>42576</v>
+      </c>
+      <c r="O53" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="112" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="75">
         <v>53</v>
       </c>
-      <c r="B54" s="90"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="93"/>
-    </row>
-    <row r="55" spans="1:19" ht="16.5">
+      <c r="B54" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" s="72">
+        <v>42576</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="H54" s="72">
+        <v>42576</v>
+      </c>
+      <c r="I54" s="22"/>
+      <c r="J54" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="L54" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="M54" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="N54" s="72">
+        <v>42576</v>
+      </c>
+      <c r="O54" s="67" t="s">
+        <v>254</v>
+      </c>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="112" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="75">
         <v>54</v>
       </c>
-      <c r="B55" s="90"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="91"/>
-      <c r="O55" s="93"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="93"/>
-    </row>
-    <row r="56" spans="1:19" ht="16.5">
+      <c r="B55" s="81"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="67"/>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="80"/>
+      <c r="S55" s="112"/>
+    </row>
+    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="75">
         <v>55</v>
       </c>
@@ -4993,7 +5121,7 @@
       <c r="R56" s="34"/>
       <c r="S56" s="93"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5">
+    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="75">
         <v>56</v>
       </c>
@@ -5016,7 +5144,7 @@
       <c r="R57" s="34"/>
       <c r="S57" s="93"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="75">
         <v>57</v>
       </c>
@@ -5039,7 +5167,7 @@
       <c r="R58" s="34"/>
       <c r="S58" s="93"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="75">
         <v>58</v>
       </c>
@@ -5062,7 +5190,7 @@
       <c r="R59" s="34"/>
       <c r="S59" s="93"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="75">
         <v>59</v>
       </c>
@@ -5085,7 +5213,7 @@
       <c r="R60" s="34"/>
       <c r="S60" s="93"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="75">
         <v>60</v>
       </c>
@@ -5108,7 +5236,7 @@
       <c r="R61" s="34"/>
       <c r="S61" s="93"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="75">
         <v>61</v>
       </c>
@@ -5131,7 +5259,7 @@
       <c r="R62" s="34"/>
       <c r="S62" s="93"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5">
+    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="75">
         <v>62</v>
       </c>
@@ -5154,7 +5282,7 @@
       <c r="R63" s="34"/>
       <c r="S63" s="93"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5">
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="75">
         <v>63</v>
       </c>
@@ -5177,7 +5305,7 @@
       <c r="R64" s="34"/>
       <c r="S64" s="93"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="75">
         <v>64</v>
       </c>
@@ -5200,7 +5328,7 @@
       <c r="R65" s="34"/>
       <c r="S65" s="93"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="75">
         <v>65</v>
       </c>
@@ -5223,7 +5351,7 @@
       <c r="R66" s="34"/>
       <c r="S66" s="93"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="75">
         <v>66</v>
       </c>
@@ -5246,7 +5374,7 @@
       <c r="R67" s="34"/>
       <c r="S67" s="93"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="75">
         <v>67</v>
       </c>
@@ -5269,7 +5397,7 @@
       <c r="R68" s="34"/>
       <c r="S68" s="93"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="75">
         <v>68</v>
       </c>
@@ -5292,7 +5420,7 @@
       <c r="R69" s="34"/>
       <c r="S69" s="93"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
       <c r="B70" s="90"/>
       <c r="C70" s="34"/>
@@ -5313,7 +5441,7 @@
       <c r="R70" s="34"/>
       <c r="S70" s="93"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
       <c r="B71" s="90"/>
       <c r="C71" s="34"/>
@@ -5334,7 +5462,7 @@
       <c r="R71" s="34"/>
       <c r="S71" s="93"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
       <c r="B72" s="90"/>
       <c r="C72" s="34"/>
@@ -5355,7 +5483,7 @@
       <c r="R72" s="34"/>
       <c r="S72" s="93"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="23"/>
       <c r="B73" s="90"/>
       <c r="C73" s="34"/>
@@ -5376,7 +5504,7 @@
       <c r="R73" s="34"/>
       <c r="S73" s="93"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="23"/>
       <c r="B74" s="90"/>
       <c r="C74" s="34"/>
@@ -5397,7 +5525,7 @@
       <c r="R74" s="34"/>
       <c r="S74" s="93"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="23"/>
       <c r="B75" s="90"/>
       <c r="C75" s="34"/>
@@ -5418,7 +5546,7 @@
       <c r="R75" s="34"/>
       <c r="S75" s="93"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="23"/>
       <c r="B76" s="90"/>
       <c r="C76" s="34"/>
@@ -5439,7 +5567,7 @@
       <c r="R76" s="34"/>
       <c r="S76" s="93"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="23"/>
       <c r="B77" s="90"/>
       <c r="C77" s="34"/>
@@ -5460,7 +5588,7 @@
       <c r="R77" s="34"/>
       <c r="S77" s="93"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="23"/>
       <c r="B78" s="90"/>
       <c r="C78" s="34"/>
@@ -5481,7 +5609,7 @@
       <c r="R78" s="34"/>
       <c r="S78" s="93"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="23"/>
       <c r="B79" s="24"/>
       <c r="C79" s="23"/>
@@ -5502,7 +5630,7 @@
       <c r="R79" s="23"/>
       <c r="S79" s="24"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="23"/>
@@ -5523,7 +5651,7 @@
       <c r="R80" s="23"/>
       <c r="S80" s="24"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A81" s="23"/>
       <c r="B81" s="24"/>
       <c r="C81" s="23"/>
@@ -5544,7 +5672,7 @@
       <c r="R81" s="23"/>
       <c r="S81" s="24"/>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" s="23"/>
       <c r="B82" s="24"/>
       <c r="C82" s="23"/>
@@ -5565,7 +5693,7 @@
       <c r="R82" s="23"/>
       <c r="S82" s="24"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A83" s="23"/>
       <c r="B83" s="24"/>
       <c r="C83" s="23"/>
@@ -5586,7 +5714,7 @@
       <c r="R83" s="23"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A84" s="23"/>
       <c r="B84" s="24"/>
       <c r="C84" s="23"/>
@@ -5607,7 +5735,7 @@
       <c r="R84" s="23"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85" s="23"/>
       <c r="B85" s="24"/>
       <c r="C85" s="23"/>
@@ -5628,7 +5756,7 @@
       <c r="R85" s="23"/>
       <c r="S85" s="24"/>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="23"/>
@@ -5649,7 +5777,7 @@
       <c r="R86" s="23"/>
       <c r="S86" s="24"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="23"/>
       <c r="B87" s="24"/>
       <c r="C87" s="23"/>
@@ -5670,7 +5798,7 @@
       <c r="R87" s="23"/>
       <c r="S87" s="24"/>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="23"/>
       <c r="B88" s="24"/>
       <c r="C88" s="23"/>
@@ -5691,7 +5819,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="24"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="23"/>
       <c r="B89" s="24"/>
       <c r="C89" s="23"/>
@@ -5712,7 +5840,7 @@
       <c r="R89" s="23"/>
       <c r="S89" s="24"/>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90" s="23"/>
       <c r="B90" s="24"/>
       <c r="C90" s="23"/>
@@ -5733,7 +5861,7 @@
       <c r="R90" s="23"/>
       <c r="S90" s="24"/>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="23"/>
       <c r="B91" s="24"/>
       <c r="C91" s="23"/>
@@ -5754,7 +5882,7 @@
       <c r="R91" s="23"/>
       <c r="S91" s="24"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="23"/>
       <c r="B92" s="24"/>
       <c r="C92" s="23"/>
@@ -5775,7 +5903,7 @@
       <c r="R92" s="23"/>
       <c r="S92" s="24"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="23"/>
       <c r="B93" s="24"/>
       <c r="C93" s="23"/>
@@ -5796,7 +5924,7 @@
       <c r="R93" s="23"/>
       <c r="S93" s="24"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="23"/>
       <c r="B94" s="24"/>
       <c r="C94" s="23"/>
@@ -5817,7 +5945,7 @@
       <c r="R94" s="23"/>
       <c r="S94" s="24"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" s="23"/>
       <c r="B95" s="24"/>
       <c r="C95" s="23"/>
@@ -5838,7 +5966,7 @@
       <c r="R95" s="23"/>
       <c r="S95" s="24"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" s="23"/>
       <c r="B96" s="24"/>
       <c r="C96" s="23"/>
@@ -5859,7 +5987,7 @@
       <c r="R96" s="23"/>
       <c r="S96" s="24"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="23"/>
       <c r="B97" s="24"/>
       <c r="C97" s="23"/>
@@ -5880,7 +6008,7 @@
       <c r="R97" s="23"/>
       <c r="S97" s="24"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="23"/>
       <c r="B98" s="24"/>
       <c r="C98" s="23"/>
@@ -5901,7 +6029,7 @@
       <c r="R98" s="23"/>
       <c r="S98" s="24"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="23"/>
       <c r="B99" s="24"/>
       <c r="C99" s="23"/>
@@ -5922,7 +6050,7 @@
       <c r="R99" s="23"/>
       <c r="S99" s="24"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="23"/>
       <c r="B100" s="24"/>
       <c r="C100" s="23"/>
@@ -5943,7 +6071,7 @@
       <c r="R100" s="23"/>
       <c r="S100" s="24"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="23"/>
       <c r="B101" s="24"/>
       <c r="C101" s="23"/>
@@ -5964,7 +6092,7 @@
       <c r="R101" s="23"/>
       <c r="S101" s="24"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="23"/>
       <c r="B102" s="24"/>
       <c r="C102" s="23"/>
@@ -5985,7 +6113,7 @@
       <c r="R102" s="23"/>
       <c r="S102" s="24"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="23"/>
       <c r="B103" s="24"/>
       <c r="C103" s="23"/>
@@ -6006,7 +6134,7 @@
       <c r="R103" s="23"/>
       <c r="S103" s="24"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="23"/>
       <c r="B104" s="24"/>
       <c r="C104" s="23"/>
@@ -6027,7 +6155,7 @@
       <c r="R104" s="23"/>
       <c r="S104" s="24"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="23"/>
       <c r="B105" s="24"/>
       <c r="C105" s="23"/>
@@ -6048,7 +6176,7 @@
       <c r="R105" s="23"/>
       <c r="S105" s="24"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="23"/>
       <c r="B106" s="24"/>
       <c r="C106" s="23"/>
@@ -6069,7 +6197,7 @@
       <c r="R106" s="23"/>
       <c r="S106" s="24"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="23"/>
       <c r="B107" s="24"/>
       <c r="C107" s="23"/>
@@ -6090,7 +6218,7 @@
       <c r="R107" s="23"/>
       <c r="S107" s="24"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="23"/>
       <c r="B108" s="24"/>
       <c r="C108" s="23"/>
@@ -6111,7 +6239,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="24"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="23"/>
       <c r="B109" s="24"/>
       <c r="C109" s="23"/>
@@ -6132,7 +6260,7 @@
       <c r="R109" s="23"/>
       <c r="S109" s="24"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
       <c r="C110" s="23"/>
@@ -6153,7 +6281,7 @@
       <c r="R110" s="23"/>
       <c r="S110" s="24"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="23"/>
       <c r="B111" s="24"/>
       <c r="C111" s="23"/>
@@ -6174,7 +6302,7 @@
       <c r="R111" s="23"/>
       <c r="S111" s="24"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="23"/>
       <c r="B112" s="24"/>
       <c r="C112" s="23"/>
@@ -6195,7 +6323,7 @@
       <c r="R112" s="23"/>
       <c r="S112" s="24"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="23"/>
       <c r="B113" s="24"/>
       <c r="C113" s="23"/>
@@ -6216,7 +6344,7 @@
       <c r="R113" s="23"/>
       <c r="S113" s="24"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="23"/>
       <c r="B114" s="24"/>
       <c r="C114" s="23"/>
@@ -6237,7 +6365,7 @@
       <c r="R114" s="23"/>
       <c r="S114" s="24"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="23"/>
       <c r="B115" s="24"/>
       <c r="C115" s="23"/>
@@ -6258,7 +6386,7 @@
       <c r="R115" s="23"/>
       <c r="S115" s="24"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="23"/>
       <c r="B116" s="24"/>
       <c r="C116" s="23"/>
@@ -6279,7 +6407,7 @@
       <c r="R116" s="23"/>
       <c r="S116" s="24"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="23"/>
       <c r="B117" s="24"/>
       <c r="C117" s="23"/>
@@ -6300,7 +6428,7 @@
       <c r="R117" s="23"/>
       <c r="S117" s="24"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="23"/>
       <c r="B118" s="24"/>
       <c r="C118" s="23"/>
@@ -6321,7 +6449,7 @@
       <c r="R118" s="23"/>
       <c r="S118" s="24"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="23"/>
       <c r="B119" s="24"/>
       <c r="C119" s="23"/>
@@ -6342,7 +6470,7 @@
       <c r="R119" s="23"/>
       <c r="S119" s="24"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="23"/>
       <c r="B120" s="24"/>
       <c r="C120" s="23"/>
@@ -6363,7 +6491,7 @@
       <c r="R120" s="23"/>
       <c r="S120" s="24"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="23"/>
       <c r="B121" s="24"/>
       <c r="C121" s="23"/>
@@ -6384,7 +6512,7 @@
       <c r="R121" s="23"/>
       <c r="S121" s="24"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="23"/>
       <c r="B122" s="24"/>
       <c r="C122" s="23"/>
@@ -6405,7 +6533,7 @@
       <c r="R122" s="23"/>
       <c r="S122" s="24"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="23"/>
       <c r="B123" s="24"/>
       <c r="C123" s="23"/>
@@ -6426,7 +6554,7 @@
       <c r="R123" s="23"/>
       <c r="S123" s="24"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="23"/>
       <c r="B124" s="24"/>
       <c r="C124" s="23"/>
@@ -6447,7 +6575,7 @@
       <c r="R124" s="23"/>
       <c r="S124" s="24"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="23"/>
       <c r="B125" s="24"/>
       <c r="C125" s="23"/>
@@ -6468,7 +6596,7 @@
       <c r="R125" s="23"/>
       <c r="S125" s="24"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="23"/>
       <c r="B126" s="24"/>
       <c r="C126" s="23"/>
@@ -6489,7 +6617,7 @@
       <c r="R126" s="23"/>
       <c r="S126" s="24"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="23"/>
       <c r="B127" s="24"/>
       <c r="C127" s="23"/>
@@ -6510,7 +6638,7 @@
       <c r="R127" s="23"/>
       <c r="S127" s="24"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="23"/>
       <c r="B128" s="24"/>
       <c r="C128" s="23"/>
@@ -6531,7 +6659,7 @@
       <c r="R128" s="23"/>
       <c r="S128" s="24"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="23"/>
       <c r="B129" s="24"/>
       <c r="C129" s="23"/>
@@ -6552,7 +6680,7 @@
       <c r="R129" s="23"/>
       <c r="S129" s="24"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="23"/>
       <c r="B130" s="24"/>
       <c r="C130" s="23"/>
@@ -6573,7 +6701,7 @@
       <c r="R130" s="23"/>
       <c r="S130" s="24"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="23"/>
       <c r="B131" s="24"/>
       <c r="C131" s="23"/>
@@ -6594,7 +6722,7 @@
       <c r="R131" s="23"/>
       <c r="S131" s="24"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="23"/>
       <c r="B132" s="24"/>
       <c r="C132" s="23"/>
@@ -6615,7 +6743,7 @@
       <c r="R132" s="23"/>
       <c r="S132" s="24"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="23"/>
       <c r="B133" s="24"/>
       <c r="C133" s="23"/>
@@ -6636,7 +6764,7 @@
       <c r="R133" s="23"/>
       <c r="S133" s="24"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="23"/>
       <c r="B134" s="24"/>
       <c r="C134" s="23"/>
@@ -6657,7 +6785,7 @@
       <c r="R134" s="23"/>
       <c r="S134" s="24"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="23"/>
       <c r="B135" s="24"/>
       <c r="C135" s="23"/>
@@ -6678,7 +6806,7 @@
       <c r="R135" s="23"/>
       <c r="S135" s="24"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="23"/>
       <c r="B136" s="24"/>
       <c r="C136" s="23"/>
@@ -6699,7 +6827,7 @@
       <c r="R136" s="23"/>
       <c r="S136" s="24"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="23"/>
       <c r="B137" s="24"/>
       <c r="C137" s="23"/>
@@ -6720,7 +6848,7 @@
       <c r="R137" s="23"/>
       <c r="S137" s="24"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="23"/>
       <c r="B138" s="24"/>
       <c r="C138" s="23"/>
@@ -6741,7 +6869,7 @@
       <c r="R138" s="23"/>
       <c r="S138" s="24"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="23"/>
       <c r="B139" s="24"/>
       <c r="C139" s="23"/>
@@ -6762,7 +6890,7 @@
       <c r="R139" s="23"/>
       <c r="S139" s="24"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="23"/>
       <c r="B140" s="24"/>
       <c r="C140" s="23"/>
@@ -6780,7 +6908,7 @@
       <c r="O140" s="24"/>
       <c r="S140" s="24"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="23"/>
       <c r="B141" s="24"/>
       <c r="C141" s="23"/>
@@ -6798,7 +6926,7 @@
       <c r="O141" s="24"/>
       <c r="S141" s="24"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="23"/>
       <c r="B142" s="24"/>
       <c r="C142" s="23"/>
@@ -6816,7 +6944,7 @@
       <c r="O142" s="24"/>
       <c r="S142" s="24"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="23"/>
       <c r="B143" s="24"/>
       <c r="C143" s="23"/>
@@ -6834,7 +6962,7 @@
       <c r="O143" s="24"/>
       <c r="S143" s="24"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="23"/>
       <c r="B144" s="24"/>
       <c r="C144" s="23"/>
@@ -6852,7 +6980,7 @@
       <c r="O144" s="24"/>
       <c r="S144" s="24"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="23"/>
       <c r="B145" s="24"/>
       <c r="C145" s="23"/>
@@ -6870,7 +6998,7 @@
       <c r="O145" s="24"/>
       <c r="S145" s="24"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="23"/>
       <c r="B146" s="24"/>
       <c r="C146" s="23"/>
@@ -6888,7 +7016,7 @@
       <c r="O146" s="24"/>
       <c r="S146" s="24"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="23"/>
       <c r="B147" s="24"/>
       <c r="C147" s="23"/>
@@ -6906,7 +7034,7 @@
       <c r="O147" s="24"/>
       <c r="S147" s="24"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="23"/>
       <c r="B148" s="24"/>
       <c r="C148" s="23"/>
@@ -6924,7 +7052,7 @@
       <c r="O148" s="24"/>
       <c r="S148" s="24"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="23"/>
       <c r="B149" s="24"/>
       <c r="C149" s="23"/>
@@ -6942,7 +7070,7 @@
       <c r="O149" s="24"/>
       <c r="S149" s="24"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="23"/>
       <c r="B150" s="24"/>
       <c r="C150" s="23"/>
@@ -6960,7 +7088,7 @@
       <c r="O150" s="24"/>
       <c r="S150" s="24"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="23"/>
       <c r="B151" s="24"/>
       <c r="C151" s="23"/>
@@ -6978,7 +7106,7 @@
       <c r="O151" s="24"/>
       <c r="S151" s="24"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="23"/>
       <c r="B152" s="24"/>
       <c r="C152" s="23"/>
@@ -6996,7 +7124,7 @@
       <c r="O152" s="24"/>
       <c r="S152" s="24"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="23"/>
       <c r="B153" s="24"/>
       <c r="C153" s="23"/>
@@ -7014,7 +7142,7 @@
       <c r="O153" s="24"/>
       <c r="S153" s="24"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="23"/>
       <c r="B154" s="24"/>
       <c r="C154" s="23"/>
@@ -7032,7 +7160,7 @@
       <c r="O154" s="24"/>
       <c r="S154" s="24"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="23"/>
       <c r="B155" s="24"/>
       <c r="C155" s="23"/>
@@ -7050,7 +7178,7 @@
       <c r="O155" s="24"/>
       <c r="S155" s="24"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="23"/>
       <c r="B156" s="24"/>
       <c r="C156" s="23"/>
@@ -7068,7 +7196,7 @@
       <c r="O156" s="24"/>
       <c r="S156" s="24"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="23"/>
       <c r="B157" s="24"/>
       <c r="C157" s="23"/>
@@ -7086,7 +7214,7 @@
       <c r="O157" s="24"/>
       <c r="S157" s="24"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="23"/>
       <c r="B158" s="24"/>
       <c r="C158" s="23"/>
@@ -7104,7 +7232,7 @@
       <c r="O158" s="24"/>
       <c r="S158" s="24"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="23"/>
       <c r="B159" s="24"/>
       <c r="C159" s="23"/>
@@ -7122,7 +7250,7 @@
       <c r="O159" s="24"/>
       <c r="S159" s="24"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="23"/>
       <c r="B160" s="24"/>
       <c r="C160" s="23"/>
@@ -7140,7 +7268,7 @@
       <c r="O160" s="24"/>
       <c r="S160" s="24"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="23"/>
       <c r="B161" s="24"/>
       <c r="C161" s="23"/>
@@ -7158,7 +7286,7 @@
       <c r="O161" s="24"/>
       <c r="S161" s="24"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="23"/>
       <c r="B162" s="24"/>
       <c r="C162" s="23"/>
@@ -7176,7 +7304,7 @@
       <c r="O162" s="24"/>
       <c r="S162" s="24"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="23"/>
       <c r="B163" s="24"/>
       <c r="C163" s="23"/>
@@ -7194,7 +7322,7 @@
       <c r="O163" s="24"/>
       <c r="S163" s="24"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="23"/>
       <c r="B164" s="24"/>
       <c r="C164" s="23"/>
@@ -7212,7 +7340,7 @@
       <c r="O164" s="24"/>
       <c r="S164" s="24"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="23"/>
       <c r="B165" s="24"/>
       <c r="C165" s="23"/>
@@ -7230,7 +7358,7 @@
       <c r="O165" s="24"/>
       <c r="S165" s="24"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="23"/>
       <c r="B166" s="24"/>
       <c r="C166" s="23"/>
@@ -7248,7 +7376,7 @@
       <c r="O166" s="24"/>
       <c r="S166" s="24"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="23"/>
       <c r="B167" s="24"/>
       <c r="C167" s="23"/>
@@ -7266,7 +7394,7 @@
       <c r="O167" s="24"/>
       <c r="S167" s="24"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="23"/>
       <c r="B168" s="24"/>
       <c r="C168" s="23"/>
@@ -7284,7 +7412,7 @@
       <c r="O168" s="24"/>
       <c r="S168" s="24"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="23"/>
       <c r="B169" s="24"/>
       <c r="C169" s="23"/>
@@ -7302,7 +7430,7 @@
       <c r="O169" s="24"/>
       <c r="S169" s="24"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="23"/>
       <c r="B170" s="24"/>
       <c r="C170" s="23"/>
@@ -7320,7 +7448,7 @@
       <c r="O170" s="24"/>
       <c r="S170" s="24"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="23"/>
       <c r="B171" s="24"/>
       <c r="C171" s="23"/>
@@ -7338,7 +7466,7 @@
       <c r="O171" s="24"/>
       <c r="S171" s="24"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="23"/>
       <c r="B172" s="24"/>
       <c r="C172" s="23"/>
@@ -7356,7 +7484,7 @@
       <c r="O172" s="24"/>
       <c r="S172" s="24"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="23"/>
       <c r="B173" s="24"/>
       <c r="C173" s="23"/>
@@ -7374,7 +7502,7 @@
       <c r="O173" s="24"/>
       <c r="S173" s="24"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="23"/>
       <c r="B174" s="24"/>
       <c r="C174" s="23"/>
@@ -7400,7 +7528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -7408,843 +7536,843 @@
       <selection activeCell="A4" sqref="A4:AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.375" style="38" customWidth="1"/>
-    <col min="8" max="8" width="63.375" style="44" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.33203125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="63.33203125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
     <col min="12" max="12" width="9" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.625" customWidth="1"/>
-    <col min="257" max="257" width="3.875" customWidth="1"/>
-    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="257" max="257" width="3.83203125" customWidth="1"/>
+    <col min="258" max="258" width="10.1640625" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.125" customWidth="1"/>
+    <col min="260" max="260" width="12.1640625" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.125" customWidth="1"/>
-    <col min="263" max="263" width="82.125" customWidth="1"/>
-    <col min="264" max="264" width="25.625" customWidth="1"/>
-    <col min="265" max="265" width="13.625" customWidth="1"/>
-    <col min="266" max="266" width="9.875" customWidth="1"/>
-    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="262" max="262" width="9.1640625" customWidth="1"/>
+    <col min="263" max="263" width="82.1640625" customWidth="1"/>
+    <col min="264" max="264" width="25.6640625" customWidth="1"/>
+    <col min="265" max="265" width="13.6640625" customWidth="1"/>
+    <col min="266" max="266" width="9.83203125" customWidth="1"/>
+    <col min="267" max="267" width="10.1640625" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.625" customWidth="1"/>
-    <col min="513" max="513" width="3.875" customWidth="1"/>
-    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="269" max="269" width="17.6640625" customWidth="1"/>
+    <col min="513" max="513" width="3.83203125" customWidth="1"/>
+    <col min="514" max="514" width="10.1640625" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.125" customWidth="1"/>
+    <col min="516" max="516" width="12.1640625" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.125" customWidth="1"/>
-    <col min="519" max="519" width="82.125" customWidth="1"/>
-    <col min="520" max="520" width="25.625" customWidth="1"/>
-    <col min="521" max="521" width="13.625" customWidth="1"/>
-    <col min="522" max="522" width="9.875" customWidth="1"/>
-    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="518" max="518" width="9.1640625" customWidth="1"/>
+    <col min="519" max="519" width="82.1640625" customWidth="1"/>
+    <col min="520" max="520" width="25.6640625" customWidth="1"/>
+    <col min="521" max="521" width="13.6640625" customWidth="1"/>
+    <col min="522" max="522" width="9.83203125" customWidth="1"/>
+    <col min="523" max="523" width="10.1640625" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.625" customWidth="1"/>
-    <col min="769" max="769" width="3.875" customWidth="1"/>
-    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="525" max="525" width="17.6640625" customWidth="1"/>
+    <col min="769" max="769" width="3.83203125" customWidth="1"/>
+    <col min="770" max="770" width="10.1640625" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.125" customWidth="1"/>
+    <col min="772" max="772" width="12.1640625" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.125" customWidth="1"/>
-    <col min="775" max="775" width="82.125" customWidth="1"/>
-    <col min="776" max="776" width="25.625" customWidth="1"/>
-    <col min="777" max="777" width="13.625" customWidth="1"/>
-    <col min="778" max="778" width="9.875" customWidth="1"/>
-    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="774" max="774" width="9.1640625" customWidth="1"/>
+    <col min="775" max="775" width="82.1640625" customWidth="1"/>
+    <col min="776" max="776" width="25.6640625" customWidth="1"/>
+    <col min="777" max="777" width="13.6640625" customWidth="1"/>
+    <col min="778" max="778" width="9.83203125" customWidth="1"/>
+    <col min="779" max="779" width="10.1640625" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.875" customWidth="1"/>
-    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="781" max="781" width="17.6640625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
+    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.125" customWidth="1"/>
+    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.125" customWidth="1"/>
-    <col min="1031" max="1031" width="82.125" customWidth="1"/>
-    <col min="1032" max="1032" width="25.625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.875" customWidth="1"/>
-    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
+    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
+    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
+    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.875" customWidth="1"/>
-    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
+    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.125" customWidth="1"/>
+    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.125" customWidth="1"/>
-    <col min="1287" max="1287" width="82.125" customWidth="1"/>
-    <col min="1288" max="1288" width="25.625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.875" customWidth="1"/>
-    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
+    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
+    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
+    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.875" customWidth="1"/>
-    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
+    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.125" customWidth="1"/>
+    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.125" customWidth="1"/>
-    <col min="1543" max="1543" width="82.125" customWidth="1"/>
-    <col min="1544" max="1544" width="25.625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.875" customWidth="1"/>
-    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
+    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
+    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
+    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.875" customWidth="1"/>
-    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
+    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.125" customWidth="1"/>
+    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.125" customWidth="1"/>
-    <col min="1799" max="1799" width="82.125" customWidth="1"/>
-    <col min="1800" max="1800" width="25.625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.875" customWidth="1"/>
-    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
+    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
+    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
+    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.875" customWidth="1"/>
-    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
+    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.125" customWidth="1"/>
+    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.125" customWidth="1"/>
-    <col min="2055" max="2055" width="82.125" customWidth="1"/>
-    <col min="2056" max="2056" width="25.625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.875" customWidth="1"/>
-    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
+    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
+    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
+    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.875" customWidth="1"/>
-    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
+    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.125" customWidth="1"/>
+    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.125" customWidth="1"/>
-    <col min="2311" max="2311" width="82.125" customWidth="1"/>
-    <col min="2312" max="2312" width="25.625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.875" customWidth="1"/>
-    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
+    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
+    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
+    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.875" customWidth="1"/>
-    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
+    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.125" customWidth="1"/>
+    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.125" customWidth="1"/>
-    <col min="2567" max="2567" width="82.125" customWidth="1"/>
-    <col min="2568" max="2568" width="25.625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.875" customWidth="1"/>
-    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
+    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
+    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
+    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.875" customWidth="1"/>
-    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
+    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.125" customWidth="1"/>
+    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.125" customWidth="1"/>
-    <col min="2823" max="2823" width="82.125" customWidth="1"/>
-    <col min="2824" max="2824" width="25.625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.875" customWidth="1"/>
-    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
+    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
+    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
+    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.875" customWidth="1"/>
-    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
+    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.125" customWidth="1"/>
+    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.125" customWidth="1"/>
-    <col min="3079" max="3079" width="82.125" customWidth="1"/>
-    <col min="3080" max="3080" width="25.625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.875" customWidth="1"/>
-    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
+    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
+    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
+    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.875" customWidth="1"/>
-    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
+    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.125" customWidth="1"/>
+    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.125" customWidth="1"/>
-    <col min="3335" max="3335" width="82.125" customWidth="1"/>
-    <col min="3336" max="3336" width="25.625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.875" customWidth="1"/>
-    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
+    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
+    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
+    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.875" customWidth="1"/>
-    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
+    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.125" customWidth="1"/>
+    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.125" customWidth="1"/>
-    <col min="3591" max="3591" width="82.125" customWidth="1"/>
-    <col min="3592" max="3592" width="25.625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.875" customWidth="1"/>
-    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
+    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
+    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
+    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.875" customWidth="1"/>
-    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
+    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.125" customWidth="1"/>
+    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.125" customWidth="1"/>
-    <col min="3847" max="3847" width="82.125" customWidth="1"/>
-    <col min="3848" max="3848" width="25.625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.875" customWidth="1"/>
-    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
+    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
+    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
+    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.875" customWidth="1"/>
-    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
+    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.125" customWidth="1"/>
+    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.125" customWidth="1"/>
-    <col min="4103" max="4103" width="82.125" customWidth="1"/>
-    <col min="4104" max="4104" width="25.625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.875" customWidth="1"/>
-    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
+    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
+    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
+    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.875" customWidth="1"/>
-    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
+    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.125" customWidth="1"/>
+    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.125" customWidth="1"/>
-    <col min="4359" max="4359" width="82.125" customWidth="1"/>
-    <col min="4360" max="4360" width="25.625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.875" customWidth="1"/>
-    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
+    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
+    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
+    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.875" customWidth="1"/>
-    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
+    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.125" customWidth="1"/>
+    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.125" customWidth="1"/>
-    <col min="4615" max="4615" width="82.125" customWidth="1"/>
-    <col min="4616" max="4616" width="25.625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.875" customWidth="1"/>
-    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
+    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
+    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
+    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.875" customWidth="1"/>
-    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
+    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.125" customWidth="1"/>
+    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.125" customWidth="1"/>
-    <col min="4871" max="4871" width="82.125" customWidth="1"/>
-    <col min="4872" max="4872" width="25.625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.875" customWidth="1"/>
-    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
+    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
+    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
+    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.875" customWidth="1"/>
-    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
+    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.125" customWidth="1"/>
+    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.125" customWidth="1"/>
-    <col min="5127" max="5127" width="82.125" customWidth="1"/>
-    <col min="5128" max="5128" width="25.625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.875" customWidth="1"/>
-    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
+    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
+    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
+    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.875" customWidth="1"/>
-    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
+    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.125" customWidth="1"/>
+    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.125" customWidth="1"/>
-    <col min="5383" max="5383" width="82.125" customWidth="1"/>
-    <col min="5384" max="5384" width="25.625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.875" customWidth="1"/>
-    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
+    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
+    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
+    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.875" customWidth="1"/>
-    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
+    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.125" customWidth="1"/>
+    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.125" customWidth="1"/>
-    <col min="5639" max="5639" width="82.125" customWidth="1"/>
-    <col min="5640" max="5640" width="25.625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.875" customWidth="1"/>
-    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
+    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
+    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
+    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.875" customWidth="1"/>
-    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
+    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.125" customWidth="1"/>
+    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.125" customWidth="1"/>
-    <col min="5895" max="5895" width="82.125" customWidth="1"/>
-    <col min="5896" max="5896" width="25.625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.875" customWidth="1"/>
-    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
+    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
+    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
+    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.875" customWidth="1"/>
-    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
+    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.125" customWidth="1"/>
+    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.125" customWidth="1"/>
-    <col min="6151" max="6151" width="82.125" customWidth="1"/>
-    <col min="6152" max="6152" width="25.625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.875" customWidth="1"/>
-    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
+    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
+    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
+    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.875" customWidth="1"/>
-    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
+    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.125" customWidth="1"/>
+    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.125" customWidth="1"/>
-    <col min="6407" max="6407" width="82.125" customWidth="1"/>
-    <col min="6408" max="6408" width="25.625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.875" customWidth="1"/>
-    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
+    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
+    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
+    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.875" customWidth="1"/>
-    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
+    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.125" customWidth="1"/>
+    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.125" customWidth="1"/>
-    <col min="6663" max="6663" width="82.125" customWidth="1"/>
-    <col min="6664" max="6664" width="25.625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.875" customWidth="1"/>
-    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
+    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
+    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
+    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.875" customWidth="1"/>
-    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
+    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.125" customWidth="1"/>
+    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.125" customWidth="1"/>
-    <col min="6919" max="6919" width="82.125" customWidth="1"/>
-    <col min="6920" max="6920" width="25.625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.875" customWidth="1"/>
-    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
+    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
+    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
+    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.875" customWidth="1"/>
-    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
+    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.125" customWidth="1"/>
+    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.125" customWidth="1"/>
-    <col min="7175" max="7175" width="82.125" customWidth="1"/>
-    <col min="7176" max="7176" width="25.625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.875" customWidth="1"/>
-    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
+    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
+    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
+    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.875" customWidth="1"/>
-    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
+    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.125" customWidth="1"/>
+    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.125" customWidth="1"/>
-    <col min="7431" max="7431" width="82.125" customWidth="1"/>
-    <col min="7432" max="7432" width="25.625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.875" customWidth="1"/>
-    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
+    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
+    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
+    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.875" customWidth="1"/>
-    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
+    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.125" customWidth="1"/>
+    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.125" customWidth="1"/>
-    <col min="7687" max="7687" width="82.125" customWidth="1"/>
-    <col min="7688" max="7688" width="25.625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.875" customWidth="1"/>
-    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
+    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
+    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
+    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.875" customWidth="1"/>
-    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
+    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.125" customWidth="1"/>
+    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.125" customWidth="1"/>
-    <col min="7943" max="7943" width="82.125" customWidth="1"/>
-    <col min="7944" max="7944" width="25.625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.875" customWidth="1"/>
-    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
+    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
+    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
+    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.875" customWidth="1"/>
-    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
+    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.125" customWidth="1"/>
+    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.125" customWidth="1"/>
-    <col min="8199" max="8199" width="82.125" customWidth="1"/>
-    <col min="8200" max="8200" width="25.625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.875" customWidth="1"/>
-    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
+    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
+    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
+    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.875" customWidth="1"/>
-    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
+    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.125" customWidth="1"/>
+    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.125" customWidth="1"/>
-    <col min="8455" max="8455" width="82.125" customWidth="1"/>
-    <col min="8456" max="8456" width="25.625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.875" customWidth="1"/>
-    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
+    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
+    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
+    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.875" customWidth="1"/>
-    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
+    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.125" customWidth="1"/>
+    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.125" customWidth="1"/>
-    <col min="8711" max="8711" width="82.125" customWidth="1"/>
-    <col min="8712" max="8712" width="25.625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.875" customWidth="1"/>
-    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
+    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
+    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
+    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.875" customWidth="1"/>
-    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
+    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.125" customWidth="1"/>
+    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.125" customWidth="1"/>
-    <col min="8967" max="8967" width="82.125" customWidth="1"/>
-    <col min="8968" max="8968" width="25.625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.875" customWidth="1"/>
-    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
+    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
+    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
+    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.875" customWidth="1"/>
-    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
+    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.125" customWidth="1"/>
+    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.125" customWidth="1"/>
-    <col min="9223" max="9223" width="82.125" customWidth="1"/>
-    <col min="9224" max="9224" width="25.625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.875" customWidth="1"/>
-    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
+    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
+    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
+    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.875" customWidth="1"/>
-    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
+    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.125" customWidth="1"/>
+    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.125" customWidth="1"/>
-    <col min="9479" max="9479" width="82.125" customWidth="1"/>
-    <col min="9480" max="9480" width="25.625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.875" customWidth="1"/>
-    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
+    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
+    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
+    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.875" customWidth="1"/>
-    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
+    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.125" customWidth="1"/>
+    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.125" customWidth="1"/>
-    <col min="9735" max="9735" width="82.125" customWidth="1"/>
-    <col min="9736" max="9736" width="25.625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.875" customWidth="1"/>
-    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
+    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
+    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
+    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.875" customWidth="1"/>
-    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
+    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.125" customWidth="1"/>
+    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.125" customWidth="1"/>
-    <col min="9991" max="9991" width="82.125" customWidth="1"/>
-    <col min="9992" max="9992" width="25.625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.875" customWidth="1"/>
-    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
+    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
+    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
+    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.875" customWidth="1"/>
-    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
+    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.125" customWidth="1"/>
+    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.125" customWidth="1"/>
-    <col min="10247" max="10247" width="82.125" customWidth="1"/>
-    <col min="10248" max="10248" width="25.625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.875" customWidth="1"/>
-    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
+    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
+    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
+    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.875" customWidth="1"/>
-    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
+    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.125" customWidth="1"/>
+    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.125" customWidth="1"/>
-    <col min="10503" max="10503" width="82.125" customWidth="1"/>
-    <col min="10504" max="10504" width="25.625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.875" customWidth="1"/>
-    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
+    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
+    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
+    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.875" customWidth="1"/>
-    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
+    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.125" customWidth="1"/>
+    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.125" customWidth="1"/>
-    <col min="10759" max="10759" width="82.125" customWidth="1"/>
-    <col min="10760" max="10760" width="25.625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.875" customWidth="1"/>
-    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
+    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
+    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
+    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.875" customWidth="1"/>
-    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
+    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.125" customWidth="1"/>
+    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.125" customWidth="1"/>
-    <col min="11015" max="11015" width="82.125" customWidth="1"/>
-    <col min="11016" max="11016" width="25.625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.875" customWidth="1"/>
-    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
+    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
+    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
+    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.875" customWidth="1"/>
-    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
+    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.125" customWidth="1"/>
+    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.125" customWidth="1"/>
-    <col min="11271" max="11271" width="82.125" customWidth="1"/>
-    <col min="11272" max="11272" width="25.625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.875" customWidth="1"/>
-    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
+    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
+    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
+    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.875" customWidth="1"/>
-    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
+    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.125" customWidth="1"/>
+    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.125" customWidth="1"/>
-    <col min="11527" max="11527" width="82.125" customWidth="1"/>
-    <col min="11528" max="11528" width="25.625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.875" customWidth="1"/>
-    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
+    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
+    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
+    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.875" customWidth="1"/>
-    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
+    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.125" customWidth="1"/>
+    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.125" customWidth="1"/>
-    <col min="11783" max="11783" width="82.125" customWidth="1"/>
-    <col min="11784" max="11784" width="25.625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.875" customWidth="1"/>
-    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
+    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
+    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
+    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.875" customWidth="1"/>
-    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
+    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.125" customWidth="1"/>
+    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.125" customWidth="1"/>
-    <col min="12039" max="12039" width="82.125" customWidth="1"/>
-    <col min="12040" max="12040" width="25.625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.875" customWidth="1"/>
-    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
+    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
+    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
+    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.875" customWidth="1"/>
-    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
+    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.125" customWidth="1"/>
+    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.125" customWidth="1"/>
-    <col min="12295" max="12295" width="82.125" customWidth="1"/>
-    <col min="12296" max="12296" width="25.625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.875" customWidth="1"/>
-    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
+    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
+    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
+    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.875" customWidth="1"/>
-    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
+    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.125" customWidth="1"/>
+    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.125" customWidth="1"/>
-    <col min="12551" max="12551" width="82.125" customWidth="1"/>
-    <col min="12552" max="12552" width="25.625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.875" customWidth="1"/>
-    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
+    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
+    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
+    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.875" customWidth="1"/>
-    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
+    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.125" customWidth="1"/>
+    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.125" customWidth="1"/>
-    <col min="12807" max="12807" width="82.125" customWidth="1"/>
-    <col min="12808" max="12808" width="25.625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.875" customWidth="1"/>
-    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
+    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
+    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
+    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.875" customWidth="1"/>
-    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
+    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.125" customWidth="1"/>
+    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.125" customWidth="1"/>
-    <col min="13063" max="13063" width="82.125" customWidth="1"/>
-    <col min="13064" max="13064" width="25.625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.875" customWidth="1"/>
-    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
+    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
+    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
+    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.875" customWidth="1"/>
-    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
+    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.125" customWidth="1"/>
+    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.125" customWidth="1"/>
-    <col min="13319" max="13319" width="82.125" customWidth="1"/>
-    <col min="13320" max="13320" width="25.625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.875" customWidth="1"/>
-    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
+    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
+    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
+    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.875" customWidth="1"/>
-    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
+    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.125" customWidth="1"/>
+    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.125" customWidth="1"/>
-    <col min="13575" max="13575" width="82.125" customWidth="1"/>
-    <col min="13576" max="13576" width="25.625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.875" customWidth="1"/>
-    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
+    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
+    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
+    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.875" customWidth="1"/>
-    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
+    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.125" customWidth="1"/>
+    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.125" customWidth="1"/>
-    <col min="13831" max="13831" width="82.125" customWidth="1"/>
-    <col min="13832" max="13832" width="25.625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.875" customWidth="1"/>
-    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
+    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
+    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
+    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.875" customWidth="1"/>
-    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
+    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.125" customWidth="1"/>
+    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.125" customWidth="1"/>
-    <col min="14087" max="14087" width="82.125" customWidth="1"/>
-    <col min="14088" max="14088" width="25.625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.875" customWidth="1"/>
-    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
+    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
+    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
+    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.875" customWidth="1"/>
-    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
+    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.125" customWidth="1"/>
+    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.125" customWidth="1"/>
-    <col min="14343" max="14343" width="82.125" customWidth="1"/>
-    <col min="14344" max="14344" width="25.625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.875" customWidth="1"/>
-    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
+    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
+    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
+    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.875" customWidth="1"/>
-    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
+    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.125" customWidth="1"/>
+    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.125" customWidth="1"/>
-    <col min="14599" max="14599" width="82.125" customWidth="1"/>
-    <col min="14600" max="14600" width="25.625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.875" customWidth="1"/>
-    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
+    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
+    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
+    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.875" customWidth="1"/>
-    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
+    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.125" customWidth="1"/>
+    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.125" customWidth="1"/>
-    <col min="14855" max="14855" width="82.125" customWidth="1"/>
-    <col min="14856" max="14856" width="25.625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.875" customWidth="1"/>
-    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
+    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
+    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
+    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.875" customWidth="1"/>
-    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
+    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.125" customWidth="1"/>
+    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.125" customWidth="1"/>
-    <col min="15111" max="15111" width="82.125" customWidth="1"/>
-    <col min="15112" max="15112" width="25.625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.875" customWidth="1"/>
-    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
+    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
+    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
+    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.875" customWidth="1"/>
-    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
+    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.125" customWidth="1"/>
+    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.125" customWidth="1"/>
-    <col min="15367" max="15367" width="82.125" customWidth="1"/>
-    <col min="15368" max="15368" width="25.625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.875" customWidth="1"/>
-    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
+    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
+    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
+    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.875" customWidth="1"/>
-    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
+    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.125" customWidth="1"/>
+    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.125" customWidth="1"/>
-    <col min="15623" max="15623" width="82.125" customWidth="1"/>
-    <col min="15624" max="15624" width="25.625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.875" customWidth="1"/>
-    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
+    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
+    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
+    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.875" customWidth="1"/>
-    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
+    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.125" customWidth="1"/>
+    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.125" customWidth="1"/>
-    <col min="15879" max="15879" width="82.125" customWidth="1"/>
-    <col min="15880" max="15880" width="25.625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.875" customWidth="1"/>
-    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
+    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
+    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
+    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.875" customWidth="1"/>
-    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
+    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.125" customWidth="1"/>
+    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.125" customWidth="1"/>
-    <col min="16135" max="16135" width="82.125" customWidth="1"/>
-    <col min="16136" max="16136" width="25.625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.875" customWidth="1"/>
-    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
+    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
+    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
+    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="96" t="s">
         <v>30</v>
       </c>
@@ -8261,7 +8389,7 @@
       <c r="L1" s="96"/>
       <c r="M1" s="97"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="98"/>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
@@ -8276,7 +8404,7 @@
       <c r="L2" s="98"/>
       <c r="M2" s="99"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -8317,7 +8445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -8332,7 +8460,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8347,7 +8475,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8362,7 +8490,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8377,7 +8505,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8392,7 +8520,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8407,7 +8535,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8441,7 +8569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -8449,21 +8577,21 @@
       <selection activeCell="A3" sqref="A3:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="33.375" style="58" customWidth="1"/>
-    <col min="5" max="5" width="50.625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.625" style="58" customWidth="1"/>
-    <col min="10" max="10" width="53.625" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="58"/>
+    <col min="1" max="1" width="10.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="53.6640625" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="103" t="s">
         <v>57</v>
       </c>
@@ -8477,7 +8605,7 @@
       <c r="I1" s="104"/>
       <c r="J1" s="104"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
         <v>43</v>
       </c>
@@ -8509,7 +8637,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
       <c r="B3" s="48"/>
       <c r="C3" s="49"/>
@@ -8521,7 +8649,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="105"/>
       <c r="B4" s="106"/>
       <c r="C4" s="49"/>
@@ -8533,7 +8661,7 @@
       <c r="I4" s="52"/>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="101"/>
       <c r="B5" s="106"/>
       <c r="C5" s="107"/>
@@ -8545,7 +8673,7 @@
       <c r="I5" s="52"/>
       <c r="J5" s="55"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="101"/>
       <c r="B6" s="106"/>
       <c r="C6" s="107"/>
@@ -8557,7 +8685,7 @@
       <c r="I6" s="52"/>
       <c r="J6" s="55"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="101"/>
       <c r="B7" s="106"/>
       <c r="C7" s="49"/>
@@ -8569,7 +8697,7 @@
       <c r="I7" s="52"/>
       <c r="J7" s="55"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="101"/>
       <c r="B8" s="106"/>
       <c r="C8" s="49"/>
@@ -8581,7 +8709,7 @@
       <c r="I8" s="52"/>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="1:10" ht="33" customHeight="1">
+    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="66"/>
       <c r="B9" s="64"/>
       <c r="C9" s="49"/>
@@ -8593,7 +8721,7 @@
       <c r="I9" s="52"/>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="100"/>
       <c r="B10" s="101"/>
       <c r="C10" s="56"/>
@@ -8605,7 +8733,7 @@
       <c r="I10" s="50"/>
       <c r="J10" s="55"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="100"/>
       <c r="B11" s="101"/>
       <c r="C11" s="56"/>
@@ -8617,7 +8745,7 @@
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
       <c r="C12" s="49"/>
@@ -8629,7 +8757,7 @@
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="100"/>
       <c r="B13" s="101"/>
       <c r="C13" s="49"/>
@@ -8641,7 +8769,7 @@
       <c r="I13" s="50"/>
       <c r="J13" s="55"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="100"/>
       <c r="B14" s="102"/>
       <c r="C14" s="49"/>
@@ -8669,7 +8797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -8677,13 +8805,13 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="108" t="s">
         <v>53</v>
       </c>
@@ -8696,7 +8824,7 @@
       <c r="H1" s="108"/>
       <c r="I1" s="109"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="110"/>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
@@ -8707,7 +8835,7 @@
       <c r="H2" s="110"/>
       <c r="I2" s="111"/>
     </row>
-    <row r="3" spans="1:9" s="62" customFormat="1" ht="16.5">
+    <row r="3" spans="1:9" s="62" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="60" t="s">
         <v>31</v>
       </c>
@@ -8736,7 +8864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="63"/>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
@@ -8747,7 +8875,7 @@
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="63"/>
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
@@ -8758,7 +8886,7 @@
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="63"/>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -8769,7 +8897,7 @@
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="63"/>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -8780,7 +8908,7 @@
       <c r="H7" s="63"/>
       <c r="I7" s="63"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="63"/>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -8791,7 +8919,7 @@
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="63"/>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
@@ -8802,7 +8930,7 @@
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="63"/>
       <c r="B10" s="63"/>
       <c r="C10" s="63"/>
@@ -8813,7 +8941,7 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="63"/>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -8824,7 +8952,7 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="63"/>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -8835,7 +8963,7 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="63"/>
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
@@ -8846,7 +8974,7 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="63"/>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
@@ -8876,851 +9004,851 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="70" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="42" customWidth="1"/>
-    <col min="8" max="8" width="25.625" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="12.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="257" max="257" width="3.875" customWidth="1"/>
-    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="257" max="257" width="3.83203125" customWidth="1"/>
+    <col min="258" max="258" width="10.1640625" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.125" customWidth="1"/>
+    <col min="260" max="260" width="12.1640625" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.125" customWidth="1"/>
-    <col min="263" max="263" width="82.125" customWidth="1"/>
-    <col min="264" max="264" width="25.625" customWidth="1"/>
-    <col min="265" max="265" width="13.625" customWidth="1"/>
-    <col min="266" max="266" width="9.875" customWidth="1"/>
-    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="262" max="262" width="9.1640625" customWidth="1"/>
+    <col min="263" max="263" width="82.1640625" customWidth="1"/>
+    <col min="264" max="264" width="25.6640625" customWidth="1"/>
+    <col min="265" max="265" width="13.6640625" customWidth="1"/>
+    <col min="266" max="266" width="9.83203125" customWidth="1"/>
+    <col min="267" max="267" width="10.1640625" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.625" customWidth="1"/>
-    <col min="513" max="513" width="3.875" customWidth="1"/>
-    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="269" max="269" width="17.6640625" customWidth="1"/>
+    <col min="513" max="513" width="3.83203125" customWidth="1"/>
+    <col min="514" max="514" width="10.1640625" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.125" customWidth="1"/>
+    <col min="516" max="516" width="12.1640625" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.125" customWidth="1"/>
-    <col min="519" max="519" width="82.125" customWidth="1"/>
-    <col min="520" max="520" width="25.625" customWidth="1"/>
-    <col min="521" max="521" width="13.625" customWidth="1"/>
-    <col min="522" max="522" width="9.875" customWidth="1"/>
-    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="518" max="518" width="9.1640625" customWidth="1"/>
+    <col min="519" max="519" width="82.1640625" customWidth="1"/>
+    <col min="520" max="520" width="25.6640625" customWidth="1"/>
+    <col min="521" max="521" width="13.6640625" customWidth="1"/>
+    <col min="522" max="522" width="9.83203125" customWidth="1"/>
+    <col min="523" max="523" width="10.1640625" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.625" customWidth="1"/>
-    <col min="769" max="769" width="3.875" customWidth="1"/>
-    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="525" max="525" width="17.6640625" customWidth="1"/>
+    <col min="769" max="769" width="3.83203125" customWidth="1"/>
+    <col min="770" max="770" width="10.1640625" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.125" customWidth="1"/>
+    <col min="772" max="772" width="12.1640625" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.125" customWidth="1"/>
-    <col min="775" max="775" width="82.125" customWidth="1"/>
-    <col min="776" max="776" width="25.625" customWidth="1"/>
-    <col min="777" max="777" width="13.625" customWidth="1"/>
-    <col min="778" max="778" width="9.875" customWidth="1"/>
-    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="774" max="774" width="9.1640625" customWidth="1"/>
+    <col min="775" max="775" width="82.1640625" customWidth="1"/>
+    <col min="776" max="776" width="25.6640625" customWidth="1"/>
+    <col min="777" max="777" width="13.6640625" customWidth="1"/>
+    <col min="778" max="778" width="9.83203125" customWidth="1"/>
+    <col min="779" max="779" width="10.1640625" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.875" customWidth="1"/>
-    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="781" max="781" width="17.6640625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
+    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.125" customWidth="1"/>
+    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.125" customWidth="1"/>
-    <col min="1031" max="1031" width="82.125" customWidth="1"/>
-    <col min="1032" max="1032" width="25.625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.875" customWidth="1"/>
-    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
+    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
+    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
+    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.875" customWidth="1"/>
-    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
+    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.125" customWidth="1"/>
+    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.125" customWidth="1"/>
-    <col min="1287" max="1287" width="82.125" customWidth="1"/>
-    <col min="1288" max="1288" width="25.625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.875" customWidth="1"/>
-    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
+    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
+    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
+    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.875" customWidth="1"/>
-    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
+    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.125" customWidth="1"/>
+    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.125" customWidth="1"/>
-    <col min="1543" max="1543" width="82.125" customWidth="1"/>
-    <col min="1544" max="1544" width="25.625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.875" customWidth="1"/>
-    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
+    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
+    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
+    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.875" customWidth="1"/>
-    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
+    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.125" customWidth="1"/>
+    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.125" customWidth="1"/>
-    <col min="1799" max="1799" width="82.125" customWidth="1"/>
-    <col min="1800" max="1800" width="25.625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.875" customWidth="1"/>
-    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
+    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
+    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
+    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.875" customWidth="1"/>
-    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
+    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.125" customWidth="1"/>
+    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.125" customWidth="1"/>
-    <col min="2055" max="2055" width="82.125" customWidth="1"/>
-    <col min="2056" max="2056" width="25.625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.875" customWidth="1"/>
-    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
+    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
+    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
+    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.875" customWidth="1"/>
-    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
+    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.125" customWidth="1"/>
+    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.125" customWidth="1"/>
-    <col min="2311" max="2311" width="82.125" customWidth="1"/>
-    <col min="2312" max="2312" width="25.625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.875" customWidth="1"/>
-    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
+    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
+    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
+    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.875" customWidth="1"/>
-    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
+    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.125" customWidth="1"/>
+    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.125" customWidth="1"/>
-    <col min="2567" max="2567" width="82.125" customWidth="1"/>
-    <col min="2568" max="2568" width="25.625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.875" customWidth="1"/>
-    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
+    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
+    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
+    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.875" customWidth="1"/>
-    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
+    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.125" customWidth="1"/>
+    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.125" customWidth="1"/>
-    <col min="2823" max="2823" width="82.125" customWidth="1"/>
-    <col min="2824" max="2824" width="25.625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.875" customWidth="1"/>
-    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
+    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
+    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
+    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.875" customWidth="1"/>
-    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
+    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.125" customWidth="1"/>
+    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.125" customWidth="1"/>
-    <col min="3079" max="3079" width="82.125" customWidth="1"/>
-    <col min="3080" max="3080" width="25.625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.875" customWidth="1"/>
-    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
+    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
+    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
+    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.875" customWidth="1"/>
-    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
+    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.125" customWidth="1"/>
+    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.125" customWidth="1"/>
-    <col min="3335" max="3335" width="82.125" customWidth="1"/>
-    <col min="3336" max="3336" width="25.625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.875" customWidth="1"/>
-    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
+    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
+    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
+    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.875" customWidth="1"/>
-    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
+    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.125" customWidth="1"/>
+    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.125" customWidth="1"/>
-    <col min="3591" max="3591" width="82.125" customWidth="1"/>
-    <col min="3592" max="3592" width="25.625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.875" customWidth="1"/>
-    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
+    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
+    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
+    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.875" customWidth="1"/>
-    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
+    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.125" customWidth="1"/>
+    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.125" customWidth="1"/>
-    <col min="3847" max="3847" width="82.125" customWidth="1"/>
-    <col min="3848" max="3848" width="25.625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.875" customWidth="1"/>
-    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
+    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
+    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
+    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.875" customWidth="1"/>
-    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
+    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.125" customWidth="1"/>
+    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.125" customWidth="1"/>
-    <col min="4103" max="4103" width="82.125" customWidth="1"/>
-    <col min="4104" max="4104" width="25.625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.875" customWidth="1"/>
-    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
+    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
+    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
+    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.875" customWidth="1"/>
-    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
+    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.125" customWidth="1"/>
+    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.125" customWidth="1"/>
-    <col min="4359" max="4359" width="82.125" customWidth="1"/>
-    <col min="4360" max="4360" width="25.625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.875" customWidth="1"/>
-    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
+    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
+    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
+    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.875" customWidth="1"/>
-    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
+    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.125" customWidth="1"/>
+    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.125" customWidth="1"/>
-    <col min="4615" max="4615" width="82.125" customWidth="1"/>
-    <col min="4616" max="4616" width="25.625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.875" customWidth="1"/>
-    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
+    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
+    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
+    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.875" customWidth="1"/>
-    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
+    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.125" customWidth="1"/>
+    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.125" customWidth="1"/>
-    <col min="4871" max="4871" width="82.125" customWidth="1"/>
-    <col min="4872" max="4872" width="25.625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.875" customWidth="1"/>
-    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
+    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
+    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
+    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.875" customWidth="1"/>
-    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
+    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.125" customWidth="1"/>
+    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.125" customWidth="1"/>
-    <col min="5127" max="5127" width="82.125" customWidth="1"/>
-    <col min="5128" max="5128" width="25.625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.875" customWidth="1"/>
-    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
+    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
+    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
+    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.875" customWidth="1"/>
-    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
+    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.125" customWidth="1"/>
+    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.125" customWidth="1"/>
-    <col min="5383" max="5383" width="82.125" customWidth="1"/>
-    <col min="5384" max="5384" width="25.625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.875" customWidth="1"/>
-    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
+    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
+    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
+    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.875" customWidth="1"/>
-    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
+    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.125" customWidth="1"/>
+    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.125" customWidth="1"/>
-    <col min="5639" max="5639" width="82.125" customWidth="1"/>
-    <col min="5640" max="5640" width="25.625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.875" customWidth="1"/>
-    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
+    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
+    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
+    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.875" customWidth="1"/>
-    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
+    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.125" customWidth="1"/>
+    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.125" customWidth="1"/>
-    <col min="5895" max="5895" width="82.125" customWidth="1"/>
-    <col min="5896" max="5896" width="25.625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.875" customWidth="1"/>
-    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
+    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
+    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
+    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.875" customWidth="1"/>
-    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
+    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.125" customWidth="1"/>
+    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.125" customWidth="1"/>
-    <col min="6151" max="6151" width="82.125" customWidth="1"/>
-    <col min="6152" max="6152" width="25.625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.875" customWidth="1"/>
-    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
+    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
+    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
+    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.875" customWidth="1"/>
-    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
+    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.125" customWidth="1"/>
+    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.125" customWidth="1"/>
-    <col min="6407" max="6407" width="82.125" customWidth="1"/>
-    <col min="6408" max="6408" width="25.625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.875" customWidth="1"/>
-    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
+    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
+    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
+    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.875" customWidth="1"/>
-    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
+    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.125" customWidth="1"/>
+    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.125" customWidth="1"/>
-    <col min="6663" max="6663" width="82.125" customWidth="1"/>
-    <col min="6664" max="6664" width="25.625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.875" customWidth="1"/>
-    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
+    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
+    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
+    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.875" customWidth="1"/>
-    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
+    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.125" customWidth="1"/>
+    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.125" customWidth="1"/>
-    <col min="6919" max="6919" width="82.125" customWidth="1"/>
-    <col min="6920" max="6920" width="25.625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.875" customWidth="1"/>
-    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
+    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
+    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
+    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.875" customWidth="1"/>
-    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
+    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.125" customWidth="1"/>
+    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.125" customWidth="1"/>
-    <col min="7175" max="7175" width="82.125" customWidth="1"/>
-    <col min="7176" max="7176" width="25.625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.875" customWidth="1"/>
-    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
+    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
+    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
+    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.875" customWidth="1"/>
-    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
+    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.125" customWidth="1"/>
+    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.125" customWidth="1"/>
-    <col min="7431" max="7431" width="82.125" customWidth="1"/>
-    <col min="7432" max="7432" width="25.625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.875" customWidth="1"/>
-    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
+    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
+    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
+    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.875" customWidth="1"/>
-    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
+    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.125" customWidth="1"/>
+    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.125" customWidth="1"/>
-    <col min="7687" max="7687" width="82.125" customWidth="1"/>
-    <col min="7688" max="7688" width="25.625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.875" customWidth="1"/>
-    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
+    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
+    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
+    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.875" customWidth="1"/>
-    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
+    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.125" customWidth="1"/>
+    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.125" customWidth="1"/>
-    <col min="7943" max="7943" width="82.125" customWidth="1"/>
-    <col min="7944" max="7944" width="25.625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.875" customWidth="1"/>
-    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
+    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
+    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
+    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.875" customWidth="1"/>
-    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
+    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.125" customWidth="1"/>
+    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.125" customWidth="1"/>
-    <col min="8199" max="8199" width="82.125" customWidth="1"/>
-    <col min="8200" max="8200" width="25.625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.875" customWidth="1"/>
-    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
+    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
+    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
+    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.875" customWidth="1"/>
-    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
+    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.125" customWidth="1"/>
+    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.125" customWidth="1"/>
-    <col min="8455" max="8455" width="82.125" customWidth="1"/>
-    <col min="8456" max="8456" width="25.625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.875" customWidth="1"/>
-    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
+    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
+    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
+    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.875" customWidth="1"/>
-    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
+    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.125" customWidth="1"/>
+    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.125" customWidth="1"/>
-    <col min="8711" max="8711" width="82.125" customWidth="1"/>
-    <col min="8712" max="8712" width="25.625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.875" customWidth="1"/>
-    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
+    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
+    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
+    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.875" customWidth="1"/>
-    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
+    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.125" customWidth="1"/>
+    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.125" customWidth="1"/>
-    <col min="8967" max="8967" width="82.125" customWidth="1"/>
-    <col min="8968" max="8968" width="25.625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.875" customWidth="1"/>
-    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
+    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
+    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
+    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.875" customWidth="1"/>
-    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
+    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.125" customWidth="1"/>
+    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.125" customWidth="1"/>
-    <col min="9223" max="9223" width="82.125" customWidth="1"/>
-    <col min="9224" max="9224" width="25.625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.875" customWidth="1"/>
-    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
+    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
+    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
+    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.875" customWidth="1"/>
-    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
+    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.125" customWidth="1"/>
+    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.125" customWidth="1"/>
-    <col min="9479" max="9479" width="82.125" customWidth="1"/>
-    <col min="9480" max="9480" width="25.625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.875" customWidth="1"/>
-    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
+    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
+    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
+    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.875" customWidth="1"/>
-    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
+    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.125" customWidth="1"/>
+    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.125" customWidth="1"/>
-    <col min="9735" max="9735" width="82.125" customWidth="1"/>
-    <col min="9736" max="9736" width="25.625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.875" customWidth="1"/>
-    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
+    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
+    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
+    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.875" customWidth="1"/>
-    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
+    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.125" customWidth="1"/>
+    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.125" customWidth="1"/>
-    <col min="9991" max="9991" width="82.125" customWidth="1"/>
-    <col min="9992" max="9992" width="25.625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.875" customWidth="1"/>
-    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
+    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
+    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
+    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.875" customWidth="1"/>
-    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
+    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.125" customWidth="1"/>
+    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.125" customWidth="1"/>
-    <col min="10247" max="10247" width="82.125" customWidth="1"/>
-    <col min="10248" max="10248" width="25.625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.875" customWidth="1"/>
-    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
+    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
+    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
+    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.875" customWidth="1"/>
-    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
+    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.125" customWidth="1"/>
+    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.125" customWidth="1"/>
-    <col min="10503" max="10503" width="82.125" customWidth="1"/>
-    <col min="10504" max="10504" width="25.625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.875" customWidth="1"/>
-    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
+    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
+    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
+    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.875" customWidth="1"/>
-    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
+    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.125" customWidth="1"/>
+    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.125" customWidth="1"/>
-    <col min="10759" max="10759" width="82.125" customWidth="1"/>
-    <col min="10760" max="10760" width="25.625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.875" customWidth="1"/>
-    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
+    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
+    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
+    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.875" customWidth="1"/>
-    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
+    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.125" customWidth="1"/>
+    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.125" customWidth="1"/>
-    <col min="11015" max="11015" width="82.125" customWidth="1"/>
-    <col min="11016" max="11016" width="25.625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.875" customWidth="1"/>
-    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
+    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
+    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
+    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.875" customWidth="1"/>
-    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
+    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.125" customWidth="1"/>
+    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.125" customWidth="1"/>
-    <col min="11271" max="11271" width="82.125" customWidth="1"/>
-    <col min="11272" max="11272" width="25.625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.875" customWidth="1"/>
-    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
+    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
+    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
+    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.875" customWidth="1"/>
-    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
+    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.125" customWidth="1"/>
+    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.125" customWidth="1"/>
-    <col min="11527" max="11527" width="82.125" customWidth="1"/>
-    <col min="11528" max="11528" width="25.625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.875" customWidth="1"/>
-    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
+    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
+    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
+    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.875" customWidth="1"/>
-    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
+    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.125" customWidth="1"/>
+    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.125" customWidth="1"/>
-    <col min="11783" max="11783" width="82.125" customWidth="1"/>
-    <col min="11784" max="11784" width="25.625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.875" customWidth="1"/>
-    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
+    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
+    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
+    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.875" customWidth="1"/>
-    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
+    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.125" customWidth="1"/>
+    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.125" customWidth="1"/>
-    <col min="12039" max="12039" width="82.125" customWidth="1"/>
-    <col min="12040" max="12040" width="25.625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.875" customWidth="1"/>
-    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
+    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
+    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
+    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.875" customWidth="1"/>
-    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
+    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.125" customWidth="1"/>
+    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.125" customWidth="1"/>
-    <col min="12295" max="12295" width="82.125" customWidth="1"/>
-    <col min="12296" max="12296" width="25.625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.875" customWidth="1"/>
-    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
+    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
+    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
+    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.875" customWidth="1"/>
-    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
+    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.125" customWidth="1"/>
+    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.125" customWidth="1"/>
-    <col min="12551" max="12551" width="82.125" customWidth="1"/>
-    <col min="12552" max="12552" width="25.625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.875" customWidth="1"/>
-    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
+    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
+    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
+    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.875" customWidth="1"/>
-    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
+    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.125" customWidth="1"/>
+    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.125" customWidth="1"/>
-    <col min="12807" max="12807" width="82.125" customWidth="1"/>
-    <col min="12808" max="12808" width="25.625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.875" customWidth="1"/>
-    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
+    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
+    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
+    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.875" customWidth="1"/>
-    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
+    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.125" customWidth="1"/>
+    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.125" customWidth="1"/>
-    <col min="13063" max="13063" width="82.125" customWidth="1"/>
-    <col min="13064" max="13064" width="25.625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.875" customWidth="1"/>
-    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
+    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
+    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
+    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.875" customWidth="1"/>
-    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
+    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.125" customWidth="1"/>
+    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.125" customWidth="1"/>
-    <col min="13319" max="13319" width="82.125" customWidth="1"/>
-    <col min="13320" max="13320" width="25.625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.875" customWidth="1"/>
-    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
+    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
+    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
+    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.875" customWidth="1"/>
-    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
+    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.125" customWidth="1"/>
+    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.125" customWidth="1"/>
-    <col min="13575" max="13575" width="82.125" customWidth="1"/>
-    <col min="13576" max="13576" width="25.625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.875" customWidth="1"/>
-    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
+    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
+    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
+    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.875" customWidth="1"/>
-    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
+    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.125" customWidth="1"/>
+    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.125" customWidth="1"/>
-    <col min="13831" max="13831" width="82.125" customWidth="1"/>
-    <col min="13832" max="13832" width="25.625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.875" customWidth="1"/>
-    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
+    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
+    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
+    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.875" customWidth="1"/>
-    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
+    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.125" customWidth="1"/>
+    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.125" customWidth="1"/>
-    <col min="14087" max="14087" width="82.125" customWidth="1"/>
-    <col min="14088" max="14088" width="25.625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.875" customWidth="1"/>
-    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
+    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
+    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
+    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.875" customWidth="1"/>
-    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
+    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.125" customWidth="1"/>
+    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.125" customWidth="1"/>
-    <col min="14343" max="14343" width="82.125" customWidth="1"/>
-    <col min="14344" max="14344" width="25.625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.875" customWidth="1"/>
-    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
+    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
+    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
+    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.875" customWidth="1"/>
-    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
+    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.125" customWidth="1"/>
+    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.125" customWidth="1"/>
-    <col min="14599" max="14599" width="82.125" customWidth="1"/>
-    <col min="14600" max="14600" width="25.625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.875" customWidth="1"/>
-    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
+    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
+    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
+    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.875" customWidth="1"/>
-    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
+    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.125" customWidth="1"/>
+    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.125" customWidth="1"/>
-    <col min="14855" max="14855" width="82.125" customWidth="1"/>
-    <col min="14856" max="14856" width="25.625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.875" customWidth="1"/>
-    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
+    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
+    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
+    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.875" customWidth="1"/>
-    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
+    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.125" customWidth="1"/>
+    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.125" customWidth="1"/>
-    <col min="15111" max="15111" width="82.125" customWidth="1"/>
-    <col min="15112" max="15112" width="25.625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.875" customWidth="1"/>
-    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
+    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
+    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
+    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.875" customWidth="1"/>
-    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
+    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.125" customWidth="1"/>
+    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.125" customWidth="1"/>
-    <col min="15367" max="15367" width="82.125" customWidth="1"/>
-    <col min="15368" max="15368" width="25.625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.875" customWidth="1"/>
-    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
+    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
+    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
+    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.875" customWidth="1"/>
-    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
+    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.125" customWidth="1"/>
+    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.125" customWidth="1"/>
-    <col min="15623" max="15623" width="82.125" customWidth="1"/>
-    <col min="15624" max="15624" width="25.625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.875" customWidth="1"/>
-    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
+    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
+    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
+    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.875" customWidth="1"/>
-    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
+    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.125" customWidth="1"/>
+    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.125" customWidth="1"/>
-    <col min="15879" max="15879" width="82.125" customWidth="1"/>
-    <col min="15880" max="15880" width="25.625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.875" customWidth="1"/>
-    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
+    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
+    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
+    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.875" customWidth="1"/>
-    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
+    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.125" customWidth="1"/>
+    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.125" customWidth="1"/>
-    <col min="16135" max="16135" width="82.125" customWidth="1"/>
-    <col min="16136" max="16136" width="25.625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.875" customWidth="1"/>
-    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
+    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
+    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
+    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="96" t="s">
         <v>30</v>
       </c>
@@ -9737,7 +9865,7 @@
       <c r="L1" s="96"/>
       <c r="M1" s="97"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="98"/>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
@@ -9752,7 +9880,7 @@
       <c r="L2" s="98"/>
       <c r="M2" s="99"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="68" t="s">
         <v>31</v>
       </c>
@@ -9793,7 +9921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="346.5">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="336" x14ac:dyDescent="0.15">
       <c r="A4" s="94">
         <v>1</v>
       </c>
@@ -9834,7 +9962,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="115.5">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.15">
       <c r="A5" s="94">
         <v>2</v>
       </c>
@@ -9873,7 +10001,7 @@
       </c>
       <c r="M5" s="95"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="66.75" customHeight="1">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="69">
         <v>3</v>
       </c>
@@ -9912,7 +10040,7 @@
       </c>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="69"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -9927,7 +10055,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="69"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -9942,7 +10070,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="69"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -9957,7 +10085,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="69"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -9972,7 +10100,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="69"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -9987,7 +10115,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="69"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10002,7 +10130,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="69"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10036,7 +10164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -10044,18 +10172,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -10081,7 +10209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -10091,7 +10219,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -10101,7 +10229,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -10111,7 +10239,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -10121,7 +10249,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -10131,7 +10259,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -10141,7 +10269,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -10151,7 +10279,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -10161,7 +10289,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -10171,7 +10299,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -10181,7 +10309,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -10191,7 +10319,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -10201,7 +10329,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -10211,7 +10339,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -10221,7 +10349,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -10231,7 +10359,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -10241,7 +10369,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -10251,7 +10379,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>

--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 3.4.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="29040" windowHeight="14560"/>
+    <workbookView xWindow="945" yWindow="465" windowWidth="29040" windowHeight="14565" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.1 新特性|Fix Bug" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="278">
   <si>
     <t>No</t>
   </si>
@@ -1193,12 +1193,108 @@
     <t>具体见“(生产)需要修改的配置文件”</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>3.4.1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterpc</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>filter.sysconfig.memcache.brand.time=1800</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>在systemconfig.properties删除原品牌缓存时间配置</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>#品牌缓存时间配置
+sysconfig.memcache.brand.shortexpire=300
+sysconfig.memcache.brand.longexpire=3600</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在systemconfig.properties新增品牌缓存时间配置 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoda-tasktracker、bs</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#data analysis valid time (days)
+sysconfig.da_validtime_collect=21
+sysconfig.da_validtime_analysis=21
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在systemconfig.properties新增数据分析有效时间配置 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterpc、bs</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.properties</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># BS, renter和renterpc项目，在jdbc.properties新增mogoda的数据源配置，具体的url/username/password需要换成各自环境的路径用户名和密码
+jdbc.driverClassName_mogoda=com.mysql.jdbc.Driver
+jdbc.url_mogoda=jdbc\:mysql\://mysql_server\:3306/mogo_da?useUnicode\=true&amp;amp;characterEncoding\=utf8&amp;allowMultiQueries=true
+jdbc.username_mogoda=正式环境加密的帐号
+jdbc.password_mogoda=正式环境加密的密码
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS, renter和renterpc项目，在jdbc.properties新增mogoda的数据源配置，具体的url/username/password需要换成各自环境的路径用户名和密码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体的url/username/password需要换成各自环境的路径用户名和密码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1374,6 +1470,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1617,7 +1720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1904,6 +2007,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1952,8 +2058,8 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1968,74 +2074,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2376,37 +2414,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="44.1640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="44.125" style="19" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="18" customWidth="1"/>
     <col min="4" max="4" width="27" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" style="18" customWidth="1"/>
-    <col min="11" max="12" width="11.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="18" customWidth="1"/>
+    <col min="11" max="12" width="11.875" style="18" customWidth="1"/>
     <col min="13" max="13" width="9" style="19"/>
     <col min="14" max="14" width="23" style="19" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="20" customWidth="1"/>
-    <col min="17" max="18" width="17.6640625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="51.6640625" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="20" customWidth="1"/>
+    <col min="17" max="18" width="17.625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="51.625" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2465,7 +2503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="31" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="31" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74">
         <v>1</v>
       </c>
@@ -2517,7 +2555,7 @@
       </c>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" spans="1:20" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="75">
         <v>2</v>
       </c>
@@ -2567,7 +2605,7 @@
       </c>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="75">
         <v>3</v>
       </c>
@@ -2615,7 +2653,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="27"/>
     </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="75">
         <v>4</v>
       </c>
@@ -2663,7 +2701,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="27"/>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="75">
         <v>5</v>
       </c>
@@ -2711,7 +2749,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="27"/>
     </row>
-    <row r="7" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="75">
         <v>6</v>
       </c>
@@ -2759,7 +2797,7 @@
       </c>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:20" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="75">
         <v>7</v>
       </c>
@@ -2807,7 +2845,7 @@
       </c>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="75">
         <v>8</v>
       </c>
@@ -2855,7 +2893,7 @@
       </c>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="75">
         <v>9</v>
       </c>
@@ -2901,7 +2939,7 @@
       <c r="S10" s="76"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="75">
         <v>10</v>
       </c>
@@ -2947,7 +2985,7 @@
       <c r="S11" s="76"/>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="75">
         <v>11</v>
       </c>
@@ -3039,7 +3077,7 @@
       <c r="S13" s="76"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="75">
         <v>13</v>
       </c>
@@ -3089,7 +3127,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="75">
         <v>14</v>
       </c>
@@ -3139,7 +3177,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="75">
         <v>15</v>
       </c>
@@ -3189,7 +3227,7 @@
       <c r="S16" s="29"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="75">
         <v>16</v>
       </c>
@@ -3239,7 +3277,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="75">
         <v>17</v>
       </c>
@@ -3289,7 +3327,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="75">
         <v>18</v>
       </c>
@@ -3339,7 +3377,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A20" s="75">
         <v>19</v>
       </c>
@@ -3389,7 +3427,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="75">
         <v>20</v>
       </c>
@@ -3439,7 +3477,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="75">
         <v>21</v>
       </c>
@@ -3489,7 +3527,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="75">
         <v>22</v>
       </c>
@@ -3539,7 +3577,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="75">
         <v>23</v>
       </c>
@@ -3589,7 +3627,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="75">
         <v>24</v>
       </c>
@@ -3639,7 +3677,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="75">
         <v>25</v>
       </c>
@@ -3689,7 +3727,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="75">
         <v>26</v>
       </c>
@@ -3739,7 +3777,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="75">
         <v>27</v>
       </c>
@@ -3789,7 +3827,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A29" s="75">
         <v>28</v>
       </c>
@@ -3839,7 +3877,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="75">
         <v>29</v>
       </c>
@@ -3889,7 +3927,7 @@
       <c r="S30" s="29"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="75">
         <v>30</v>
       </c>
@@ -3939,7 +3977,7 @@
       <c r="S31" s="29"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="75">
         <v>31</v>
       </c>
@@ -3989,7 +4027,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="75">
         <v>32</v>
       </c>
@@ -4039,7 +4077,7 @@
       <c r="S33" s="29"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" spans="1:20" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A34" s="75">
         <v>33</v>
       </c>
@@ -4089,7 +4127,7 @@
       <c r="S34" s="29"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="75">
         <v>34</v>
       </c>
@@ -4139,7 +4177,7 @@
       <c r="S35" s="29"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="1:20" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="75">
         <v>35</v>
       </c>
@@ -4189,7 +4227,7 @@
       <c r="S36" s="29"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="75">
         <v>36</v>
       </c>
@@ -4238,7 +4276,7 @@
       <c r="R37" s="34"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="75">
         <v>37</v>
       </c>
@@ -4287,7 +4325,7 @@
       <c r="R38" s="34"/>
       <c r="S38" s="29"/>
     </row>
-    <row r="39" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="75">
         <v>38</v>
       </c>
@@ -4336,7 +4374,7 @@
       <c r="R39" s="34"/>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="75">
         <v>39</v>
       </c>
@@ -4385,7 +4423,7 @@
       <c r="R40" s="34"/>
       <c r="S40" s="29"/>
     </row>
-    <row r="41" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="75">
         <v>40</v>
       </c>
@@ -4434,7 +4472,7 @@
       <c r="R41" s="34"/>
       <c r="S41" s="29"/>
     </row>
-    <row r="42" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="75">
         <v>41</v>
       </c>
@@ -4483,7 +4521,7 @@
       <c r="R42" s="34"/>
       <c r="S42" s="29"/>
     </row>
-    <row r="43" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="75">
         <v>42</v>
       </c>
@@ -4532,7 +4570,7 @@
       <c r="R43" s="34"/>
       <c r="S43" s="29"/>
     </row>
-    <row r="44" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="75">
         <v>43</v>
       </c>
@@ -4581,7 +4619,7 @@
       <c r="R44" s="34"/>
       <c r="S44" s="29"/>
     </row>
-    <row r="45" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="75">
         <v>44</v>
       </c>
@@ -4630,7 +4668,7 @@
       <c r="R45" s="34"/>
       <c r="S45" s="29"/>
     </row>
-    <row r="46" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="75">
         <v>45</v>
       </c>
@@ -4679,7 +4717,7 @@
       <c r="R46" s="34"/>
       <c r="S46" s="29"/>
     </row>
-    <row r="47" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="75">
         <v>46</v>
       </c>
@@ -4728,7 +4766,7 @@
       <c r="R47" s="34"/>
       <c r="S47" s="29"/>
     </row>
-    <row r="48" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="75">
         <v>47</v>
       </c>
@@ -4777,7 +4815,7 @@
       <c r="R48" s="34"/>
       <c r="S48" s="29"/>
     </row>
-    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="75">
         <v>48</v>
       </c>
@@ -4826,7 +4864,7 @@
       <c r="R49" s="34"/>
       <c r="S49" s="29"/>
     </row>
-    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="75">
         <v>49</v>
       </c>
@@ -4875,7 +4913,7 @@
       <c r="R50" s="34"/>
       <c r="S50" s="29"/>
     </row>
-    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="75">
         <v>50</v>
       </c>
@@ -4924,7 +4962,7 @@
       <c r="R51" s="34"/>
       <c r="S51" s="29"/>
     </row>
-    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="75">
         <v>51</v>
       </c>
@@ -4973,7 +5011,7 @@
       <c r="R52" s="34"/>
       <c r="S52" s="29"/>
     </row>
-    <row r="53" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="75">
         <v>52</v>
       </c>
@@ -5020,11 +5058,11 @@
       <c r="P53" s="80"/>
       <c r="Q53" s="80"/>
       <c r="R53" s="80"/>
-      <c r="S53" s="112" t="s">
+      <c r="S53" s="96" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="75">
         <v>53</v>
       </c>
@@ -5071,11 +5109,11 @@
       <c r="P54" s="80"/>
       <c r="Q54" s="80"/>
       <c r="R54" s="80"/>
-      <c r="S54" s="112" t="s">
+      <c r="S54" s="96" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="75">
         <v>54</v>
       </c>
@@ -5096,9 +5134,9 @@
       <c r="P55" s="80"/>
       <c r="Q55" s="80"/>
       <c r="R55" s="80"/>
-      <c r="S55" s="112"/>
-    </row>
-    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+      <c r="S55" s="96"/>
+    </row>
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="75">
         <v>55</v>
       </c>
@@ -5121,7 +5159,7 @@
       <c r="R56" s="34"/>
       <c r="S56" s="93"/>
     </row>
-    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="75">
         <v>56</v>
       </c>
@@ -5144,7 +5182,7 @@
       <c r="R57" s="34"/>
       <c r="S57" s="93"/>
     </row>
-    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="75">
         <v>57</v>
       </c>
@@ -5167,7 +5205,7 @@
       <c r="R58" s="34"/>
       <c r="S58" s="93"/>
     </row>
-    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="75">
         <v>58</v>
       </c>
@@ -5190,7 +5228,7 @@
       <c r="R59" s="34"/>
       <c r="S59" s="93"/>
     </row>
-    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="75">
         <v>59</v>
       </c>
@@ -5213,7 +5251,7 @@
       <c r="R60" s="34"/>
       <c r="S60" s="93"/>
     </row>
-    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="75">
         <v>60</v>
       </c>
@@ -5236,7 +5274,7 @@
       <c r="R61" s="34"/>
       <c r="S61" s="93"/>
     </row>
-    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="75">
         <v>61</v>
       </c>
@@ -5259,7 +5297,7 @@
       <c r="R62" s="34"/>
       <c r="S62" s="93"/>
     </row>
-    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="75">
         <v>62</v>
       </c>
@@ -5282,7 +5320,7 @@
       <c r="R63" s="34"/>
       <c r="S63" s="93"/>
     </row>
-    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="75">
         <v>63</v>
       </c>
@@ -5305,7 +5343,7 @@
       <c r="R64" s="34"/>
       <c r="S64" s="93"/>
     </row>
-    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="75">
         <v>64</v>
       </c>
@@ -5328,7 +5366,7 @@
       <c r="R65" s="34"/>
       <c r="S65" s="93"/>
     </row>
-    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="75">
         <v>65</v>
       </c>
@@ -5351,7 +5389,7 @@
       <c r="R66" s="34"/>
       <c r="S66" s="93"/>
     </row>
-    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="75">
         <v>66</v>
       </c>
@@ -5374,7 +5412,7 @@
       <c r="R67" s="34"/>
       <c r="S67" s="93"/>
     </row>
-    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="75">
         <v>67</v>
       </c>
@@ -5397,7 +5435,7 @@
       <c r="R68" s="34"/>
       <c r="S68" s="93"/>
     </row>
-    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="75">
         <v>68</v>
       </c>
@@ -5420,7 +5458,7 @@
       <c r="R69" s="34"/>
       <c r="S69" s="93"/>
     </row>
-    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
       <c r="B70" s="90"/>
       <c r="C70" s="34"/>
@@ -5441,7 +5479,7 @@
       <c r="R70" s="34"/>
       <c r="S70" s="93"/>
     </row>
-    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
       <c r="B71" s="90"/>
       <c r="C71" s="34"/>
@@ -5462,7 +5500,7 @@
       <c r="R71" s="34"/>
       <c r="S71" s="93"/>
     </row>
-    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
       <c r="B72" s="90"/>
       <c r="C72" s="34"/>
@@ -5483,7 +5521,7 @@
       <c r="R72" s="34"/>
       <c r="S72" s="93"/>
     </row>
-    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="23"/>
       <c r="B73" s="90"/>
       <c r="C73" s="34"/>
@@ -5504,7 +5542,7 @@
       <c r="R73" s="34"/>
       <c r="S73" s="93"/>
     </row>
-    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="23"/>
       <c r="B74" s="90"/>
       <c r="C74" s="34"/>
@@ -5525,7 +5563,7 @@
       <c r="R74" s="34"/>
       <c r="S74" s="93"/>
     </row>
-    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="23"/>
       <c r="B75" s="90"/>
       <c r="C75" s="34"/>
@@ -5546,7 +5584,7 @@
       <c r="R75" s="34"/>
       <c r="S75" s="93"/>
     </row>
-    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="23"/>
       <c r="B76" s="90"/>
       <c r="C76" s="34"/>
@@ -5567,7 +5605,7 @@
       <c r="R76" s="34"/>
       <c r="S76" s="93"/>
     </row>
-    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="23"/>
       <c r="B77" s="90"/>
       <c r="C77" s="34"/>
@@ -5588,7 +5626,7 @@
       <c r="R77" s="34"/>
       <c r="S77" s="93"/>
     </row>
-    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="23"/>
       <c r="B78" s="90"/>
       <c r="C78" s="34"/>
@@ -5609,7 +5647,7 @@
       <c r="R78" s="34"/>
       <c r="S78" s="93"/>
     </row>
-    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="23"/>
       <c r="B79" s="24"/>
       <c r="C79" s="23"/>
@@ -7529,882 +7567,882 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.33203125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="63.33203125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="63.375" style="44" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="9" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="257" max="257" width="3.83203125" customWidth="1"/>
-    <col min="258" max="258" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.625" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.1640625" customWidth="1"/>
+    <col min="260" max="260" width="12.125" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.1640625" customWidth="1"/>
-    <col min="263" max="263" width="82.1640625" customWidth="1"/>
-    <col min="264" max="264" width="25.6640625" customWidth="1"/>
-    <col min="265" max="265" width="13.6640625" customWidth="1"/>
-    <col min="266" max="266" width="9.83203125" customWidth="1"/>
-    <col min="267" max="267" width="10.1640625" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.125" customWidth="1"/>
+    <col min="264" max="264" width="25.625" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.6640625" customWidth="1"/>
-    <col min="513" max="513" width="3.83203125" customWidth="1"/>
-    <col min="514" max="514" width="10.1640625" customWidth="1"/>
+    <col min="269" max="269" width="17.625" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.1640625" customWidth="1"/>
+    <col min="516" max="516" width="12.125" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.1640625" customWidth="1"/>
-    <col min="519" max="519" width="82.1640625" customWidth="1"/>
-    <col min="520" max="520" width="25.6640625" customWidth="1"/>
-    <col min="521" max="521" width="13.6640625" customWidth="1"/>
-    <col min="522" max="522" width="9.83203125" customWidth="1"/>
-    <col min="523" max="523" width="10.1640625" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.125" customWidth="1"/>
+    <col min="520" max="520" width="25.625" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.6640625" customWidth="1"/>
-    <col min="769" max="769" width="3.83203125" customWidth="1"/>
-    <col min="770" max="770" width="10.1640625" customWidth="1"/>
+    <col min="525" max="525" width="17.625" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.1640625" customWidth="1"/>
+    <col min="772" max="772" width="12.125" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.1640625" customWidth="1"/>
-    <col min="775" max="775" width="82.1640625" customWidth="1"/>
-    <col min="776" max="776" width="25.6640625" customWidth="1"/>
-    <col min="777" max="777" width="13.6640625" customWidth="1"/>
-    <col min="778" max="778" width="9.83203125" customWidth="1"/>
-    <col min="779" max="779" width="10.1640625" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.125" customWidth="1"/>
+    <col min="776" max="776" width="25.625" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.6640625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
-    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
+    <col min="781" max="781" width="17.625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
-    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
-    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
-    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.125" customWidth="1"/>
+    <col min="1032" max="1032" width="25.625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
-    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
+    <col min="1037" max="1037" width="17.625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
-    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
-    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
-    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.125" customWidth="1"/>
+    <col min="1288" max="1288" width="25.625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
-    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
+    <col min="1293" max="1293" width="17.625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
-    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
-    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
-    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.125" customWidth="1"/>
+    <col min="1544" max="1544" width="25.625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
-    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
+    <col min="1549" max="1549" width="17.625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
-    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
-    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
-    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.125" customWidth="1"/>
+    <col min="1800" max="1800" width="25.625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
-    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
+    <col min="1805" max="1805" width="17.625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
-    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
-    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
-    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.125" customWidth="1"/>
+    <col min="2056" max="2056" width="25.625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
-    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
+    <col min="2061" max="2061" width="17.625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
-    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
-    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
-    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.125" customWidth="1"/>
+    <col min="2312" max="2312" width="25.625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
-    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
+    <col min="2317" max="2317" width="17.625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
-    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
-    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
-    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.125" customWidth="1"/>
+    <col min="2568" max="2568" width="25.625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
-    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
+    <col min="2573" max="2573" width="17.625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
-    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
-    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
-    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.125" customWidth="1"/>
+    <col min="2824" max="2824" width="25.625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
-    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
+    <col min="2829" max="2829" width="17.625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
-    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
-    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
-    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.125" customWidth="1"/>
+    <col min="3080" max="3080" width="25.625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
-    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
+    <col min="3085" max="3085" width="17.625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
-    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
-    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
-    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.125" customWidth="1"/>
+    <col min="3336" max="3336" width="25.625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
-    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
+    <col min="3341" max="3341" width="17.625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
-    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
-    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
-    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.125" customWidth="1"/>
+    <col min="3592" max="3592" width="25.625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
-    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
+    <col min="3597" max="3597" width="17.625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
-    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
-    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
-    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.125" customWidth="1"/>
+    <col min="3848" max="3848" width="25.625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
-    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
+    <col min="3853" max="3853" width="17.625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
-    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
-    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
-    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.125" customWidth="1"/>
+    <col min="4104" max="4104" width="25.625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
-    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
+    <col min="4109" max="4109" width="17.625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
-    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
-    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
-    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.125" customWidth="1"/>
+    <col min="4360" max="4360" width="25.625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
-    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
+    <col min="4365" max="4365" width="17.625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
-    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
-    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
-    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.125" customWidth="1"/>
+    <col min="4616" max="4616" width="25.625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
-    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
+    <col min="4621" max="4621" width="17.625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
-    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
-    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
-    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.125" customWidth="1"/>
+    <col min="4872" max="4872" width="25.625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
-    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
+    <col min="4877" max="4877" width="17.625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
-    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
-    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
-    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.125" customWidth="1"/>
+    <col min="5128" max="5128" width="25.625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
-    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
+    <col min="5133" max="5133" width="17.625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
-    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
-    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
-    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.125" customWidth="1"/>
+    <col min="5384" max="5384" width="25.625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
-    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
+    <col min="5389" max="5389" width="17.625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
-    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
-    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
-    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.125" customWidth="1"/>
+    <col min="5640" max="5640" width="25.625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
-    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
+    <col min="5645" max="5645" width="17.625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
-    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
-    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
-    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.125" customWidth="1"/>
+    <col min="5896" max="5896" width="25.625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
-    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
+    <col min="5901" max="5901" width="17.625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
-    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
-    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
-    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.125" customWidth="1"/>
+    <col min="6152" max="6152" width="25.625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
-    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
+    <col min="6157" max="6157" width="17.625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
-    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
-    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
-    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.125" customWidth="1"/>
+    <col min="6408" max="6408" width="25.625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
-    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
+    <col min="6413" max="6413" width="17.625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
-    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
-    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
-    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.125" customWidth="1"/>
+    <col min="6664" max="6664" width="25.625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
-    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
+    <col min="6669" max="6669" width="17.625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
-    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
-    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
-    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.125" customWidth="1"/>
+    <col min="6920" max="6920" width="25.625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
-    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
+    <col min="6925" max="6925" width="17.625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
-    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
-    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
-    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.125" customWidth="1"/>
+    <col min="7176" max="7176" width="25.625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
-    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
+    <col min="7181" max="7181" width="17.625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
-    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
-    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
-    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.125" customWidth="1"/>
+    <col min="7432" max="7432" width="25.625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
-    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
+    <col min="7437" max="7437" width="17.625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
-    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
-    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
-    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.125" customWidth="1"/>
+    <col min="7688" max="7688" width="25.625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
-    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
+    <col min="7693" max="7693" width="17.625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
-    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
-    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
-    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.125" customWidth="1"/>
+    <col min="7944" max="7944" width="25.625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
-    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
+    <col min="7949" max="7949" width="17.625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
-    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
-    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
-    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.125" customWidth="1"/>
+    <col min="8200" max="8200" width="25.625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
-    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
+    <col min="8205" max="8205" width="17.625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
-    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
-    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
-    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.125" customWidth="1"/>
+    <col min="8456" max="8456" width="25.625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
-    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
+    <col min="8461" max="8461" width="17.625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
-    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
-    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
-    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.125" customWidth="1"/>
+    <col min="8712" max="8712" width="25.625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
-    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
+    <col min="8717" max="8717" width="17.625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
-    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
-    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
-    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.125" customWidth="1"/>
+    <col min="8968" max="8968" width="25.625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
-    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
+    <col min="8973" max="8973" width="17.625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
-    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
-    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
-    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.125" customWidth="1"/>
+    <col min="9224" max="9224" width="25.625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
-    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
+    <col min="9229" max="9229" width="17.625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
-    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
-    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
-    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.125" customWidth="1"/>
+    <col min="9480" max="9480" width="25.625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
-    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
+    <col min="9485" max="9485" width="17.625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
-    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
-    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
-    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.125" customWidth="1"/>
+    <col min="9736" max="9736" width="25.625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
-    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
+    <col min="9741" max="9741" width="17.625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
-    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
-    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
-    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.125" customWidth="1"/>
+    <col min="9992" max="9992" width="25.625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
-    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
+    <col min="9997" max="9997" width="17.625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
-    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
-    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
-    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.125" customWidth="1"/>
+    <col min="10248" max="10248" width="25.625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
-    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
+    <col min="10253" max="10253" width="17.625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
-    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
-    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
-    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.125" customWidth="1"/>
+    <col min="10504" max="10504" width="25.625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
-    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
+    <col min="10509" max="10509" width="17.625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
-    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
-    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
-    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.125" customWidth="1"/>
+    <col min="10760" max="10760" width="25.625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
-    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
+    <col min="10765" max="10765" width="17.625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
-    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
-    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
-    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.125" customWidth="1"/>
+    <col min="11016" max="11016" width="25.625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
-    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
+    <col min="11021" max="11021" width="17.625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
-    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
-    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
-    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.125" customWidth="1"/>
+    <col min="11272" max="11272" width="25.625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
-    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
+    <col min="11277" max="11277" width="17.625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
-    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
-    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
-    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.125" customWidth="1"/>
+    <col min="11528" max="11528" width="25.625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
-    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
+    <col min="11533" max="11533" width="17.625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
-    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
-    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
-    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.125" customWidth="1"/>
+    <col min="11784" max="11784" width="25.625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
-    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
+    <col min="11789" max="11789" width="17.625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
-    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
-    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
-    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.125" customWidth="1"/>
+    <col min="12040" max="12040" width="25.625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
-    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
+    <col min="12045" max="12045" width="17.625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
-    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
-    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
-    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.125" customWidth="1"/>
+    <col min="12296" max="12296" width="25.625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
-    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
+    <col min="12301" max="12301" width="17.625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
-    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
-    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
-    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.125" customWidth="1"/>
+    <col min="12552" max="12552" width="25.625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
-    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
+    <col min="12557" max="12557" width="17.625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
-    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
-    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
-    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.125" customWidth="1"/>
+    <col min="12808" max="12808" width="25.625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
-    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
+    <col min="12813" max="12813" width="17.625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
-    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
-    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
-    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.125" customWidth="1"/>
+    <col min="13064" max="13064" width="25.625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
-    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
+    <col min="13069" max="13069" width="17.625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
-    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
-    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
-    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.125" customWidth="1"/>
+    <col min="13320" max="13320" width="25.625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
-    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
+    <col min="13325" max="13325" width="17.625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
-    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
-    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
-    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.125" customWidth="1"/>
+    <col min="13576" max="13576" width="25.625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
-    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
+    <col min="13581" max="13581" width="17.625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
-    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
-    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
-    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.125" customWidth="1"/>
+    <col min="13832" max="13832" width="25.625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
-    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
+    <col min="13837" max="13837" width="17.625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
-    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
-    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
-    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.125" customWidth="1"/>
+    <col min="14088" max="14088" width="25.625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
-    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
+    <col min="14093" max="14093" width="17.625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
-    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
-    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
-    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.125" customWidth="1"/>
+    <col min="14344" max="14344" width="25.625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
-    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
+    <col min="14349" max="14349" width="17.625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
-    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
-    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
-    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.125" customWidth="1"/>
+    <col min="14600" max="14600" width="25.625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
-    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
+    <col min="14605" max="14605" width="17.625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
-    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
-    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
-    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.125" customWidth="1"/>
+    <col min="14856" max="14856" width="25.625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
-    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
+    <col min="14861" max="14861" width="17.625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
-    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
-    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
-    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.125" customWidth="1"/>
+    <col min="15112" max="15112" width="25.625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
-    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
+    <col min="15117" max="15117" width="17.625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
-    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
-    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
-    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.125" customWidth="1"/>
+    <col min="15368" max="15368" width="25.625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
-    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
+    <col min="15373" max="15373" width="17.625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
-    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
-    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
-    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.125" customWidth="1"/>
+    <col min="15624" max="15624" width="25.625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
-    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
+    <col min="15629" max="15629" width="17.625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
-    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
-    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
-    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.125" customWidth="1"/>
+    <col min="15880" max="15880" width="25.625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
-    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
+    <col min="15885" max="15885" width="17.625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
-    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
-    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
-    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.125" customWidth="1"/>
+    <col min="16136" max="16136" width="25.625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -8445,7 +8483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -8460,7 +8498,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8475,7 +8513,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8490,7 +8528,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8505,7 +8543,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8520,7 +8558,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8535,7 +8573,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8570,42 +8608,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" style="58" customWidth="1"/>
-    <col min="10" max="10" width="53.6640625" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="58"/>
+    <col min="1" max="1" width="10.125" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="33.375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="53.625" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
         <v>43</v>
       </c>
@@ -8637,7 +8675,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
       <c r="B3" s="48"/>
       <c r="C3" s="49"/>
@@ -8649,9 +8687,9 @@
       <c r="I3" s="52"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="49"/>
       <c r="D4" s="65"/>
       <c r="E4" s="54"/>
@@ -8661,10 +8699,10 @@
       <c r="I4" s="52"/>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="101"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="102"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="55"/>
       <c r="E5" s="54"/>
       <c r="F5" s="50"/>
@@ -8673,10 +8711,10 @@
       <c r="I5" s="52"/>
       <c r="J5" s="55"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="101"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="107"/>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="102"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="55"/>
       <c r="E6" s="54"/>
       <c r="F6" s="50"/>
@@ -8685,9 +8723,9 @@
       <c r="I6" s="52"/>
       <c r="J6" s="55"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="101"/>
-      <c r="B7" s="106"/>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="102"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="49"/>
       <c r="D7" s="55"/>
       <c r="E7" s="54"/>
@@ -8697,9 +8735,9 @@
       <c r="I7" s="52"/>
       <c r="J7" s="55"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="101"/>
-      <c r="B8" s="106"/>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="102"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="49"/>
       <c r="D8" s="55"/>
       <c r="E8" s="54"/>
@@ -8721,9 +8759,9 @@
       <c r="I9" s="52"/>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="56"/>
       <c r="D10" s="54"/>
       <c r="E10" s="55"/>
@@ -8734,8 +8772,8 @@
       <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="100"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="56"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
@@ -8746,8 +8784,8 @@
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="49"/>
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
@@ -8757,9 +8795,9 @@
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="100"/>
-      <c r="B13" s="101"/>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="49"/>
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
@@ -8769,9 +8807,9 @@
       <c r="I13" s="50"/>
       <c r="J13" s="55"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="100"/>
-      <c r="B14" s="102"/>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="101"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="49"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -8798,44 +8836,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="111"/>
-    </row>
-    <row r="3" spans="1:9" s="62" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
+    </row>
+    <row r="3" spans="1:9" s="62" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="60" t="s">
         <v>31</v>
       </c>
@@ -9005,882 +9043,882 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="70" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="42" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="257" max="257" width="3.83203125" customWidth="1"/>
-    <col min="258" max="258" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.1640625" customWidth="1"/>
+    <col min="260" max="260" width="12.125" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.1640625" customWidth="1"/>
-    <col min="263" max="263" width="82.1640625" customWidth="1"/>
-    <col min="264" max="264" width="25.6640625" customWidth="1"/>
-    <col min="265" max="265" width="13.6640625" customWidth="1"/>
-    <col min="266" max="266" width="9.83203125" customWidth="1"/>
-    <col min="267" max="267" width="10.1640625" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.125" customWidth="1"/>
+    <col min="264" max="264" width="25.625" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.6640625" customWidth="1"/>
-    <col min="513" max="513" width="3.83203125" customWidth="1"/>
-    <col min="514" max="514" width="10.1640625" customWidth="1"/>
+    <col min="269" max="269" width="17.625" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.1640625" customWidth="1"/>
+    <col min="516" max="516" width="12.125" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.1640625" customWidth="1"/>
-    <col min="519" max="519" width="82.1640625" customWidth="1"/>
-    <col min="520" max="520" width="25.6640625" customWidth="1"/>
-    <col min="521" max="521" width="13.6640625" customWidth="1"/>
-    <col min="522" max="522" width="9.83203125" customWidth="1"/>
-    <col min="523" max="523" width="10.1640625" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.125" customWidth="1"/>
+    <col min="520" max="520" width="25.625" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.6640625" customWidth="1"/>
-    <col min="769" max="769" width="3.83203125" customWidth="1"/>
-    <col min="770" max="770" width="10.1640625" customWidth="1"/>
+    <col min="525" max="525" width="17.625" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.1640625" customWidth="1"/>
+    <col min="772" max="772" width="12.125" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.1640625" customWidth="1"/>
-    <col min="775" max="775" width="82.1640625" customWidth="1"/>
-    <col min="776" max="776" width="25.6640625" customWidth="1"/>
-    <col min="777" max="777" width="13.6640625" customWidth="1"/>
-    <col min="778" max="778" width="9.83203125" customWidth="1"/>
-    <col min="779" max="779" width="10.1640625" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.125" customWidth="1"/>
+    <col min="776" max="776" width="25.625" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.6640625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
-    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
+    <col min="781" max="781" width="17.625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
-    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
-    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
-    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.125" customWidth="1"/>
+    <col min="1032" max="1032" width="25.625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
-    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
+    <col min="1037" max="1037" width="17.625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
-    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
-    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
-    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.125" customWidth="1"/>
+    <col min="1288" max="1288" width="25.625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
-    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
+    <col min="1293" max="1293" width="17.625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
-    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
-    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
-    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.125" customWidth="1"/>
+    <col min="1544" max="1544" width="25.625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
-    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
+    <col min="1549" max="1549" width="17.625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
-    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
-    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
-    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.125" customWidth="1"/>
+    <col min="1800" max="1800" width="25.625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
-    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
+    <col min="1805" max="1805" width="17.625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
-    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
-    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
-    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.125" customWidth="1"/>
+    <col min="2056" max="2056" width="25.625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
-    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
+    <col min="2061" max="2061" width="17.625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
-    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
-    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
-    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.125" customWidth="1"/>
+    <col min="2312" max="2312" width="25.625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
-    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
+    <col min="2317" max="2317" width="17.625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
-    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
-    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
-    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.125" customWidth="1"/>
+    <col min="2568" max="2568" width="25.625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
-    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
+    <col min="2573" max="2573" width="17.625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
-    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
-    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
-    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.125" customWidth="1"/>
+    <col min="2824" max="2824" width="25.625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
-    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
+    <col min="2829" max="2829" width="17.625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
-    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
-    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
-    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.125" customWidth="1"/>
+    <col min="3080" max="3080" width="25.625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
-    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
+    <col min="3085" max="3085" width="17.625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
-    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
-    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
-    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.125" customWidth="1"/>
+    <col min="3336" max="3336" width="25.625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
-    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
+    <col min="3341" max="3341" width="17.625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
-    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
-    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
-    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.125" customWidth="1"/>
+    <col min="3592" max="3592" width="25.625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
-    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
+    <col min="3597" max="3597" width="17.625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
-    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
-    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
-    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.125" customWidth="1"/>
+    <col min="3848" max="3848" width="25.625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
-    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
+    <col min="3853" max="3853" width="17.625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
-    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
-    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
-    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.125" customWidth="1"/>
+    <col min="4104" max="4104" width="25.625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
-    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
+    <col min="4109" max="4109" width="17.625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
-    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
-    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
-    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.125" customWidth="1"/>
+    <col min="4360" max="4360" width="25.625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
-    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
+    <col min="4365" max="4365" width="17.625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
-    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
-    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
-    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.125" customWidth="1"/>
+    <col min="4616" max="4616" width="25.625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
-    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
+    <col min="4621" max="4621" width="17.625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
-    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
-    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
-    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.125" customWidth="1"/>
+    <col min="4872" max="4872" width="25.625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
-    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
+    <col min="4877" max="4877" width="17.625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
-    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
-    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
-    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.125" customWidth="1"/>
+    <col min="5128" max="5128" width="25.625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
-    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
+    <col min="5133" max="5133" width="17.625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
-    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
-    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
-    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.125" customWidth="1"/>
+    <col min="5384" max="5384" width="25.625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
-    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
+    <col min="5389" max="5389" width="17.625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
-    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
-    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
-    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.125" customWidth="1"/>
+    <col min="5640" max="5640" width="25.625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
-    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
+    <col min="5645" max="5645" width="17.625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
-    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
-    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
-    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.125" customWidth="1"/>
+    <col min="5896" max="5896" width="25.625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
-    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
+    <col min="5901" max="5901" width="17.625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
-    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
-    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
-    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.125" customWidth="1"/>
+    <col min="6152" max="6152" width="25.625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
-    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
+    <col min="6157" max="6157" width="17.625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
-    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
-    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
-    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.125" customWidth="1"/>
+    <col min="6408" max="6408" width="25.625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
-    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
+    <col min="6413" max="6413" width="17.625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
-    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
-    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
-    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.125" customWidth="1"/>
+    <col min="6664" max="6664" width="25.625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
-    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
+    <col min="6669" max="6669" width="17.625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
-    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
-    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
-    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.125" customWidth="1"/>
+    <col min="6920" max="6920" width="25.625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
-    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
+    <col min="6925" max="6925" width="17.625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
-    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
-    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
-    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.125" customWidth="1"/>
+    <col min="7176" max="7176" width="25.625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
-    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
+    <col min="7181" max="7181" width="17.625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
-    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
-    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
-    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.125" customWidth="1"/>
+    <col min="7432" max="7432" width="25.625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
-    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
+    <col min="7437" max="7437" width="17.625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
-    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
-    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
-    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.125" customWidth="1"/>
+    <col min="7688" max="7688" width="25.625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
-    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
+    <col min="7693" max="7693" width="17.625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
-    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
-    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
-    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.125" customWidth="1"/>
+    <col min="7944" max="7944" width="25.625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
-    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
+    <col min="7949" max="7949" width="17.625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
-    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
-    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
-    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.125" customWidth="1"/>
+    <col min="8200" max="8200" width="25.625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
-    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
+    <col min="8205" max="8205" width="17.625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
-    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
-    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
-    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.125" customWidth="1"/>
+    <col min="8456" max="8456" width="25.625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
-    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
+    <col min="8461" max="8461" width="17.625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
-    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
-    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
-    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.125" customWidth="1"/>
+    <col min="8712" max="8712" width="25.625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
-    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
+    <col min="8717" max="8717" width="17.625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
-    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
-    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
-    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.125" customWidth="1"/>
+    <col min="8968" max="8968" width="25.625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
-    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
+    <col min="8973" max="8973" width="17.625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
-    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
-    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
-    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.125" customWidth="1"/>
+    <col min="9224" max="9224" width="25.625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
-    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
+    <col min="9229" max="9229" width="17.625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
-    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
-    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
-    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.125" customWidth="1"/>
+    <col min="9480" max="9480" width="25.625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
-    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
+    <col min="9485" max="9485" width="17.625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
-    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
-    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
-    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.125" customWidth="1"/>
+    <col min="9736" max="9736" width="25.625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
-    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
+    <col min="9741" max="9741" width="17.625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
-    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
-    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
-    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.125" customWidth="1"/>
+    <col min="9992" max="9992" width="25.625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
-    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
+    <col min="9997" max="9997" width="17.625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
-    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
-    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
-    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.125" customWidth="1"/>
+    <col min="10248" max="10248" width="25.625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
-    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
+    <col min="10253" max="10253" width="17.625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
-    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
-    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
-    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.125" customWidth="1"/>
+    <col min="10504" max="10504" width="25.625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
-    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
+    <col min="10509" max="10509" width="17.625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
-    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
-    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
-    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.125" customWidth="1"/>
+    <col min="10760" max="10760" width="25.625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
-    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
+    <col min="10765" max="10765" width="17.625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
-    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
-    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
-    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.125" customWidth="1"/>
+    <col min="11016" max="11016" width="25.625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
-    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
+    <col min="11021" max="11021" width="17.625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
-    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
-    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
-    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.125" customWidth="1"/>
+    <col min="11272" max="11272" width="25.625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
-    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
+    <col min="11277" max="11277" width="17.625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
-    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
-    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
-    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.125" customWidth="1"/>
+    <col min="11528" max="11528" width="25.625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
-    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
+    <col min="11533" max="11533" width="17.625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
-    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
-    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
-    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.125" customWidth="1"/>
+    <col min="11784" max="11784" width="25.625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
-    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
+    <col min="11789" max="11789" width="17.625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
-    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
-    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
-    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.125" customWidth="1"/>
+    <col min="12040" max="12040" width="25.625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
-    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
+    <col min="12045" max="12045" width="17.625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
-    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
-    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
-    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.125" customWidth="1"/>
+    <col min="12296" max="12296" width="25.625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
-    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
+    <col min="12301" max="12301" width="17.625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
-    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
-    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
-    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.125" customWidth="1"/>
+    <col min="12552" max="12552" width="25.625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
-    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
+    <col min="12557" max="12557" width="17.625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
-    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
-    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
-    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.125" customWidth="1"/>
+    <col min="12808" max="12808" width="25.625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
-    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
+    <col min="12813" max="12813" width="17.625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
-    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
-    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
-    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.125" customWidth="1"/>
+    <col min="13064" max="13064" width="25.625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
-    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
+    <col min="13069" max="13069" width="17.625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
-    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
-    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
-    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.125" customWidth="1"/>
+    <col min="13320" max="13320" width="25.625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
-    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
+    <col min="13325" max="13325" width="17.625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
-    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
-    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
-    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.125" customWidth="1"/>
+    <col min="13576" max="13576" width="25.625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
-    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
+    <col min="13581" max="13581" width="17.625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
-    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
-    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
-    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.125" customWidth="1"/>
+    <col min="13832" max="13832" width="25.625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
-    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
+    <col min="13837" max="13837" width="17.625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
-    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
-    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
-    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.125" customWidth="1"/>
+    <col min="14088" max="14088" width="25.625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
-    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
+    <col min="14093" max="14093" width="17.625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
-    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
-    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
-    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.125" customWidth="1"/>
+    <col min="14344" max="14344" width="25.625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
-    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
+    <col min="14349" max="14349" width="17.625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
-    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
-    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
-    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.125" customWidth="1"/>
+    <col min="14600" max="14600" width="25.625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
-    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
+    <col min="14605" max="14605" width="17.625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
-    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
-    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
-    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.125" customWidth="1"/>
+    <col min="14856" max="14856" width="25.625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
-    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
+    <col min="14861" max="14861" width="17.625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
-    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
-    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
-    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.125" customWidth="1"/>
+    <col min="15112" max="15112" width="25.625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
-    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
+    <col min="15117" max="15117" width="17.625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
-    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
-    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
-    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.125" customWidth="1"/>
+    <col min="15368" max="15368" width="25.625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
-    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
+    <col min="15373" max="15373" width="17.625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
-    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
-    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
-    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.125" customWidth="1"/>
+    <col min="15624" max="15624" width="25.625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
-    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
+    <col min="15629" max="15629" width="17.625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
-    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
-    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
-    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.125" customWidth="1"/>
+    <col min="15880" max="15880" width="25.625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
-    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
+    <col min="15885" max="15885" width="17.625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
-    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
-    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
-    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.125" customWidth="1"/>
+    <col min="16136" max="16136" width="25.625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="68" t="s">
         <v>31</v>
       </c>
@@ -9921,7 +9959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="336" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="346.5" x14ac:dyDescent="0.15">
       <c r="A4" s="94">
         <v>1</v>
       </c>
@@ -9962,7 +10000,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A5" s="94">
         <v>2</v>
       </c>
@@ -10040,67 +10078,165 @@
       </c>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="69"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="69">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="69">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A9" s="69">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="A10" s="69">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="M10" s="113" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="69"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -10115,7 +10251,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="69"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10130,7 +10266,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="69"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10151,10 +10287,10 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576 JE1:JE1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN983041:WVN983053 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 WVN4:WVN13 JB4:JB13 SX4:SX13 ACT4:ACT13 AMP4:AMP13 AWL4:AWL13 BGH4:BGH13 BQD4:BQD13 BZZ4:BZZ13 CJV4:CJV13 CTR4:CTR13 DDN4:DDN13 DNJ4:DNJ13 DXF4:DXF13 EHB4:EHB13 EQX4:EQX13 FAT4:FAT13 FKP4:FKP13 FUL4:FUL13 GEH4:GEH13 GOD4:GOD13 GXZ4:GXZ13 HHV4:HHV13 HRR4:HRR13 IBN4:IBN13 ILJ4:ILJ13 IVF4:IVF13 JFB4:JFB13 JOX4:JOX13 JYT4:JYT13 KIP4:KIP13 KSL4:KSL13 LCH4:LCH13 LMD4:LMD13 LVZ4:LVZ13 MFV4:MFV13 MPR4:MPR13 MZN4:MZN13 NJJ4:NJJ13 NTF4:NTF13 ODB4:ODB13 OMX4:OMX13 OWT4:OWT13 PGP4:PGP13 PQL4:PQL13 QAH4:QAH13 QKD4:QKD13 QTZ4:QTZ13 RDV4:RDV13 RNR4:RNR13 RXN4:RXN13 SHJ4:SHJ13 SRF4:SRF13 TBB4:TBB13 TKX4:TKX13 TUT4:TUT13 UEP4:UEP13 UOL4:UOL13 UYH4:UYH13 VID4:VID13 VRZ4:VRZ13 WBV4:WBV13 WLR4:WLR13 F4:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN983041:WVN983053 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 F4:F13 WLR4:WLR13 WBV4:WBV13 VRZ4:VRZ13 VID4:VID13 UYH4:UYH13 UOL4:UOL13 UEP4:UEP13 TUT4:TUT13 TKX4:TKX13 TBB4:TBB13 SRF4:SRF13 SHJ4:SHJ13 RXN4:RXN13 RNR4:RNR13 RDV4:RDV13 QTZ4:QTZ13 QKD4:QKD13 QAH4:QAH13 PQL4:PQL13 PGP4:PGP13 OWT4:OWT13 OMX4:OMX13 ODB4:ODB13 NTF4:NTF13 NJJ4:NJJ13 MZN4:MZN13 MPR4:MPR13 MFV4:MFV13 LVZ4:LVZ13 LMD4:LMD13 LCH4:LCH13 KSL4:KSL13 KIP4:KIP13 JYT4:JYT13 JOX4:JOX13 JFB4:JFB13 IVF4:IVF13 ILJ4:ILJ13 IBN4:IBN13 HRR4:HRR13 HHV4:HHV13 GXZ4:GXZ13 GOD4:GOD13 GEH4:GEH13 FUL4:FUL13 FKP4:FKP13 FAT4:FAT13 EQX4:EQX13 EHB4:EHB13 DXF4:DXF13 DNJ4:DNJ13 DDN4:DDN13 CTR4:CTR13 CJV4:CJV13 BZZ4:BZZ13 BQD4:BQD13 BGH4:BGH13 AWL4:AWL13 AMP4:AMP13 ACT4:ACT13 SX4:SX13 JB4:JB13 WVN4:WVN13">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10165,22 +10301,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.4.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="465" windowWidth="29040" windowHeight="14565" activeTab="4"/>
+    <workbookView xWindow="945" yWindow="465" windowWidth="29040" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.1 新特性|Fix Bug" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="285">
   <si>
     <t>No</t>
   </si>
@@ -1289,12 +1289,52 @@
     <t>具体的url/username/password需要换成各自环境的路径用户名和密码</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>房东租金宝保证金慢查询优化</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BS、房东APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;PC</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1479,6 +1519,22 @@
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1720,7 +1776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2010,6 +2066,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2058,8 +2117,20 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="3" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2417,8 +2488,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T174"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2974,7 +3045,7 @@
         <v>110</v>
       </c>
       <c r="N11" s="78">
-        <v>42577</v>
+        <v>42576</v>
       </c>
       <c r="O11" s="67" t="s">
         <v>89</v>
@@ -3020,7 +3091,7 @@
         <v>109</v>
       </c>
       <c r="N12" s="78">
-        <v>42578</v>
+        <v>42576</v>
       </c>
       <c r="O12" s="67" t="s">
         <v>60</v>
@@ -3066,7 +3137,7 @@
         <v>109</v>
       </c>
       <c r="N13" s="78">
-        <v>42579</v>
+        <v>42576</v>
       </c>
       <c r="O13" s="67" t="s">
         <v>60</v>
@@ -4815,7 +4886,7 @@
       <c r="R48" s="34"/>
       <c r="S48" s="29"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="75">
         <v>48</v>
       </c>
@@ -4864,7 +4935,7 @@
       <c r="R49" s="34"/>
       <c r="S49" s="29"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="75">
         <v>49</v>
       </c>
@@ -4913,7 +4984,7 @@
       <c r="R50" s="34"/>
       <c r="S50" s="29"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="75">
         <v>50</v>
       </c>
@@ -4962,7 +5033,7 @@
       <c r="R51" s="34"/>
       <c r="S51" s="29"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="75">
         <v>51</v>
       </c>
@@ -5011,7 +5082,7 @@
       <c r="R52" s="34"/>
       <c r="S52" s="29"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="75">
         <v>52</v>
       </c>
@@ -5062,7 +5133,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="75">
         <v>53</v>
       </c>
@@ -5113,30 +5184,57 @@
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="75">
         <v>54</v>
       </c>
-      <c r="B55" s="81"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="67"/>
+      <c r="B55" s="114" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="E55" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="72">
+        <v>42576</v>
+      </c>
+      <c r="G55" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="72">
+        <v>42576</v>
+      </c>
+      <c r="I55" s="115"/>
+      <c r="J55" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="K55" s="115" t="s">
+        <v>281</v>
+      </c>
+      <c r="L55" s="115" t="s">
+        <v>282</v>
+      </c>
+      <c r="M55" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="N55" s="116">
+        <v>42577</v>
+      </c>
+      <c r="O55" s="67" t="s">
+        <v>284</v>
+      </c>
       <c r="P55" s="80"/>
       <c r="Q55" s="80"/>
       <c r="R55" s="80"/>
-      <c r="S55" s="96"/>
-    </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S55" s="118"/>
+      <c r="T55" s="27"/>
+    </row>
+    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="75">
         <v>55</v>
       </c>
@@ -5159,7 +5257,7 @@
       <c r="R56" s="34"/>
       <c r="S56" s="93"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="75">
         <v>56</v>
       </c>
@@ -5182,7 +5280,7 @@
       <c r="R57" s="34"/>
       <c r="S57" s="93"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="75">
         <v>57</v>
       </c>
@@ -5205,7 +5303,7 @@
       <c r="R58" s="34"/>
       <c r="S58" s="93"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="75">
         <v>58</v>
       </c>
@@ -5228,7 +5326,7 @@
       <c r="R59" s="34"/>
       <c r="S59" s="93"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="75">
         <v>59</v>
       </c>
@@ -5251,7 +5349,7 @@
       <c r="R60" s="34"/>
       <c r="S60" s="93"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="75">
         <v>60</v>
       </c>
@@ -5274,7 +5372,7 @@
       <c r="R61" s="34"/>
       <c r="S61" s="93"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="75">
         <v>61</v>
       </c>
@@ -5297,7 +5395,7 @@
       <c r="R62" s="34"/>
       <c r="S62" s="93"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="75">
         <v>62</v>
       </c>
@@ -5320,7 +5418,7 @@
       <c r="R63" s="34"/>
       <c r="S63" s="93"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="75">
         <v>63</v>
       </c>
@@ -8411,36 +8509,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -8630,18 +8728,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
@@ -8688,8 +8786,8 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="49"/>
       <c r="D4" s="65"/>
       <c r="E4" s="54"/>
@@ -8700,9 +8798,9 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="102"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="55"/>
       <c r="E5" s="54"/>
       <c r="F5" s="50"/>
@@ -8712,9 +8810,9 @@
       <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="102"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="55"/>
       <c r="E6" s="54"/>
       <c r="F6" s="50"/>
@@ -8724,8 +8822,8 @@
       <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="102"/>
-      <c r="B7" s="107"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="49"/>
       <c r="D7" s="55"/>
       <c r="E7" s="54"/>
@@ -8736,8 +8834,8 @@
       <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="102"/>
-      <c r="B8" s="107"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="49"/>
       <c r="D8" s="55"/>
       <c r="E8" s="54"/>
@@ -8760,8 +8858,8 @@
       <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="101"/>
-      <c r="B10" s="102"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="56"/>
       <c r="D10" s="54"/>
       <c r="E10" s="55"/>
@@ -8772,8 +8870,8 @@
       <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="101"/>
-      <c r="B11" s="102"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="56"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
@@ -8784,8 +8882,8 @@
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="49"/>
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
@@ -8796,8 +8894,8 @@
       <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="101"/>
-      <c r="B13" s="102"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="49"/>
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
@@ -8808,8 +8906,8 @@
       <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="101"/>
-      <c r="B14" s="103"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="49"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -8850,28 +8948,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="110"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:9" s="62" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="60" t="s">
@@ -9046,7 +9144,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -9887,36 +9985,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="68" t="s">
@@ -10232,7 +10330,7 @@
       <c r="L10" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="M10" s="113" t="s">
+      <c r="M10" s="97" t="s">
         <v>277</v>
       </c>
     </row>

--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.4.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MogoGit\Mogo_Doc\VersionRecords\Version 3.4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="465" windowWidth="29040" windowHeight="14565"/>
+    <workbookView xWindow="945" yWindow="465" windowWidth="29040" windowHeight="14565" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.1 新特性|Fix Bug" sheetId="8" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="(生产)需要修改的配置文件" sheetId="3" r:id="rId5"/>
     <sheet name="数据修复" sheetId="2" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="289">
   <si>
     <t>No</t>
   </si>
@@ -1328,6 +1331,26 @@
   <si>
     <t>能</t>
     <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>#消息独立发送包增加配置
+sysconfig.haobo_req_url=http://101.227.68.49:7891/mt
+sysconfig.haobo_account=92CB3CF630074130D96D030606976467
+sysconfig.haobo_password=E77392F1B198C4D2E6E01BCF4A4AE930
+sysconfig.mesgEnvir=pro</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增昊博短信配置，上线昊博通道</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2069,6 +2092,21 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="3" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2116,21 +2154,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="3" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2143,8 +2166,36 @@
     <cellStyle name="常规 9" xfId="2"/>
     <cellStyle name="甘特图" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2488,7 +2539,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
@@ -5188,7 +5239,7 @@
       <c r="A55" s="75">
         <v>54</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="98" t="s">
         <v>278</v>
       </c>
       <c r="C55" s="71" t="s">
@@ -5197,32 +5248,32 @@
       <c r="D55" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="E55" s="115" t="s">
+      <c r="E55" s="99" t="s">
         <v>20</v>
       </c>
       <c r="F55" s="72">
         <v>42576</v>
       </c>
-      <c r="G55" s="116" t="s">
+      <c r="G55" s="100" t="s">
         <v>20</v>
       </c>
       <c r="H55" s="72">
         <v>42576</v>
       </c>
-      <c r="I55" s="115"/>
-      <c r="J55" s="117" t="s">
+      <c r="I55" s="99"/>
+      <c r="J55" s="101" t="s">
         <v>280</v>
       </c>
-      <c r="K55" s="115" t="s">
+      <c r="K55" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="L55" s="115" t="s">
+      <c r="L55" s="99" t="s">
         <v>282</v>
       </c>
       <c r="M55" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="N55" s="116">
+      <c r="N55" s="100">
         <v>42577</v>
       </c>
       <c r="O55" s="67" t="s">
@@ -5231,7 +5282,7 @@
       <c r="P55" s="80"/>
       <c r="Q55" s="80"/>
       <c r="R55" s="80"/>
-      <c r="S55" s="118"/>
+      <c r="S55" s="102"/>
       <c r="T55" s="27"/>
     </row>
     <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
@@ -8509,36 +8560,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="101"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -8728,18 +8779,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
@@ -8786,8 +8837,8 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="49"/>
       <c r="D4" s="65"/>
       <c r="E4" s="54"/>
@@ -8798,9 +8849,9 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="103"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="55"/>
       <c r="E5" s="54"/>
       <c r="F5" s="50"/>
@@ -8810,9 +8861,9 @@
       <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="103"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="55"/>
       <c r="E6" s="54"/>
       <c r="F6" s="50"/>
@@ -8822,8 +8873,8 @@
       <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="103"/>
-      <c r="B7" s="108"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="49"/>
       <c r="D7" s="55"/>
       <c r="E7" s="54"/>
@@ -8834,8 +8885,8 @@
       <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="103"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="49"/>
       <c r="D8" s="55"/>
       <c r="E8" s="54"/>
@@ -8858,8 +8909,8 @@
       <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="102"/>
-      <c r="B10" s="103"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="56"/>
       <c r="D10" s="54"/>
       <c r="E10" s="55"/>
@@ -8870,8 +8921,8 @@
       <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="56"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
@@ -8882,8 +8933,8 @@
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="102"/>
-      <c r="B12" s="103"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="49"/>
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
@@ -8894,8 +8945,8 @@
       <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="102"/>
-      <c r="B13" s="103"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="49"/>
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
@@ -8906,8 +8957,8 @@
       <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="102"/>
-      <c r="B14" s="104"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="49"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -8948,28 +8999,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="116"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118"/>
     </row>
     <row r="3" spans="1:9" s="62" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="60" t="s">
@@ -9144,8 +9195,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9985,36 +10036,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="101"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="68" t="s">
@@ -10334,20 +10385,44 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="69">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I11" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="69"/>
@@ -10385,10 +10460,10 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576 JE1:JE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 I1:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN983041:WVN983053 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 F4:F13 WLR4:WLR13 WBV4:WBV13 VRZ4:VRZ13 VID4:VID13 UYH4:UYH13 UOL4:UOL13 UEP4:UEP13 TUT4:TUT13 TKX4:TKX13 TBB4:TBB13 SRF4:SRF13 SHJ4:SHJ13 RXN4:RXN13 RNR4:RNR13 RDV4:RDV13 QTZ4:QTZ13 QKD4:QKD13 QAH4:QAH13 PQL4:PQL13 PGP4:PGP13 OWT4:OWT13 OMX4:OMX13 ODB4:ODB13 NTF4:NTF13 NJJ4:NJJ13 MZN4:MZN13 MPR4:MPR13 MFV4:MFV13 LVZ4:LVZ13 LMD4:LMD13 LCH4:LCH13 KSL4:KSL13 KIP4:KIP13 JYT4:JYT13 JOX4:JOX13 JFB4:JFB13 IVF4:IVF13 ILJ4:ILJ13 IBN4:IBN13 HRR4:HRR13 HHV4:HHV13 GXZ4:GXZ13 GOD4:GOD13 GEH4:GEH13 FUL4:FUL13 FKP4:FKP13 FAT4:FAT13 EQX4:EQX13 EHB4:EHB13 DXF4:DXF13 DNJ4:DNJ13 DDN4:DDN13 CTR4:CTR13 CJV4:CJV13 BZZ4:BZZ13 BQD4:BQD13 BGH4:BGH13 AWL4:AWL13 AMP4:AMP13 ACT4:ACT13 SX4:SX13 JB4:JB13 WVN4:WVN13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN983041:WVN983053 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 WVN4:WVN13 JB4:JB13 SX4:SX13 ACT4:ACT13 AMP4:AMP13 AWL4:AWL13 BGH4:BGH13 BQD4:BQD13 BZZ4:BZZ13 CJV4:CJV13 CTR4:CTR13 DDN4:DDN13 DNJ4:DNJ13 DXF4:DXF13 EHB4:EHB13 EQX4:EQX13 FAT4:FAT13 FKP4:FKP13 FUL4:FUL13 GEH4:GEH13 GOD4:GOD13 GXZ4:GXZ13 HHV4:HHV13 HRR4:HRR13 IBN4:IBN13 ILJ4:ILJ13 IVF4:IVF13 JFB4:JFB13 JOX4:JOX13 JYT4:JYT13 KIP4:KIP13 KSL4:KSL13 LCH4:LCH13 LMD4:LMD13 LVZ4:LVZ13 MFV4:MFV13 MPR4:MPR13 MZN4:MZN13 NJJ4:NJJ13 NTF4:NTF13 ODB4:ODB13 OMX4:OMX13 OWT4:OWT13 PGP4:PGP13 PQL4:PQL13 QAH4:QAH13 QKD4:QKD13 QTZ4:QTZ13 RDV4:RDV13 RNR4:RNR13 RXN4:RXN13 SHJ4:SHJ13 SRF4:SRF13 TBB4:TBB13 TKX4:TKX13 TUT4:TUT13 UEP4:UEP13 UOL4:UOL13 UYH4:UYH13 VID4:VID13 VRZ4:VRZ13 WBV4:WBV13 WLR4:WLR13 F4:F13">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
